--- a/src/docs/Testdaten.xlsx
+++ b/src/docs/Testdaten.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vinschgau-my.sharepoint.com/personal/andreas_oberhofer_vip_coop/Documents/Dokumente/DiBSE/Software Engineering II/Squad4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\SE2\rki-ear\src\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="415" documentId="8_{A1A31CF3-3B62-4030-BAF2-A079AE88E0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E357EE94-B61D-4EC8-9195-483DB0FB984E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00763D54-FE29-4247-8DD9-60A67132691A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8085" yWindow="-17580" windowWidth="30960" windowHeight="16920" tabRatio="727" activeTab="1" xr2:uid="{C7E60199-CDCD-48E6-B7F8-6DAE96C95F81}"/>
+    <workbookView xWindow="-20715" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="727" activeTab="1" xr2:uid="{C7E60199-CDCD-48E6-B7F8-6DAE96C95F81}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="15" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8411" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8474" uniqueCount="927">
   <si>
     <t>ID  </t>
   </si>
@@ -2901,6 +2901,21 @@
   </si>
   <si>
     <t>Arzt</t>
+  </si>
+  <si>
+    <t>Fuchs</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>personStrings.add(</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>TestDataLoader Create Person:</t>
   </si>
 </sst>
 </file>
@@ -3103,7 +3118,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3164,6 +3179,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3173,7 +3191,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3182,7 +3200,148 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="2" xr:uid="{33B0DD6A-F5E3-47DB-85A5-E9A1C09374CA}"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFACA899"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFACA899"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFACA899"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFACA899"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFACA899"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFACA899"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFACA899"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFACA899"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFACA899"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFACA899"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFACA899"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFACA899"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3224,24 +3383,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3576,25 +3717,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{788FE72A-0140-4F72-B677-BEA081F800CF}" name="Tabelle2" displayName="Tabelle2" ref="A1:H364" totalsRowShown="0" dataDxfId="15" tableBorderDxfId="14">
-  <autoFilter ref="A1:H364" xr:uid="{788FE72A-0140-4F72-B677-BEA081F800CF}">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{788FE72A-0140-4F72-B677-BEA081F800CF}" name="Tabelle2" displayName="Tabelle2" ref="A1:K364" totalsRowShown="0" dataDxfId="18" tableBorderDxfId="17">
+  <autoFilter ref="A1:K364" xr:uid="{788FE72A-0140-4F72-B677-BEA081F800CF}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="0"/>
+      </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{73ECDCFE-F4CF-43A2-A3FE-A6FEB0C7E2E5}" name="ID" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{BDF57E82-E959-487B-8D01-3953A3B1CD47}" name="BIRTHDATE" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{4998E088-509D-4193-89D4-1BEC1D46868C}" name="FIRST_NAME" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{AA1D70A9-BCA8-4030-899B-B90BBE86A682}" name="LAST_NAME" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{14BADE81-5D0B-4481-879A-7EC2F4B770FC}" name="PERSON_TYPE" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{B45A12C0-735E-4C4F-8298-6186A928C9A9}" name="STATUS" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{42A4B3BF-8DE5-45DE-8668-257156A0B4DE}" name="ADDRESS_ID" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{48D844C7-882A-4E27-B889-BE6A2977EA52}" name="insert statement" dataDxfId="0">
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{73ECDCFE-F4CF-43A2-A3FE-A6FEB0C7E2E5}" name="ID" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{BDF57E82-E959-487B-8D01-3953A3B1CD47}" name="BIRTHDATE" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{4998E088-509D-4193-89D4-1BEC1D46868C}" name="FIRST_NAME" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{AA1D70A9-BCA8-4030-899B-B90BBE86A682}" name="LAST_NAME" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{14BADE81-5D0B-4481-879A-7EC2F4B770FC}" name="PERSON_TYPE" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{B45A12C0-735E-4C4F-8298-6186A928C9A9}" name="STATUS" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{42A4B3BF-8DE5-45DE-8668-257156A0B4DE}" name="ADDRESS_ID" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{48D844C7-882A-4E27-B889-BE6A2977EA52}" name="insert statement" dataDxfId="9">
       <calculatedColumnFormula>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="10" xr3:uid="{651F8A02-E2F5-4DE0-AA86-93328DAB793A}" name="personStrings.add(" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{1F0EF7A8-F4E1-4E2F-8F22-7672F0FE1516}" name="&quot;" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{09A7A5D2-C184-4092-87D9-9C23B8DF6095}" name="TestDataLoader Create Person:" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3652,7 +3796,7 @@
     <sortCondition ref="L2:L52"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{EFC3C7E2-F4FA-4BF7-BC30-70E1D3D9ABF0}" name="Rang" dataDxfId="4" dataCellStyle="Link"/>
+    <tableColumn id="1" xr3:uid="{EFC3C7E2-F4FA-4BF7-BC30-70E1D3D9ABF0}" name="Rang" dataDxfId="5" dataCellStyle="Link"/>
     <tableColumn id="2" xr3:uid="{8E06C5C4-8A8A-47DD-8CB1-23CB38459C85}" name="Nachname"/>
     <tableColumn id="3" xr3:uid="{5099B911-3AB0-4AF9-97B6-08031CD214A1}" name="Bemerkung"/>
   </tableColumns>
@@ -3664,8 +3808,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{05418AF9-36DF-45F3-B39A-F5F7D6CBEE58}" name="Tabelle5" displayName="Tabelle5" ref="H2:I335" totalsRowShown="0">
   <autoFilter ref="H2:I335" xr:uid="{05418AF9-36DF-45F3-B39A-F5F7D6CBEE58}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A8E7E295-1D24-4F7A-9064-523A13994CE4}" name="Vorname (distinct)" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{9882EB1E-5EB8-42B8-A1ED-66E45A9693E2}" name="Anz" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{A8E7E295-1D24-4F7A-9064-523A13994CE4}" name="Vorname (distinct)" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{9882EB1E-5EB8-42B8-A1ED-66E45A9693E2}" name="Anz" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3679,13 +3823,13 @@
     <tableColumn id="2" xr3:uid="{E8A21B9F-7879-4730-B904-855665D13C10}" name="CITY"/>
     <tableColumn id="3" xr3:uid="{C6289793-AFDE-47AD-AFF2-A8C986FAC675}" name="COUNTRY"/>
     <tableColumn id="4" xr3:uid="{8273CBB7-96F1-4423-B5C4-2AED628AE5F8}" name="FLOOR"/>
-    <tableColumn id="5" xr3:uid="{6CB265B1-9251-4188-B642-1435485933EC}" name="HOUSE_NUMBER" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{6CB265B1-9251-4188-B642-1435485933EC}" name="HOUSE_NUMBER" dataDxfId="8"/>
     <tableColumn id="6" xr3:uid="{455A6743-8098-4247-8B36-B6269C61FB9F}" name="STREET"/>
     <tableColumn id="7" xr3:uid="{D06B6C46-0FF5-4A13-9698-163F014D986C}" name="ZIP_CODE"/>
-    <tableColumn id="8" xr3:uid="{DD82338B-29F6-43E8-83B9-8C6C39BA6AED}" name="Address" dataDxfId="5">
+    <tableColumn id="8" xr3:uid="{DD82338B-29F6-43E8-83B9-8C6C39BA6AED}" name="Address" dataDxfId="7">
       <calculatedColumnFormula>Tabelle14[[#This Row],[STREET]]&amp;" "&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;", "&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;" "&amp;Tabelle14[[#This Row],[CITY]]&amp;", "&amp;Tabelle14[[#This Row],[COUNTRY]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{A1B4090E-D9AE-49B1-ADB7-BD00C6D0F3E3}" name="insert statement" dataDxfId="1">
+    <tableColumn id="9" xr3:uid="{A1B4090E-D9AE-49B1-ADB7-BD00C6D0F3E3}" name="insert statement" dataDxfId="6">
       <calculatedColumnFormula>("INSERT INTO ADDRESS VALUES ("&amp;Tabelle14[[#This Row],[ID]]&amp;",'"&amp;Tabelle14[[#This Row],[CITY]]&amp;"','"&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;"','"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;"','"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;"','"&amp;Tabelle14[[#This Row],[STREET]]&amp;"','"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;"');")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -47831,19 +47975,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>720</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
@@ -47908,18 +48052,18 @@
     </row>
     <row r="6" spans="1:11" s="12" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>708</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
@@ -49241,18 +49385,18 @@
     </row>
     <row r="45" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="27" t="s">
         <v>687</v>
       </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
     </row>
     <row r="46" spans="1:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="10" t="s">
@@ -50584,19 +50728,19 @@
       <c r="K84" s="7"/>
     </row>
     <row r="85" spans="1:11" s="6" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="26" t="s">
         <v>645</v>
       </c>
-      <c r="B85" s="25"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="25"/>
-      <c r="K85" s="25"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -50615,10 +50759,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF0B185-7B94-4B61-9302-05643D9FFA31}">
-  <dimension ref="A1:H364"/>
+  <dimension ref="A1:K364"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50629,11 +50773,15 @@
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="60.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4" customWidth="1"/>
+    <col min="11" max="11" width="48.42578125" customWidth="1"/>
+    <col min="12" max="12" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>839</v>
       </c>
@@ -50658,8 +50806,17 @@
       <c r="H1" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>924</v>
+      </c>
+      <c r="J1" t="s">
+        <v>923</v>
+      </c>
+      <c r="K1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -50679,12 +50836,15 @@
         <v>1</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="27" t="str">
+      <c r="H2" s="24" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (1,18264,'Gabrielle',Patel',3,1,);</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -50708,8 +50868,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (2,18295,'Brian',Robinson',3,1,);</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -50733,8 +50896,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (3,18323,'Eduardo',Haugen',3,1,);</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -50758,8 +50924,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (4,18354,'Koen',Johansen',3,1,);</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -50783,8 +50952,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (5,18384,'Alejandro',Macdonald',3,1,);</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -50808,8 +50980,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (6,18415,'Angel',Karlsson',3,1,);</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -50833,8 +51008,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (7,18445,'Yahir',Gustavsson',3,1,);</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -50858,8 +51036,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (8,18476,'Haiden',Svensson',3,1,);</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -50883,8 +51064,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (9,18507,'Emily',Stewart',3,1,);</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -50908,8 +51092,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (10,18537,'Corinne',Davis',3,1,);</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -50933,8 +51120,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (11,18568,'Ryann',Davis',3,1,);</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -50958,8 +51148,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (12,18598,'Yurem',Jackson',3,1,);</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -50983,8 +51176,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (13,18629,'Kelly',Gustavsson',3,1,);</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -51008,8 +51204,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (14,18660,'Eileen',Walker',3,1,);</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -51033,8 +51232,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (15,18688,'Katelyn',Martin',3,1,);</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -51058,8 +51260,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (16,18719,'Israel',Carlsson',3,1,);</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -51083,8 +51288,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (17,18749,'Quinn',Hansson',3,1,);</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -51108,8 +51316,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (18,18780,'Makena',Smith',3,1,);</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -51133,8 +51344,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (19,18810,'Danielle',Watson',3,1,);</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -51158,8 +51372,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (20,18841,'Leland',Harris',3,1,);</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -51183,8 +51400,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (21,18872,'Gunner',Karlsen',3,1,);</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -51208,8 +51428,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (22,18902,'Jamar',Olsson',3,1,);</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -51233,8 +51456,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (23,18933,'Lara',Martin',3,1,);</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -51258,8 +51484,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (24,18963,'Ann',Andersson',3,1,);</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -51283,8 +51512,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (25,18994,'Remington',Andersson',3,1,);</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -51308,8 +51540,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (26,19025,'Rene',Carlsson',3,1,);</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -51333,8 +51568,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (27,19054,'Elvis',Olsen',3,1,);</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -51358,8 +51596,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (28,19085,'Solomon',Olsen',3,1,);</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -51383,8 +51624,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (29,19115,'Jaydan',Jackson',3,1,);</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -51408,8 +51652,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (30,19146,'Bernard',Nilsen',3,1,);</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -51426,17 +51673,18 @@
         <v>3</v>
       </c>
       <c r="F32" s="2">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G32" s="2"/>
       <c r="H32" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (31,19176,'Aaron',Aigner',3,0,1);</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (31,19176,'Aaron',Aigner',3,1,);</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -51453,17 +51701,18 @@
         <v>3</v>
       </c>
       <c r="F33" s="2">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G33" s="2"/>
       <c r="H33" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (32,19207,'Adam',Auer',3,0,2);</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (32,19207,'Adam',Auer',3,1,);</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -51480,17 +51729,18 @@
         <v>3</v>
       </c>
       <c r="F34" s="2">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G34" s="2"/>
       <c r="H34" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (33,19238,'Adrian',Bauer',3,0,3);</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (33,19238,'Adrian',Bauer',3,1,);</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -51507,17 +51757,18 @@
         <v>3</v>
       </c>
       <c r="F35" s="2">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G35" s="2"/>
       <c r="H35" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (34,19268,'AHMET',Baumgartner',3,0,4);</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (34,19268,'AHMET',Baumgartner',3,1,);</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -51534,17 +51785,18 @@
         <v>3</v>
       </c>
       <c r="F36" s="2">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G36" s="2"/>
       <c r="H36" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (35,19299,'ALEKSANDAR',Berger',3,0,5);</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (35,19299,'ALEKSANDAR',Berger',3,1,);</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -51561,17 +51813,18 @@
         <v>3</v>
       </c>
       <c r="F37" s="2">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G37" s="2"/>
       <c r="H37" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (36,19329,'Alessandro',Binder',3,0,6);</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (36,19329,'Alessandro',Binder',3,1,);</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -51588,17 +51841,18 @@
         <v>3</v>
       </c>
       <c r="F38" s="2">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G38" s="2"/>
       <c r="H38" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (37,19360,'Alessio',Brunner',3,0,7);</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (37,19360,'Alessio',Brunner',3,1,);</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -51615,17 +51869,18 @@
         <v>3</v>
       </c>
       <c r="F39" s="2">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G39" s="2"/>
       <c r="H39" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (38,19391,'Alexander',Ebner',3,0,8);</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (38,19391,'Alexander',Ebner',3,1,);</v>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -51642,17 +51897,18 @@
         <v>3</v>
       </c>
       <c r="F40" s="2">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G40" s="2"/>
       <c r="H40" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (39,19419,'ALEXANDRA',Eder',3,0,9);</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (39,19419,'ALEXANDRA',Eder',3,1,);</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -51669,17 +51925,18 @@
         <v>3</v>
       </c>
       <c r="F41" s="2">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>10</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G41" s="2"/>
       <c r="H41" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (40,19450,'Ali',Egger',3,0,10);</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (40,19450,'Ali',Egger',3,1,);</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -51696,17 +51953,18 @@
         <v>3</v>
       </c>
       <c r="F42" s="2">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>11</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G42" s="2"/>
       <c r="H42" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (41,19480,'Alice',Fischer',3,0,11);</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (41,19480,'Alice',Fischer',3,1,);</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -51717,23 +51975,24 @@
         <v>468</v>
       </c>
       <c r="D43" t="s">
-        <v>803</v>
+        <v>922</v>
       </c>
       <c r="E43" s="2">
         <v>3</v>
       </c>
       <c r="F43" s="2">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>12</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G43" s="2"/>
       <c r="H43" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (42,19511,'Alina',Fuchs Übername',3,0,12);</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (42,19511,'Alina',Fuchs',3,1,);</v>
+      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -51750,17 +52009,18 @@
         <v>3</v>
       </c>
       <c r="F44" s="2">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G44" s="2"/>
       <c r="H44" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (43,19541,'ALISSA',Gruber',3,0,13);</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (43,19541,'ALISSA',Gruber',3,1,);</v>
+      </c>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -51777,17 +52037,18 @@
         <v>3</v>
       </c>
       <c r="F45" s="2">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>14</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G45" s="2"/>
       <c r="H45" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (44,19572,'Alma',Haas',3,0,14);</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (44,19572,'Alma',Haas',3,1,);</v>
+      </c>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -51804,17 +52065,18 @@
         <v>3</v>
       </c>
       <c r="F46" s="2">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>15</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G46" s="2"/>
       <c r="H46" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (45,19603,'Alois',Haider',3,0,15);</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (45,19603,'Alois',Haider',3,1,);</v>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -51831,17 +52093,18 @@
         <v>3</v>
       </c>
       <c r="F47" s="2">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>16</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G47" s="2"/>
       <c r="H47" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (46,19633,'Amalia',Hofer',3,0,16);</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (46,19633,'Amalia',Hofer',3,1,);</v>
+      </c>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -51858,17 +52121,18 @@
         <v>3</v>
       </c>
       <c r="F48" s="2">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G48" s="2"/>
       <c r="H48" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (47,19664,'Amelie',Holzer',3,0,17);</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (47,19664,'Amelie',Holzer',3,1,);</v>
+      </c>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -51885,17 +52149,18 @@
         <v>3</v>
       </c>
       <c r="F49" s="2">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>18</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G49" s="2"/>
       <c r="H49" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (48,19694,'Amina',Huber',3,0,18);</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (48,19694,'Amina',Huber',3,1,);</v>
+      </c>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+    </row>
+    <row r="50" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -51912,17 +52177,18 @@
         <v>3</v>
       </c>
       <c r="F50" s="2">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G50" s="2"/>
       <c r="H50" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (49,19725,'AMY',Koller',3,0,19);</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (49,19725,'AMY',Koller',3,1,);</v>
+      </c>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -51939,17 +52205,18 @@
         <v>3</v>
       </c>
       <c r="F51" s="2">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>20</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G51" s="2"/>
       <c r="H51" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (50,19756,'ANDRE',Lang',3,0,20);</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (50,19756,'ANDRE',Lang',3,1,);</v>
+      </c>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -51973,8 +52240,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (51,19784,'Andreas',Lechner',3,1,);</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -51998,8 +52268,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (52,19815,'Angelina',Lehner',3,1,);</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+    </row>
+    <row r="54" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -52023,8 +52296,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (53,19845,'ANGELO',Leitner',3,1,);</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -52048,8 +52324,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (54,19876,'ANIKA',Maier',3,1,);</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -52073,8 +52352,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (55,19906,'Anja',Mair',3,1,);</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+    </row>
+    <row r="57" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -52098,8 +52380,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (56,19937,'Anna',Maurer',3,1,);</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+    </row>
+    <row r="58" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -52123,8 +52408,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (57,19968,'ANNABELL',Mayer',3,1,);</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -52148,8 +52436,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (58,19998,'Anna-Lena',Mayr',3,1,);</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+    </row>
+    <row r="60" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -52173,8 +52464,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (59,20029,'ANNA-MARIA',Moser',3,1,);</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+    </row>
+    <row r="61" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -52198,8 +52492,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (60,20059,'ANNA-SOPHIE',Müller',3,1,);</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+    </row>
+    <row r="62" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -52223,8 +52520,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (61,20090,'Annika',Pichler',3,1,);</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+    </row>
+    <row r="63" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -52248,8 +52548,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (62,20121,'Anton',Reiter',3,1,);</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+    </row>
+    <row r="64" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -52273,8 +52576,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (63,20149,'Antonia',Riegler',3,1,);</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+    </row>
+    <row r="65" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -52298,8 +52604,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (64,20180,'ARAS',Schmid',3,1,);</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+    </row>
+    <row r="66" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -52323,8 +52632,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (65,20210,'ARDA',Schmidt',3,1,);</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+    </row>
+    <row r="67" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -52337,19 +52649,31 @@
       <c r="D67" t="s">
         <v>804</v>
       </c>
-      <c r="E67" s="2">
-        <v>3</v>
+      <c r="E67" s="2" t="s">
+        <v>925</v>
       </c>
       <c r="F67" s="2">
-        <v>1</v>
-      </c>
-      <c r="G67" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
       <c r="H67" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (66,20241,'Arian',Schneider',3,1,);</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (66,20241,'Arian',Schneider',Client,0,1);</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="J67" s="28" t="s">
+        <v>923</v>
+      </c>
+      <c r="K67" s="2" t="str">
+        <f>I67&amp;J67&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;J67&amp;");"</f>
+        <v>personStrings.add("Arian;Schneider;Client");</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -52362,19 +52686,31 @@
       <c r="D68" t="s">
         <v>815</v>
       </c>
-      <c r="E68" s="2">
-        <v>3</v>
+      <c r="E68" s="2" t="s">
+        <v>925</v>
       </c>
       <c r="F68" s="2">
-        <v>1</v>
-      </c>
-      <c r="G68" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
       <c r="H68" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (67,20271,'Armin',Schuster',3,1,);</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (67,20271,'Armin',Schuster',Client,0,2);</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="J68" s="28" t="s">
+        <v>923</v>
+      </c>
+      <c r="K68" s="2" t="str">
+        <f>I68&amp;J68&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;J68&amp;");"</f>
+        <v>personStrings.add("Armin;Schuster;Client");</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -52387,19 +52723,31 @@
       <c r="D69" t="s">
         <v>747</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="F69" s="2">
+        <v>0</v>
+      </c>
+      <c r="G69">
         <v>3</v>
       </c>
-      <c r="F69" s="2">
-        <v>1</v>
-      </c>
-      <c r="G69" s="2"/>
       <c r="H69" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (68,20302,'Arthur',Schwarz',3,1,);</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (68,20302,'Arthur',Schwarz',Client,0,3);</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="J69" s="28" t="s">
+        <v>923</v>
+      </c>
+      <c r="K69" s="2" t="str">
+        <f>I69&amp;J69&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;J69&amp;");"</f>
+        <v>personStrings.add("Arthur;Schwarz;Client");</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -52412,19 +52760,31 @@
       <c r="D70" t="s">
         <v>818</v>
       </c>
-      <c r="E70" s="2">
-        <v>3</v>
+      <c r="E70" s="2" t="s">
+        <v>925</v>
       </c>
       <c r="F70" s="2">
-        <v>1</v>
-      </c>
-      <c r="G70" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>4</v>
+      </c>
       <c r="H70" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (69,20333,'ASMIN',Stadler',3,1,);</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (69,20333,'ASMIN',Stadler',Client,0,4);</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="J70" s="28" t="s">
+        <v>923</v>
+      </c>
+      <c r="K70" s="2" t="str">
+        <f>I70&amp;J70&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;J70&amp;");"</f>
+        <v>personStrings.add("ASMIN;Stadler;Client");</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -52437,19 +52797,31 @@
       <c r="D71" t="s">
         <v>733</v>
       </c>
-      <c r="E71" s="2">
-        <v>3</v>
+      <c r="E71" s="2" t="s">
+        <v>925</v>
       </c>
       <c r="F71" s="2">
-        <v>1</v>
-      </c>
-      <c r="G71" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>5</v>
+      </c>
       <c r="H71" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (70,20363,'Aurelia',Steiner',3,1,);</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (70,20363,'Aurelia',Steiner',Client,0,5);</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="J71" s="28" t="s">
+        <v>923</v>
+      </c>
+      <c r="K71" s="2" t="str">
+        <f>I71&amp;J71&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;J71&amp;");"</f>
+        <v>personStrings.add("Aurelia;Steiner;Client");</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -52462,19 +52834,31 @@
       <c r="D72" t="s">
         <v>817</v>
       </c>
-      <c r="E72" s="2">
-        <v>3</v>
+      <c r="E72" s="2" t="s">
+        <v>925</v>
       </c>
       <c r="F72" s="2">
-        <v>1</v>
-      </c>
-      <c r="G72" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>6</v>
+      </c>
       <c r="H72" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (71,20394,'AYLIN',Strasser',3,1,);</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (71,20394,'AYLIN',Strasser',Client,0,6);</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="J72" s="28" t="s">
+        <v>923</v>
+      </c>
+      <c r="K72" s="2" t="str">
+        <f>I72&amp;J72&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;J72&amp;");"</f>
+        <v>personStrings.add("AYLIN;Strasser;Client");</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -52487,19 +52871,31 @@
       <c r="D73" t="s">
         <v>794</v>
       </c>
-      <c r="E73" s="2">
-        <v>3</v>
+      <c r="E73" s="2" t="s">
+        <v>925</v>
       </c>
       <c r="F73" s="2">
-        <v>1</v>
-      </c>
-      <c r="G73" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>7</v>
+      </c>
       <c r="H73" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (72,20424,'AZRA',Wagner',3,1,);</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (72,20424,'AZRA',Wagner',Client,0,7);</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="J73" s="28" t="s">
+        <v>923</v>
+      </c>
+      <c r="K73" s="2" t="str">
+        <f>I73&amp;J73&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;J73&amp;");"</f>
+        <v>personStrings.add("AZRA;Wagner;Client");</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -52512,19 +52908,31 @@
       <c r="D74" t="s">
         <v>762</v>
       </c>
-      <c r="E74" s="2">
-        <v>3</v>
+      <c r="E74" s="2" t="s">
+        <v>925</v>
       </c>
       <c r="F74" s="2">
-        <v>1</v>
-      </c>
-      <c r="G74" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>8</v>
+      </c>
       <c r="H74" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (73,20455,'BASTIAN',Wallner',3,1,);</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (73,20455,'BASTIAN',Wallner',Client,0,8);</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="J74" s="28" t="s">
+        <v>923</v>
+      </c>
+      <c r="K74" s="2" t="str">
+        <f>I74&amp;J74&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;J74&amp;");"</f>
+        <v>personStrings.add("BASTIAN;Wallner;Client");</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -52537,19 +52945,31 @@
       <c r="D75" t="s">
         <v>802</v>
       </c>
-      <c r="E75" s="2">
-        <v>3</v>
+      <c r="E75" s="2" t="s">
+        <v>925</v>
       </c>
       <c r="F75" s="2">
-        <v>1</v>
-      </c>
-      <c r="G75" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>9</v>
+      </c>
       <c r="H75" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (74,20486,'Ben',Weber',3,1,);</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (74,20486,'Ben',Weber',Client,0,9);</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="J75" s="28" t="s">
+        <v>923</v>
+      </c>
+      <c r="K75" s="2" t="str">
+        <f>I75&amp;J75&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;J75&amp;");"</f>
+        <v>personStrings.add("Ben;Weber;Client");</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -52562,19 +52982,31 @@
       <c r="D76" t="s">
         <v>781</v>
       </c>
-      <c r="E76" s="2">
-        <v>3</v>
+      <c r="E76" s="2" t="s">
+        <v>925</v>
       </c>
       <c r="F76" s="2">
-        <v>1</v>
-      </c>
-      <c r="G76" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>10</v>
+      </c>
       <c r="H76" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (75,20515,'Benedikt',Weiss',3,1,);</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (75,20515,'Benedikt',Weiss',Client,0,10);</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="J76" s="28" t="s">
+        <v>923</v>
+      </c>
+      <c r="K76" s="2" t="str">
+        <f>I76&amp;J76&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;J76&amp;");"</f>
+        <v>personStrings.add("Benedikt;Weiss;Client");</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -52587,19 +53019,31 @@
       <c r="D77" t="s">
         <v>816</v>
       </c>
-      <c r="E77" s="2">
-        <v>3</v>
+      <c r="E77" s="2" t="s">
+        <v>925</v>
       </c>
       <c r="F77" s="2">
-        <v>1</v>
-      </c>
-      <c r="G77" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>11</v>
+      </c>
       <c r="H77" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (76,20546,'Benjamin',Wieser',3,1,);</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (76,20546,'Benjamin',Wieser',Client,0,11);</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="J77" s="28" t="s">
+        <v>923</v>
+      </c>
+      <c r="K77" s="2" t="str">
+        <f>I77&amp;J77&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;J77&amp;");"</f>
+        <v>personStrings.add("Benjamin;Wieser;Client");</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -52612,19 +53056,31 @@
       <c r="D78" t="s">
         <v>757</v>
       </c>
-      <c r="E78" s="2">
-        <v>3</v>
+      <c r="E78" s="2" t="s">
+        <v>925</v>
       </c>
       <c r="F78" s="2">
-        <v>1</v>
-      </c>
-      <c r="G78" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>12</v>
+      </c>
       <c r="H78" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (77,20576,'BERAT',Wimmer',3,1,);</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (77,20576,'BERAT',Wimmer',Client,0,12);</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="J78" s="28" t="s">
+        <v>923</v>
+      </c>
+      <c r="K78" s="2" t="str">
+        <f>I78&amp;J78&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;J78&amp;");"</f>
+        <v>personStrings.add("BERAT;Wimmer;Client");</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -52637,19 +53093,31 @@
       <c r="D79" t="s">
         <v>800</v>
       </c>
-      <c r="E79" s="2">
-        <v>3</v>
+      <c r="E79" s="2" t="s">
+        <v>925</v>
       </c>
       <c r="F79" s="2">
-        <v>1</v>
-      </c>
-      <c r="G79" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>13</v>
+      </c>
       <c r="H79" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (78,20607,'Carina',Winkler',3,1,);</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (78,20607,'Carina',Winkler',Client,0,13);</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="J79" s="28" t="s">
+        <v>923</v>
+      </c>
+      <c r="K79" s="2" t="str">
+        <f>I79&amp;J79&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;J79&amp;");"</f>
+        <v>personStrings.add("Carina;Winkler;Client");</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -52662,19 +53130,31 @@
       <c r="D80" t="s">
         <v>791</v>
       </c>
-      <c r="E80" s="2">
-        <v>3</v>
+      <c r="E80" s="2" t="s">
+        <v>925</v>
       </c>
       <c r="F80" s="2">
-        <v>1</v>
-      </c>
-      <c r="G80" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>14</v>
+      </c>
       <c r="H80" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (79,20637,'Carla',Winter',3,1,);</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (79,20637,'Carla',Winter',Client,0,14);</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="J80" s="28" t="s">
+        <v>923</v>
+      </c>
+      <c r="K80" s="2" t="str">
+        <f>I80&amp;J80&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;J80&amp;");"</f>
+        <v>personStrings.add("Carla;Winter;Client");</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -52687,19 +53167,31 @@
       <c r="D81" t="s">
         <v>766</v>
       </c>
-      <c r="E81" s="2">
-        <v>3</v>
+      <c r="E81" s="2" t="s">
+        <v>925</v>
       </c>
       <c r="F81" s="2">
-        <v>1</v>
-      </c>
-      <c r="G81" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>15</v>
+      </c>
       <c r="H81" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (80,20668,'Carolina',Wolf',3,1,);</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (80,20668,'Carolina',Wolf',Client,0,15);</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="J81" s="28" t="s">
+        <v>923</v>
+      </c>
+      <c r="K81" s="2" t="str">
+        <f>I81&amp;J81&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;J81&amp;");"</f>
+        <v>personStrings.add("Carolina;Wolf;Client");</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -52712,19 +53204,31 @@
       <c r="D82" t="s">
         <v>812</v>
       </c>
-      <c r="E82" s="2">
-        <v>3</v>
+      <c r="E82" s="2" t="s">
+        <v>925</v>
       </c>
       <c r="F82" s="2">
-        <v>1</v>
-      </c>
-      <c r="G82" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>16</v>
+      </c>
       <c r="H82" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (81,20699,'Celina',Aigner',3,1,);</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (81,20699,'Celina',Aigner',Client,0,16);</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="J82" s="28" t="s">
+        <v>923</v>
+      </c>
+      <c r="K82" s="2" t="str">
+        <f>I82&amp;J82&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;J82&amp;");"</f>
+        <v>personStrings.add("Celina;Aigner;Client");</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -52737,19 +53241,31 @@
       <c r="D83" t="s">
         <v>811</v>
       </c>
-      <c r="E83" s="2">
-        <v>3</v>
+      <c r="E83" s="2" t="s">
+        <v>925</v>
       </c>
       <c r="F83" s="2">
-        <v>1</v>
-      </c>
-      <c r="G83" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>17</v>
+      </c>
       <c r="H83" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (82,20729,'CELINE',Auer',3,1,);</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (82,20729,'CELINE',Auer',Client,0,17);</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="J83" s="28" t="s">
+        <v>923</v>
+      </c>
+      <c r="K83" s="2" t="str">
+        <f>I83&amp;J83&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;J83&amp;");"</f>
+        <v>personStrings.add("CELINE;Auer;Client");</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -52762,19 +53278,31 @@
       <c r="D84" t="s">
         <v>799</v>
       </c>
-      <c r="E84" s="2">
-        <v>3</v>
+      <c r="E84" s="2" t="s">
+        <v>925</v>
       </c>
       <c r="F84" s="2">
-        <v>1</v>
-      </c>
-      <c r="G84" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>18</v>
+      </c>
       <c r="H84" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (83,20760,'Charlotte',Bauer',3,1,);</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (83,20760,'Charlotte',Bauer',Client,0,18);</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="J84" s="28" t="s">
+        <v>923</v>
+      </c>
+      <c r="K84" s="2" t="str">
+        <f>I84&amp;J84&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;J84&amp;");"</f>
+        <v>personStrings.add("Charlotte;Bauer;Client");</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -52787,19 +53315,31 @@
       <c r="D85" t="s">
         <v>809</v>
       </c>
-      <c r="E85" s="2">
-        <v>3</v>
+      <c r="E85" s="2" t="s">
+        <v>925</v>
       </c>
       <c r="F85" s="2">
-        <v>1</v>
-      </c>
-      <c r="G85" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>19</v>
+      </c>
       <c r="H85" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (84,20790,'Chiara',Baumgartner',3,1,);</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (84,20790,'Chiara',Baumgartner',Client,0,19);</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="J85" s="28" t="s">
+        <v>923</v>
+      </c>
+      <c r="K85" s="2" t="str">
+        <f>I85&amp;J85&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;J85&amp;");"</f>
+        <v>personStrings.add("Chiara;Baumgartner;Client");</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -52812,19 +53352,31 @@
       <c r="D86" t="s">
         <v>796</v>
       </c>
-      <c r="E86" s="2">
-        <v>3</v>
+      <c r="E86" s="2" t="s">
+        <v>925</v>
       </c>
       <c r="F86" s="2">
-        <v>1</v>
-      </c>
-      <c r="G86" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>20</v>
+      </c>
       <c r="H86" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (85,20821,'Christian',Berger',3,1,);</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (85,20821,'Christian',Berger',Client,0,20);</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="J86" s="28" t="s">
+        <v>923</v>
+      </c>
+      <c r="K86" s="2" t="str">
+        <f>I86&amp;J86&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;J86&amp;");"</f>
+        <v>personStrings.add("Christian;Berger;Client");</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -52848,8 +53400,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (86,20852,'Christina',Binder',3,1,);</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+    </row>
+    <row r="88" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -52873,8 +53428,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (87,20880,'CHRISTOF',Brunner',3,1,);</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+    </row>
+    <row r="89" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -52898,8 +53456,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (88,20911,'Christoph',Ebner',3,1,);</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+    </row>
+    <row r="90" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -52923,8 +53484,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (89,20941,'CLARA',Eder',3,1,);</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+    </row>
+    <row r="91" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -52948,8 +53512,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (90,20972,'CLAUDIA',Egger',3,1,);</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+    </row>
+    <row r="92" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -52973,8 +53540,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (91,21002,'Clemens',Fischer',3,1,);</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" ht="24.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+    </row>
+    <row r="93" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -52985,7 +53555,7 @@
         <v>332</v>
       </c>
       <c r="D93" t="s">
-        <v>803</v>
+        <v>922</v>
       </c>
       <c r="E93" s="2">
         <v>3</v>
@@ -52996,10 +53566,13 @@
       <c r="G93" s="2"/>
       <c r="H93" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (92,21033,'CONSTANTIN',Fuchs Übername',3,1,);</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (92,21033,'CONSTANTIN',Fuchs',3,1,);</v>
+      </c>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+    </row>
+    <row r="94" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -53023,8 +53596,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (93,21064,'Damian',Gruber',3,1,);</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+    </row>
+    <row r="95" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -53048,8 +53624,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (94,21094,'Daniel',Haas',3,1,);</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+    </row>
+    <row r="96" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -53073,8 +53652,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (95,21125,'DANIELA',Haider',3,1,);</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+    </row>
+    <row r="97" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -53098,8 +53680,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (96,21155,'DARIO',Hofer',3,1,);</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+    </row>
+    <row r="98" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -53123,8 +53708,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (97,21186,'David',Holzer',3,1,);</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+    </row>
+    <row r="99" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -53148,8 +53736,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (98,21217,'Defne',Huber',3,1,);</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+    </row>
+    <row r="100" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -53173,8 +53764,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (99,21245,'DENISE',Koller',3,1,);</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+    </row>
+    <row r="101" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -53198,8 +53792,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (100,21276,'DENIZ',Lang',3,1,);</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+    </row>
+    <row r="102" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -53223,8 +53820,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (101,21306,'Diana',Lechner',3,1,);</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+    </row>
+    <row r="103" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -53248,8 +53848,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (102,21337,'Diego',Lehner',3,1,);</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+    </row>
+    <row r="104" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -53273,8 +53876,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (103,21367,'Dominik',Leitner',3,1,);</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+    </row>
+    <row r="105" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -53298,8 +53904,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (104,21398,'ECRIN',Maier',3,1,);</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+    </row>
+    <row r="106" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -53323,8 +53932,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (105,21429,'EFE',Mair',3,1,);</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+    </row>
+    <row r="107" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -53348,8 +53960,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (106,21459,'EGE',Maurer',3,1,);</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+    </row>
+    <row r="108" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -53373,8 +53988,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (107,21490,'EILEEN',Mayer',3,1,);</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+    </row>
+    <row r="109" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -53398,8 +54016,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (108,21520,'ELA',Mayr',3,1,);</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+    </row>
+    <row r="110" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -53423,8 +54044,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (109,21551,'Elena',Moser',3,1,);</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+    </row>
+    <row r="111" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -53448,8 +54072,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (110,21582,'ELIA',Müller',3,1,);</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+    </row>
+    <row r="112" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -53473,8 +54100,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (111,21610,'Eliah',Pichler',3,1,);</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+    </row>
+    <row r="113" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -53498,8 +54128,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (112,21641,'Elias',Reiter',3,1,);</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+    </row>
+    <row r="114" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -53523,8 +54156,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (113,21671,'Elif',Riegler',3,1,);</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+    </row>
+    <row r="115" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -53548,8 +54184,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (114,21702,'Elina',Schmid',3,1,);</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+    </row>
+    <row r="116" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -53573,8 +54212,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (115,21732,'Elisa',Schmidt',3,1,);</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+    </row>
+    <row r="117" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -53598,8 +54240,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (116,21763,'Elisabeth',Schneider',3,1,);</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+    </row>
+    <row r="118" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -53623,8 +54268,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (117,21794,'Ella',Schuster',3,1,);</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+    </row>
+    <row r="119" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -53648,8 +54296,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (118,21824,'Emanuel',Schwarz',3,1,);</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+    </row>
+    <row r="120" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -53673,8 +54324,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (119,21855,'EMELIE',Stadler',3,1,);</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+    </row>
+    <row r="121" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -53698,8 +54352,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (120,21885,'Emely',Steiner',3,1,);</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+    </row>
+    <row r="122" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -53723,8 +54380,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (121,21916,'Emil',Strasser',3,1,);</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+    </row>
+    <row r="123" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -53748,8 +54408,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (122,21947,'Emilia',Wagner',3,1,);</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+    </row>
+    <row r="124" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -53773,8 +54436,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (123,21976,'Emilian',Wallner',3,1,);</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+    </row>
+    <row r="125" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -53798,8 +54464,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (124,22007,'Emilio',Weber',3,1,);</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+    </row>
+    <row r="126" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -53823,8 +54492,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (125,22037,'Emily',Weiss',3,1,);</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+    </row>
+    <row r="127" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -53848,8 +54520,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (126,22068,'Emir',Wieser',3,1,);</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+    </row>
+    <row r="128" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -53873,8 +54548,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (127,22098,'Emma',Wimmer',3,1,);</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
+    </row>
+    <row r="129" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -53898,8 +54576,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (128,22129,'EMRE',Winkler',3,1,);</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+    </row>
+    <row r="130" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -53923,8 +54604,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (129,22160,'ERAY',Winter',3,1,);</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+    </row>
+    <row r="131" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -53948,8 +54632,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (130,22190,'EREN',Wolf',3,1,);</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+    </row>
+    <row r="132" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -53973,8 +54660,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (131,22221,'Eric',Aigner',3,1,);</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+    </row>
+    <row r="133" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -53998,8 +54688,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (132,22251,'ERIK',Auer',3,1,);</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2"/>
+    </row>
+    <row r="134" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -54023,8 +54716,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (133,22282,'ESILA',Bauer',3,1,);</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I134" s="2"/>
+      <c r="J134" s="2"/>
+      <c r="K134" s="2"/>
+    </row>
+    <row r="135" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -54048,8 +54744,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (134,22313,'ESMA',Baumgartner',3,1,);</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
+      <c r="K135" s="2"/>
+    </row>
+    <row r="136" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -54073,8 +54772,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (135,22341,'Eva',Berger',3,1,);</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
+    </row>
+    <row r="137" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -54098,8 +54800,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (136,22372,'Eymen',Binder',3,1,);</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2"/>
+    </row>
+    <row r="138" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -54123,8 +54828,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (137,22402,'Fabian',Brunner',3,1,);</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I138" s="2"/>
+      <c r="J138" s="2"/>
+      <c r="K138" s="2"/>
+    </row>
+    <row r="139" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -54148,8 +54856,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (138,22433,'Fabienne',Ebner',3,1,);</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I139" s="2"/>
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
+    </row>
+    <row r="140" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -54173,8 +54884,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (139,22463,'Fabio',Eder',3,1,);</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I140" s="2"/>
+      <c r="J140" s="2"/>
+      <c r="K140" s="2"/>
+    </row>
+    <row r="141" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -54198,8 +54912,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (140,22494,'Felix',Egger',3,1,);</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2"/>
+    </row>
+    <row r="142" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -54223,8 +54940,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (141,22525,'FILIP',Fischer',3,1,);</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" ht="24.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I142" s="2"/>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2"/>
+    </row>
+    <row r="143" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -54235,7 +54955,7 @@
         <v>571</v>
       </c>
       <c r="D143" t="s">
-        <v>803</v>
+        <v>922</v>
       </c>
       <c r="E143" s="2">
         <v>3</v>
@@ -54246,10 +54966,13 @@
       <c r="G143" s="2"/>
       <c r="H143" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (142,22555,'Finn',Fuchs Übername',3,1,);</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (142,22555,'Finn',Fuchs',3,1,);</v>
+      </c>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2"/>
+      <c r="K143" s="2"/>
+    </row>
+    <row r="144" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -54273,8 +54996,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (143,22586,'Fiona',Gruber',3,1,);</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+    </row>
+    <row r="145" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -54298,8 +55024,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (144,22616,'Flora',Haas',3,1,);</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+    </row>
+    <row r="146" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -54323,8 +55052,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (145,22647,'FLORENTINA',Haider',3,1,);</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
+      <c r="K146" s="2"/>
+    </row>
+    <row r="147" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -54348,8 +55080,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (146,22678,'Florian',Hofer',3,1,);</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I147" s="2"/>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2"/>
+    </row>
+    <row r="148" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -54373,8 +55108,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (147,22706,'Franz',Holzer',3,1,);</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+    </row>
+    <row r="149" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -54398,8 +55136,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (148,22737,'Franziska',Huber',3,1,);</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I149" s="2"/>
+      <c r="J149" s="2"/>
+      <c r="K149" s="2"/>
+    </row>
+    <row r="150" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -54423,8 +55164,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (149,22767,'Frida',Koller',3,1,);</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
+      <c r="K150" s="2"/>
+    </row>
+    <row r="151" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -54448,8 +55192,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (150,22798,'Frieda',Lang',3,1,);</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
+      <c r="K151" s="2"/>
+    </row>
+    <row r="152" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -54473,8 +55220,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (151,22828,'Gabriel',Lechner',3,1,);</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I152" s="2"/>
+      <c r="J152" s="2"/>
+      <c r="K152" s="2"/>
+    </row>
+    <row r="153" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -54498,8 +55248,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (152,22859,'Georg',Lehner',3,1,);</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I153" s="2"/>
+      <c r="J153" s="2"/>
+      <c r="K153" s="2"/>
+    </row>
+    <row r="154" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -54523,8 +55276,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (153,22890,'GLORIA',Leitner',3,1,);</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I154" s="2"/>
+      <c r="J154" s="2"/>
+      <c r="K154" s="2"/>
+    </row>
+    <row r="155" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -54548,8 +55304,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (154,22920,'GREGOR',Maier',3,1,);</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I155" s="2"/>
+      <c r="J155" s="2"/>
+      <c r="K155" s="2"/>
+    </row>
+    <row r="156" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -54573,8 +55332,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (155,22951,'Greta',Mair',3,1,);</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I156" s="2"/>
+      <c r="J156" s="2"/>
+      <c r="K156" s="2"/>
+    </row>
+    <row r="157" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -54598,8 +55360,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (156,22981,'Hamza',Maurer',3,1,);</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I157" s="2"/>
+      <c r="J157" s="2"/>
+      <c r="K157" s="2"/>
+    </row>
+    <row r="158" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -54623,8 +55388,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (157,23012,'Hannah',Mayer',3,1,);</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I158" s="2"/>
+      <c r="J158" s="2"/>
+      <c r="K158" s="2"/>
+    </row>
+    <row r="159" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -54648,8 +55416,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (158,23043,'Hannes',Mayr',3,1,);</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I159" s="2"/>
+      <c r="J159" s="2"/>
+      <c r="K159" s="2"/>
+    </row>
+    <row r="160" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -54673,8 +55444,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (159,23071,'Heidi',Moser',3,1,);</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I160" s="2"/>
+      <c r="J160" s="2"/>
+      <c r="K160" s="2"/>
+    </row>
+    <row r="161" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -54698,8 +55472,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (160,23102,'Helena',Müller',3,1,);</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I161" s="2"/>
+      <c r="J161" s="2"/>
+      <c r="K161" s="2"/>
+    </row>
+    <row r="162" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -54723,8 +55500,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (161,23132,'Henri',Pichler',3,1,);</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I162" s="2"/>
+      <c r="J162" s="2"/>
+      <c r="K162" s="2"/>
+    </row>
+    <row r="163" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -54748,8 +55528,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (162,23163,'Henry',Reiter',3,1,);</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I163" s="2"/>
+      <c r="J163" s="2"/>
+      <c r="K163" s="2"/>
+    </row>
+    <row r="164" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -54773,8 +55556,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (163,23193,'Hira',Riegler',3,1,);</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I164" s="2"/>
+      <c r="J164" s="2"/>
+      <c r="K164" s="2"/>
+    </row>
+    <row r="165" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -54798,8 +55584,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (164,23224,'HÜSEYIN',Schmid',3,1,);</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I165" s="2"/>
+      <c r="J165" s="2"/>
+      <c r="K165" s="2"/>
+    </row>
+    <row r="166" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -54823,8 +55612,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (165,23255,'Ida',Schmidt',3,1,);</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I166" s="2"/>
+      <c r="J166" s="2"/>
+      <c r="K166" s="2"/>
+    </row>
+    <row r="167" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -54848,8 +55640,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (166,23285,'Ilvy',Schneider',3,1,);</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I167" s="2"/>
+      <c r="J167" s="2"/>
+      <c r="K167" s="2"/>
+    </row>
+    <row r="168" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -54873,8 +55668,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (167,23316,'IRIS',Schuster',3,1,);</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I168" s="2"/>
+      <c r="J168" s="2"/>
+      <c r="K168" s="2"/>
+    </row>
+    <row r="169" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -54898,8 +55696,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (168,23346,'ISABEL',Schwarz',3,1,);</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I169" s="2"/>
+      <c r="J169" s="2"/>
+      <c r="K169" s="2"/>
+    </row>
+    <row r="170" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -54923,8 +55724,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (169,23377,'ISABELL',Stadler',3,1,);</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I170" s="2"/>
+      <c r="J170" s="2"/>
+      <c r="K170" s="2"/>
+    </row>
+    <row r="171" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -54948,8 +55752,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (170,23408,'Isabella',Steiner',3,1,);</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I171" s="2"/>
+      <c r="J171" s="2"/>
+      <c r="K171" s="2"/>
+    </row>
+    <row r="172" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -54973,8 +55780,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (171,23437,'Jakob',Strasser',3,1,);</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I172" s="2"/>
+      <c r="J172" s="2"/>
+      <c r="K172" s="2"/>
+    </row>
+    <row r="173" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -54998,8 +55808,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (172,23468,'Jamie',Wagner',3,1,);</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I173" s="2"/>
+      <c r="J173" s="2"/>
+      <c r="K173" s="2"/>
+    </row>
+    <row r="174" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -55023,8 +55836,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (173,23498,'Jana',Wallner',3,1,);</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I174" s="2"/>
+      <c r="J174" s="2"/>
+      <c r="K174" s="2"/>
+    </row>
+    <row r="175" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -55048,8 +55864,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (174,23529,'Jasmin',Weber',3,1,);</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I175" s="2"/>
+      <c r="J175" s="2"/>
+      <c r="K175" s="2"/>
+    </row>
+    <row r="176" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -55073,8 +55892,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (175,23559,'JOEL',Weiss',3,1,);</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I176" s="2"/>
+      <c r="J176" s="2"/>
+      <c r="K176" s="2"/>
+    </row>
+    <row r="177" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -55098,8 +55920,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (176,23590,'Johann',Wieser',3,1,);</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I177" s="2"/>
+      <c r="J177" s="2"/>
+      <c r="K177" s="2"/>
+    </row>
+    <row r="178" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -55123,8 +55948,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (177,23621,'Johanna',Wimmer',3,1,);</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I178" s="2"/>
+      <c r="J178" s="2"/>
+      <c r="K178" s="2"/>
+    </row>
+    <row r="179" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -55148,8 +55976,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (178,23651,'Johannes',Winkler',3,1,);</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I179" s="2"/>
+      <c r="J179" s="2"/>
+      <c r="K179" s="2"/>
+    </row>
+    <row r="180" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -55173,8 +56004,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (179,23682,'Jonah',Winter',3,1,);</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I180" s="2"/>
+      <c r="J180" s="2"/>
+      <c r="K180" s="2"/>
+    </row>
+    <row r="181" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -55198,8 +56032,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (180,23712,'Jonas',Wolf',3,1,);</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I181" s="2"/>
+      <c r="J181" s="2"/>
+      <c r="K181" s="2"/>
+    </row>
+    <row r="182" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -55223,8 +56060,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (181,23743,'Jonathan',Aigner',3,1,);</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I182" s="2"/>
+      <c r="J182" s="2"/>
+      <c r="K182" s="2"/>
+    </row>
+    <row r="183" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -55248,8 +56088,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (182,23774,'Josef',Auer',3,1,);</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I183" s="2"/>
+      <c r="J183" s="2"/>
+      <c r="K183" s="2"/>
+    </row>
+    <row r="184" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -55273,8 +56116,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (183,23802,'Josefine',Bauer',3,1,);</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" ht="24.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I184" s="2"/>
+      <c r="J184" s="2"/>
+      <c r="K184" s="2"/>
+    </row>
+    <row r="185" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -55298,8 +56144,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (184,23833,'JOSHUA',Baumgartner',3,1,);</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I185" s="2"/>
+      <c r="J185" s="2"/>
+      <c r="K185" s="2"/>
+    </row>
+    <row r="186" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -55323,8 +56172,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (185,23863,'Julia',Berger',3,1,);</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I186" s="2"/>
+      <c r="J186" s="2"/>
+      <c r="K186" s="2"/>
+    </row>
+    <row r="187" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -55348,8 +56200,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (186,23894,'Julian',Binder',3,1,);</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I187" s="2"/>
+      <c r="J187" s="2"/>
+      <c r="K187" s="2"/>
+    </row>
+    <row r="188" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -55373,8 +56228,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (187,23924,'Julius',Brunner',3,1,);</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I188" s="2"/>
+      <c r="J188" s="2"/>
+      <c r="K188" s="2"/>
+    </row>
+    <row r="189" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -55398,8 +56256,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (188,23955,'JUSTIN',Ebner',3,1,);</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I189" s="2"/>
+      <c r="J189" s="2"/>
+      <c r="K189" s="2"/>
+    </row>
+    <row r="190" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -55423,8 +56284,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (189,23986,'KAAN',Eder',3,1,);</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I190" s="2"/>
+      <c r="J190" s="2"/>
+      <c r="K190" s="2"/>
+    </row>
+    <row r="191" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -55448,8 +56312,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (190,24016,'Katharina',Egger',3,1,);</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I191" s="2"/>
+      <c r="J191" s="2"/>
+      <c r="K191" s="2"/>
+    </row>
+    <row r="192" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -55473,8 +56340,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (191,24047,'KENAN',Fischer',3,1,);</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" ht="24.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I192" s="2"/>
+      <c r="J192" s="2"/>
+      <c r="K192" s="2"/>
+    </row>
+    <row r="193" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -55485,7 +56355,7 @@
         <v>246</v>
       </c>
       <c r="D193" t="s">
-        <v>803</v>
+        <v>922</v>
       </c>
       <c r="E193" s="2">
         <v>3</v>
@@ -55496,10 +56366,13 @@
       <c r="G193" s="2"/>
       <c r="H193" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (192,24077,'KEVIN',Fuchs Übername',3,1,);</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (192,24077,'KEVIN',Fuchs',3,1,);</v>
+      </c>
+      <c r="I193" s="2"/>
+      <c r="J193" s="2"/>
+      <c r="K193" s="2"/>
+    </row>
+    <row r="194" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -55523,8 +56396,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (193,24108,'Kilian',Gruber',3,1,);</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I194" s="2"/>
+      <c r="J194" s="2"/>
+      <c r="K194" s="2"/>
+    </row>
+    <row r="195" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -55548,8 +56424,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (194,24139,'Klara',Haas',3,1,);</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I195" s="2"/>
+      <c r="J195" s="2"/>
+      <c r="K195" s="2"/>
+    </row>
+    <row r="196" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -55573,8 +56452,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (195,24167,'Konstantin',Haider',3,1,);</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I196" s="2"/>
+      <c r="J196" s="2"/>
+      <c r="K196" s="2"/>
+    </row>
+    <row r="197" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -55598,8 +56480,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (196,24198,'LANA',Hofer',3,1,);</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I197" s="2"/>
+      <c r="J197" s="2"/>
+      <c r="K197" s="2"/>
+    </row>
+    <row r="198" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -55623,8 +56508,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (197,24228,'Lara',Holzer',3,1,);</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I198" s="2"/>
+      <c r="J198" s="2"/>
+      <c r="K198" s="2"/>
+    </row>
+    <row r="199" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -55648,8 +56536,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (198,24259,'Larissa',Huber',3,1,);</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I199" s="2"/>
+      <c r="J199" s="2"/>
+      <c r="K199" s="2"/>
+    </row>
+    <row r="200" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -55673,8 +56564,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (199,24289,'Laura',Koller',3,1,);</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I200" s="2"/>
+      <c r="J200" s="2"/>
+      <c r="K200" s="2"/>
+    </row>
+    <row r="201" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -55698,8 +56592,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (200,24320,'LAURENZ',Lang',3,1,);</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I201" s="2"/>
+      <c r="J201" s="2"/>
+      <c r="K201" s="2"/>
+    </row>
+    <row r="202" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -55723,8 +56620,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (201,24351,'Laurin',Lechner',3,1,);</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I202" s="2"/>
+      <c r="J202" s="2"/>
+      <c r="K202" s="2"/>
+    </row>
+    <row r="203" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -55748,8 +56648,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (202,24381,'Lea',Lehner',3,1,);</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I203" s="2"/>
+      <c r="J203" s="2"/>
+      <c r="K203" s="2"/>
+    </row>
+    <row r="204" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -55773,8 +56676,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (203,24412,'Lena',Leitner',3,1,);</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I204" s="2"/>
+      <c r="J204" s="2"/>
+      <c r="K204" s="2"/>
+    </row>
+    <row r="205" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -55798,8 +56704,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (204,24442,'Leni',Maier',3,1,);</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I205" s="2"/>
+      <c r="J205" s="2"/>
+      <c r="K205" s="2"/>
+    </row>
+    <row r="206" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -55823,8 +56732,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (205,24473,'Lenny',Mair',3,1,);</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I206" s="2"/>
+      <c r="J206" s="2"/>
+      <c r="K206" s="2"/>
+    </row>
+    <row r="207" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -55848,8 +56760,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (206,24504,'Leo',Maurer',3,1,);</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I207" s="2"/>
+      <c r="J207" s="2"/>
+      <c r="K207" s="2"/>
+    </row>
+    <row r="208" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -55873,8 +56788,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (207,24532,'Leon',Mayer',3,1,);</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I208" s="2"/>
+      <c r="J208" s="2"/>
+      <c r="K208" s="2"/>
+    </row>
+    <row r="209" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -55898,8 +56816,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (208,24563,'LEONARDO',Mayr',3,1,);</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I209" s="2"/>
+      <c r="J209" s="2"/>
+      <c r="K209" s="2"/>
+    </row>
+    <row r="210" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -55923,8 +56844,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (209,24593,'Leonhard',Moser',3,1,);</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I210" s="2"/>
+      <c r="J210" s="2"/>
+      <c r="K210" s="2"/>
+    </row>
+    <row r="211" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -55948,8 +56872,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (210,24624,'Leonie',Müller',3,1,);</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I211" s="2"/>
+      <c r="J211" s="2"/>
+      <c r="K211" s="2"/>
+    </row>
+    <row r="212" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -55973,8 +56900,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (211,24654,'Leopold',Pichler',3,1,);</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I212" s="2"/>
+      <c r="J212" s="2"/>
+      <c r="K212" s="2"/>
+    </row>
+    <row r="213" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -55998,8 +56928,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (212,24685,'Levi',Reiter',3,1,);</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I213" s="2"/>
+      <c r="J213" s="2"/>
+      <c r="K213" s="2"/>
+    </row>
+    <row r="214" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -56023,8 +56956,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (213,24716,'LEVIN',Riegler',3,1,);</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I214" s="2"/>
+      <c r="J214" s="2"/>
+      <c r="K214" s="2"/>
+    </row>
+    <row r="215" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -56048,8 +56984,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (214,24746,'Lia',Schmid',3,1,);</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I215" s="2"/>
+      <c r="J215" s="2"/>
+      <c r="K215" s="2"/>
+    </row>
+    <row r="216" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -56073,8 +57012,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (215,24777,'Liah',Schmidt',3,1,);</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I216" s="2"/>
+      <c r="J216" s="2"/>
+      <c r="K216" s="2"/>
+    </row>
+    <row r="217" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -56098,8 +57040,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (216,24807,'Liam',Schneider',3,1,);</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I217" s="2"/>
+      <c r="J217" s="2"/>
+      <c r="K217" s="2"/>
+    </row>
+    <row r="218" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -56123,8 +57068,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (217,24838,'Lilly',Schuster',3,1,);</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I218" s="2"/>
+      <c r="J218" s="2"/>
+      <c r="K218" s="2"/>
+    </row>
+    <row r="219" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -56148,8 +57096,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (218,24869,'Lina',Schwarz',3,1,);</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I219" s="2"/>
+      <c r="J219" s="2"/>
+      <c r="K219" s="2"/>
+    </row>
+    <row r="220" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -56173,8 +57124,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (219,24898,'Linda',Stadler',3,1,);</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I220" s="2"/>
+      <c r="J220" s="2"/>
+      <c r="K220" s="2"/>
+    </row>
+    <row r="221" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -56198,8 +57152,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (220,24929,'Linus',Steiner',3,1,);</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I221" s="2"/>
+      <c r="J221" s="2"/>
+      <c r="K221" s="2"/>
+    </row>
+    <row r="222" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -56223,8 +57180,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (221,24959,'LION',Strasser',3,1,);</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I222" s="2"/>
+      <c r="J222" s="2"/>
+      <c r="K222" s="2"/>
+    </row>
+    <row r="223" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -56248,8 +57208,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (222,24990,'LIONEL',Wagner',3,1,);</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I223" s="2"/>
+      <c r="J223" s="2"/>
+      <c r="K223" s="2"/>
+    </row>
+    <row r="224" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -56273,8 +57236,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (223,25020,'Lisa',Wallner',3,1,);</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I224" s="2"/>
+      <c r="J224" s="2"/>
+      <c r="K224" s="2"/>
+    </row>
+    <row r="225" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -56298,8 +57264,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (224,25051,'Livia',Weber',3,1,);</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I225" s="2"/>
+      <c r="J225" s="2"/>
+      <c r="K225" s="2"/>
+    </row>
+    <row r="226" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -56323,8 +57292,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (225,25082,'Liya',Weiss',3,1,);</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I226" s="2"/>
+      <c r="J226" s="2"/>
+      <c r="K226" s="2"/>
+    </row>
+    <row r="227" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -56348,8 +57320,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (226,25112,'Lorena',Wieser',3,1,);</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I227" s="2"/>
+      <c r="J227" s="2"/>
+      <c r="K227" s="2"/>
+    </row>
+    <row r="228" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -56373,8 +57348,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (227,25143,'Lorenz',Wimmer',3,1,);</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I228" s="2"/>
+      <c r="J228" s="2"/>
+      <c r="K228" s="2"/>
+    </row>
+    <row r="229" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -56398,8 +57376,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (228,25173,'Louis',Winkler',3,1,);</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I229" s="2"/>
+      <c r="J229" s="2"/>
+      <c r="K229" s="2"/>
+    </row>
+    <row r="230" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -56423,8 +57404,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (229,25204,'LOUISA',Winter',3,1,);</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I230" s="2"/>
+      <c r="J230" s="2"/>
+      <c r="K230" s="2"/>
+    </row>
+    <row r="231" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -56448,8 +57432,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (230,25235,'Luca',Wolf',3,1,);</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I231" s="2"/>
+      <c r="J231" s="2"/>
+      <c r="K231" s="2"/>
+    </row>
+    <row r="232" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -56473,8 +57460,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (231,25263,'Luis',Aigner',3,1,);</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I232" s="2"/>
+      <c r="J232" s="2"/>
+      <c r="K232" s="2"/>
+    </row>
+    <row r="233" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -56498,8 +57488,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (232,25294,'Luisa',Auer',3,1,);</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I233" s="2"/>
+      <c r="J233" s="2"/>
+      <c r="K233" s="2"/>
+    </row>
+    <row r="234" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -56523,8 +57516,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (233,25324,'Lukas',Bauer',3,1,);</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" ht="24.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I234" s="2"/>
+      <c r="J234" s="2"/>
+      <c r="K234" s="2"/>
+    </row>
+    <row r="235" spans="1:11" ht="24.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -56548,8 +57544,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (234,25355,'MADELEINE',Baumgartner',3,1,);</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I235" s="2"/>
+      <c r="J235" s="2"/>
+      <c r="K235" s="2"/>
+    </row>
+    <row r="236" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -56573,8 +57572,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (235,25385,'MADLEN',Berger',3,1,);</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I236" s="2"/>
+      <c r="J236" s="2"/>
+      <c r="K236" s="2"/>
+    </row>
+    <row r="237" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -56598,8 +57600,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (236,25416,'Magdalena',Binder',3,1,);</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I237" s="2"/>
+      <c r="J237" s="2"/>
+      <c r="K237" s="2"/>
+    </row>
+    <row r="238" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -56623,8 +57628,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (237,25447,'Maja',Brunner',3,1,);</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I238" s="2"/>
+      <c r="J238" s="2"/>
+      <c r="K238" s="2"/>
+    </row>
+    <row r="239" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -56648,8 +57656,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (238,25477,'Manuel',Ebner',3,1,);</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I239" s="2"/>
+      <c r="J239" s="2"/>
+      <c r="K239" s="2"/>
+    </row>
+    <row r="240" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -56673,8 +57684,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (239,25508,'Mara',Eder',3,1,);</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I240" s="2"/>
+      <c r="J240" s="2"/>
+      <c r="K240" s="2"/>
+    </row>
+    <row r="241" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -56698,8 +57712,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (240,25538,'Marcel',Egger',3,1,);</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I241" s="2"/>
+      <c r="J241" s="2"/>
+      <c r="K241" s="2"/>
+    </row>
+    <row r="242" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -56723,8 +57740,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (241,25569,'Marco',Fischer',3,1,);</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" ht="24.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I242" s="2"/>
+      <c r="J242" s="2"/>
+      <c r="K242" s="2"/>
+    </row>
+    <row r="243" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>242</v>
       </c>
@@ -56735,7 +57755,7 @@
         <v>491</v>
       </c>
       <c r="D243" t="s">
-        <v>803</v>
+        <v>922</v>
       </c>
       <c r="E243" s="2">
         <v>3</v>
@@ -56746,10 +57766,13 @@
       <c r="G243" s="2"/>
       <c r="H243" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (242,25600,'Maria',Fuchs Übername',3,1,);</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (242,25600,'Maria',Fuchs',3,1,);</v>
+      </c>
+      <c r="I243" s="2"/>
+      <c r="J243" s="2"/>
+      <c r="K243" s="2"/>
+    </row>
+    <row r="244" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>243</v>
       </c>
@@ -56773,8 +57796,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (243,25628,'MARIAN',Gruber',3,1,);</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I244" s="2"/>
+      <c r="J244" s="2"/>
+      <c r="K244" s="2"/>
+    </row>
+    <row r="245" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>244</v>
       </c>
@@ -56798,8 +57824,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (244,25659,'Marie',Haas',3,1,);</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I245" s="2"/>
+      <c r="J245" s="2"/>
+      <c r="K245" s="2"/>
+    </row>
+    <row r="246" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -56823,8 +57852,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (245,25689,'MARIELLA',Haider',3,1,);</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I246" s="2"/>
+      <c r="J246" s="2"/>
+      <c r="K246" s="2"/>
+    </row>
+    <row r="247" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>246</v>
       </c>
@@ -56848,8 +57880,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (246,25720,'Marina',Hofer',3,1,);</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I247" s="2"/>
+      <c r="J247" s="2"/>
+      <c r="K247" s="2"/>
+    </row>
+    <row r="248" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>247</v>
       </c>
@@ -56873,8 +57908,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (247,25750,'Mario',Holzer',3,1,);</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I248" s="2"/>
+      <c r="J248" s="2"/>
+      <c r="K248" s="2"/>
+    </row>
+    <row r="249" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>248</v>
       </c>
@@ -56898,8 +57936,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (248,25781,'MARIUS',Huber',3,1,);</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I249" s="2"/>
+      <c r="J249" s="2"/>
+      <c r="K249" s="2"/>
+    </row>
+    <row r="250" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -56923,8 +57964,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (249,25812,'MARKO',Koller',3,1,);</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I250" s="2"/>
+      <c r="J250" s="2"/>
+      <c r="K250" s="2"/>
+    </row>
+    <row r="251" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -56948,8 +57992,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (250,25842,'Markus',Lang',3,1,);</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I251" s="2"/>
+      <c r="J251" s="2"/>
+      <c r="K251" s="2"/>
+    </row>
+    <row r="252" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -56973,8 +58020,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (251,25873,'Marlena',Lechner',3,1,);</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I252" s="2"/>
+      <c r="J252" s="2"/>
+      <c r="K252" s="2"/>
+    </row>
+    <row r="253" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>252</v>
       </c>
@@ -56998,8 +58048,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (252,25903,'Marlene',Lehner',3,1,);</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I253" s="2"/>
+      <c r="J253" s="2"/>
+      <c r="K253" s="2"/>
+    </row>
+    <row r="254" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -57023,8 +58076,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (253,25934,'Martha',Leitner',3,1,);</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I254" s="2"/>
+      <c r="J254" s="2"/>
+      <c r="K254" s="2"/>
+    </row>
+    <row r="255" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -57048,8 +58104,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (254,25965,'Martin',Maier',3,1,);</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I255" s="2"/>
+      <c r="J255" s="2"/>
+      <c r="K255" s="2"/>
+    </row>
+    <row r="256" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -57073,8 +58132,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (255,25993,'Mathilda',Mair',3,1,);</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I256" s="2"/>
+      <c r="J256" s="2"/>
+      <c r="K256" s="2"/>
+    </row>
+    <row r="257" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -57098,8 +58160,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (256,26024,'Matilda',Maurer',3,1,);</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I257" s="2"/>
+      <c r="J257" s="2"/>
+      <c r="K257" s="2"/>
+    </row>
+    <row r="258" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -57123,8 +58188,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (257,26054,'Matteo',Mayer',3,1,);</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I258" s="2"/>
+      <c r="J258" s="2"/>
+      <c r="K258" s="2"/>
+    </row>
+    <row r="259" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -57148,8 +58216,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (258,26085,'Matthias',Mayr',3,1,);</v>
       </c>
-    </row>
-    <row r="260" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I259" s="2"/>
+      <c r="J259" s="2"/>
+      <c r="K259" s="2"/>
+    </row>
+    <row r="260" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -57173,8 +58244,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (259,26115,'Max',Moser',3,1,);</v>
       </c>
-    </row>
-    <row r="261" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I260" s="2"/>
+      <c r="J260" s="2"/>
+      <c r="K260" s="2"/>
+    </row>
+    <row r="261" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -57198,8 +58272,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (260,26146,'Maximilian',Müller',3,1,);</v>
       </c>
-    </row>
-    <row r="262" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I261" s="2"/>
+      <c r="J261" s="2"/>
+      <c r="K261" s="2"/>
+    </row>
+    <row r="262" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -57223,8 +58300,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (261,26177,'Maya',Pichler',3,1,);</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I262" s="2"/>
+      <c r="J262" s="2"/>
+      <c r="K262" s="2"/>
+    </row>
+    <row r="263" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -57248,8 +58328,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (262,26207,'MEHMET',Reiter',3,1,);</v>
       </c>
-    </row>
-    <row r="264" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I263" s="2"/>
+      <c r="J263" s="2"/>
+      <c r="K263" s="2"/>
+    </row>
+    <row r="264" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -57273,8 +58356,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (263,26238,'Melanie',Riegler',3,1,);</v>
       </c>
-    </row>
-    <row r="265" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I264" s="2"/>
+      <c r="J264" s="2"/>
+      <c r="K264" s="2"/>
+    </row>
+    <row r="265" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -57298,8 +58384,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (264,26268,'Melina',Schmid',3,1,);</v>
       </c>
-    </row>
-    <row r="266" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I265" s="2"/>
+      <c r="J265" s="2"/>
+      <c r="K265" s="2"/>
+    </row>
+    <row r="266" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -57323,8 +58412,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (265,26299,'Melissa',Schmidt',3,1,);</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I266" s="2"/>
+      <c r="J266" s="2"/>
+      <c r="K266" s="2"/>
+    </row>
+    <row r="267" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -57348,8 +58440,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (266,26330,'Mert',Schneider',3,1,);</v>
       </c>
-    </row>
-    <row r="268" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I267" s="2"/>
+      <c r="J267" s="2"/>
+      <c r="K267" s="2"/>
+    </row>
+    <row r="268" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -57373,8 +58468,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (267,26359,'Meryem',Schuster',3,1,);</v>
       </c>
-    </row>
-    <row r="269" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I268" s="2"/>
+      <c r="J268" s="2"/>
+      <c r="K268" s="2"/>
+    </row>
+    <row r="269" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -57398,8 +58496,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (268,26390,'Mia',Schwarz',3,1,);</v>
       </c>
-    </row>
-    <row r="270" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I269" s="2"/>
+      <c r="J269" s="2"/>
+      <c r="K269" s="2"/>
+    </row>
+    <row r="270" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -57423,8 +58524,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (269,26420,'Michael',Stadler',3,1,);</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I270" s="2"/>
+      <c r="J270" s="2"/>
+      <c r="K270" s="2"/>
+    </row>
+    <row r="271" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -57448,8 +58552,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (270,26451,'MICHELLE',Steiner',3,1,);</v>
       </c>
-    </row>
-    <row r="272" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I271" s="2"/>
+      <c r="J271" s="2"/>
+      <c r="K271" s="2"/>
+    </row>
+    <row r="272" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -57473,8 +58580,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (271,26481,'Mikail',Strasser',3,1,);</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I272" s="2"/>
+      <c r="J272" s="2"/>
+      <c r="K272" s="2"/>
+    </row>
+    <row r="273" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>272</v>
       </c>
@@ -57498,8 +58608,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (272,26512,'Mila',Wagner',3,1,);</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I273" s="2"/>
+      <c r="J273" s="2"/>
+      <c r="K273" s="2"/>
+    </row>
+    <row r="274" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>273</v>
       </c>
@@ -57523,8 +58636,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (273,26543,'MILAN',Wallner',3,1,);</v>
       </c>
-    </row>
-    <row r="275" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I274" s="2"/>
+      <c r="J274" s="2"/>
+      <c r="K274" s="2"/>
+    </row>
+    <row r="275" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>274</v>
       </c>
@@ -57548,8 +58664,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (274,26573,'MILENA',Weber',3,1,);</v>
       </c>
-    </row>
-    <row r="276" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I275" s="2"/>
+      <c r="J275" s="2"/>
+      <c r="K275" s="2"/>
+    </row>
+    <row r="276" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>275</v>
       </c>
@@ -57573,8 +58692,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (275,26604,'MINA',Weiss',3,1,);</v>
       </c>
-    </row>
-    <row r="277" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I276" s="2"/>
+      <c r="J276" s="2"/>
+      <c r="K276" s="2"/>
+    </row>
+    <row r="277" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>276</v>
       </c>
@@ -57598,8 +58720,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (276,26634,'Mira',Wieser',3,1,);</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I277" s="2"/>
+      <c r="J277" s="2"/>
+      <c r="K277" s="2"/>
+    </row>
+    <row r="278" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>277</v>
       </c>
@@ -57623,8 +58748,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (277,26665,'Miraç',Wimmer',3,1,);</v>
       </c>
-    </row>
-    <row r="279" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I278" s="2"/>
+      <c r="J278" s="2"/>
+      <c r="K278" s="2"/>
+    </row>
+    <row r="279" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>278</v>
       </c>
@@ -57648,8 +58776,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (278,26696,'Miray',Winkler',3,1,);</v>
       </c>
-    </row>
-    <row r="280" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I279" s="2"/>
+      <c r="J279" s="2"/>
+      <c r="K279" s="2"/>
+    </row>
+    <row r="280" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>279</v>
       </c>
@@ -57673,8 +58804,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (279,26724,'Miriam',Winter',3,1,);</v>
       </c>
-    </row>
-    <row r="281" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I280" s="2"/>
+      <c r="J280" s="2"/>
+      <c r="K280" s="2"/>
+    </row>
+    <row r="281" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>280</v>
       </c>
@@ -57698,8 +58832,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (280,26755,'Mona',Wolf',3,1,);</v>
       </c>
-    </row>
-    <row r="282" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I281" s="2"/>
+      <c r="J281" s="2"/>
+      <c r="K281" s="2"/>
+    </row>
+    <row r="282" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>281</v>
       </c>
@@ -57723,8 +58860,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (281,26785,'Moritz',Aigner',3,1,);</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I282" s="2"/>
+      <c r="J282" s="2"/>
+      <c r="K282" s="2"/>
+    </row>
+    <row r="283" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>282</v>
       </c>
@@ -57748,8 +58888,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (282,26816,'Muhammed',Auer',3,1,);</v>
       </c>
-    </row>
-    <row r="284" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I283" s="2"/>
+      <c r="J283" s="2"/>
+      <c r="K283" s="2"/>
+    </row>
+    <row r="284" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>283</v>
       </c>
@@ -57773,8 +58916,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (283,26846,'MUSTAFA',Bauer',3,1,);</v>
       </c>
-    </row>
-    <row r="285" spans="1:8" ht="24.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I284" s="2"/>
+      <c r="J284" s="2"/>
+      <c r="K284" s="2"/>
+    </row>
+    <row r="285" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>284</v>
       </c>
@@ -57798,8 +58944,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (284,26877,'NADINE',Baumgartner',3,1,);</v>
       </c>
-    </row>
-    <row r="286" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I285" s="2"/>
+      <c r="J285" s="2"/>
+      <c r="K285" s="2"/>
+    </row>
+    <row r="286" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>285</v>
       </c>
@@ -57823,8 +58972,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (285,26908,'NADJA',Berger',3,1,);</v>
       </c>
-    </row>
-    <row r="287" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I286" s="2"/>
+      <c r="J286" s="2"/>
+      <c r="K286" s="2"/>
+    </row>
+    <row r="287" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>286</v>
       </c>
@@ -57848,8 +59000,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (286,26938,'Natalie',Binder',3,1,);</v>
       </c>
-    </row>
-    <row r="288" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I287" s="2"/>
+      <c r="J287" s="2"/>
+      <c r="K287" s="2"/>
+    </row>
+    <row r="288" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>287</v>
       </c>
@@ -57873,8 +59028,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (287,26969,'Nevio',Brunner',3,1,);</v>
       </c>
-    </row>
-    <row r="289" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I288" s="2"/>
+      <c r="J288" s="2"/>
+      <c r="K288" s="2"/>
+    </row>
+    <row r="289" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>288</v>
       </c>
@@ -57898,8 +59056,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (288,26999,'NICLAS',Ebner',3,1,);</v>
       </c>
-    </row>
-    <row r="290" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I289" s="2"/>
+      <c r="J289" s="2"/>
+      <c r="K289" s="2"/>
+    </row>
+    <row r="290" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>289</v>
       </c>
@@ -57923,8 +59084,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (289,27030,'Nico',Eder',3,1,);</v>
       </c>
-    </row>
-    <row r="291" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I290" s="2"/>
+      <c r="J290" s="2"/>
+      <c r="K290" s="2"/>
+    </row>
+    <row r="291" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>290</v>
       </c>
@@ -57948,8 +59112,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (290,27061,'NICOLAS',Egger',3,1,);</v>
       </c>
-    </row>
-    <row r="292" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I291" s="2"/>
+      <c r="J291" s="2"/>
+      <c r="K291" s="2"/>
+    </row>
+    <row r="292" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>291</v>
       </c>
@@ -57973,8 +59140,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (291,27089,'NICOLE',Fischer',3,1,);</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" ht="24.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I292" s="2"/>
+      <c r="J292" s="2"/>
+      <c r="K292" s="2"/>
+    </row>
+    <row r="293" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>292</v>
       </c>
@@ -57985,7 +59155,7 @@
         <v>560</v>
       </c>
       <c r="D293" t="s">
-        <v>803</v>
+        <v>922</v>
       </c>
       <c r="E293" s="2">
         <v>3</v>
@@ -57996,10 +59166,13 @@
       <c r="G293" s="2"/>
       <c r="H293" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (292,27120,'Niklas',Fuchs Übername',3,1,);</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (292,27120,'Niklas',Fuchs',3,1,);</v>
+      </c>
+      <c r="I293" s="2"/>
+      <c r="J293" s="2"/>
+      <c r="K293" s="2"/>
+    </row>
+    <row r="294" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>293</v>
       </c>
@@ -58023,8 +59196,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (293,27150,'Nina',Gruber',3,1,);</v>
       </c>
-    </row>
-    <row r="295" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I294" s="2"/>
+      <c r="J294" s="2"/>
+      <c r="K294" s="2"/>
+    </row>
+    <row r="295" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>294</v>
       </c>
@@ -58048,8 +59224,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (294,27181,'Nisa',Haas',3,1,);</v>
       </c>
-    </row>
-    <row r="296" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I295" s="2"/>
+      <c r="J295" s="2"/>
+      <c r="K295" s="2"/>
+    </row>
+    <row r="296" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>295</v>
       </c>
@@ -58073,8 +59252,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (295,27211,'Noah',Haider',3,1,);</v>
       </c>
-    </row>
-    <row r="297" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I296" s="2"/>
+      <c r="J296" s="2"/>
+      <c r="K296" s="2"/>
+    </row>
+    <row r="297" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>296</v>
       </c>
@@ -58098,8 +59280,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (296,27242,'Noel',Hofer',3,1,);</v>
       </c>
-    </row>
-    <row r="298" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I297" s="2"/>
+      <c r="J297" s="2"/>
+      <c r="K297" s="2"/>
+    </row>
+    <row r="298" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>297</v>
       </c>
@@ -58123,8 +59308,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (297,27273,'Noemi',Holzer',3,1,);</v>
       </c>
-    </row>
-    <row r="299" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I298" s="2"/>
+      <c r="J298" s="2"/>
+      <c r="K298" s="2"/>
+    </row>
+    <row r="299" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>298</v>
       </c>
@@ -58148,8 +59336,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (298,27303,'Nora',Huber',3,1,);</v>
       </c>
-    </row>
-    <row r="300" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I299" s="2"/>
+      <c r="J299" s="2"/>
+      <c r="K299" s="2"/>
+    </row>
+    <row r="300" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>299</v>
       </c>
@@ -58173,8 +59364,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (299,27334,'Oliver',Koller',3,1,);</v>
       </c>
-    </row>
-    <row r="301" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I300" s="2"/>
+      <c r="J300" s="2"/>
+      <c r="K300" s="2"/>
+    </row>
+    <row r="301" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>300</v>
       </c>
@@ -58198,8 +59392,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (300,27364,'Olivia',Lang',3,1,);</v>
       </c>
-    </row>
-    <row r="302" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I301" s="2"/>
+      <c r="J301" s="2"/>
+      <c r="K301" s="2"/>
+    </row>
+    <row r="302" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>301</v>
       </c>
@@ -58223,8 +59420,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (301,27395,'ÖMER',Lechner',3,1,);</v>
       </c>
-    </row>
-    <row r="303" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I302" s="2"/>
+      <c r="J302" s="2"/>
+      <c r="K302" s="2"/>
+    </row>
+    <row r="303" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>302</v>
       </c>
@@ -58248,8 +59448,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (302,27426,'Oskar',Lehner',3,1,);</v>
       </c>
-    </row>
-    <row r="304" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I303" s="2"/>
+      <c r="J303" s="2"/>
+      <c r="K303" s="2"/>
+    </row>
+    <row r="304" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>303</v>
       </c>
@@ -58273,8 +59476,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (303,27454,'PASCAL',Leitner',3,1,);</v>
       </c>
-    </row>
-    <row r="305" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I304" s="2"/>
+      <c r="J304" s="2"/>
+      <c r="K304" s="2"/>
+    </row>
+    <row r="305" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>304</v>
       </c>
@@ -58298,8 +59504,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (304,27485,'Patrick',Maier',3,1,);</v>
       </c>
-    </row>
-    <row r="306" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I305" s="2"/>
+      <c r="J305" s="2"/>
+      <c r="K305" s="2"/>
+    </row>
+    <row r="306" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>305</v>
       </c>
@@ -58323,8 +59532,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (305,27515,'Paul',Mair',3,1,);</v>
       </c>
-    </row>
-    <row r="307" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I306" s="2"/>
+      <c r="J306" s="2"/>
+      <c r="K306" s="2"/>
+    </row>
+    <row r="307" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>306</v>
       </c>
@@ -58348,8 +59560,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (306,27546,'Paula',Maurer',3,1,);</v>
       </c>
-    </row>
-    <row r="308" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I307" s="2"/>
+      <c r="J307" s="2"/>
+      <c r="K307" s="2"/>
+    </row>
+    <row r="308" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>307</v>
       </c>
@@ -58373,8 +59588,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (307,27576,'Paulina',Mayer',3,1,);</v>
       </c>
-    </row>
-    <row r="309" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I308" s="2"/>
+      <c r="J308" s="2"/>
+      <c r="K308" s="2"/>
+    </row>
+    <row r="309" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>308</v>
       </c>
@@ -58398,8 +59616,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (308,27607,'Peter',Mayr',3,1,);</v>
       </c>
-    </row>
-    <row r="310" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I309" s="2"/>
+      <c r="J309" s="2"/>
+      <c r="K309" s="2"/>
+    </row>
+    <row r="310" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>309</v>
       </c>
@@ -58423,8 +59644,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (309,27638,'Philipp',Moser',3,1,);</v>
       </c>
-    </row>
-    <row r="311" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I310" s="2"/>
+      <c r="J310" s="2"/>
+      <c r="K310" s="2"/>
+    </row>
+    <row r="311" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>310</v>
       </c>
@@ -58448,8 +59672,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (310,27668,'Pia',Müller',3,1,);</v>
       </c>
-    </row>
-    <row r="312" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I311" s="2"/>
+      <c r="J311" s="2"/>
+      <c r="K311" s="2"/>
+    </row>
+    <row r="312" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>311</v>
       </c>
@@ -58473,8 +59700,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (311,27699,'PIUS',Pichler',3,1,);</v>
       </c>
-    </row>
-    <row r="313" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I312" s="2"/>
+      <c r="J312" s="2"/>
+      <c r="K312" s="2"/>
+    </row>
+    <row r="313" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>312</v>
       </c>
@@ -58498,8 +59728,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (312,27729,'Raphael',Reiter',3,1,);</v>
       </c>
-    </row>
-    <row r="314" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I313" s="2"/>
+      <c r="J313" s="2"/>
+      <c r="K313" s="2"/>
+    </row>
+    <row r="314" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>313</v>
       </c>
@@ -58523,8 +59756,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (313,27760,'REBECCA',Riegler',3,1,);</v>
       </c>
-    </row>
-    <row r="315" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I314" s="2"/>
+      <c r="J314" s="2"/>
+      <c r="K314" s="2"/>
+    </row>
+    <row r="315" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>314</v>
       </c>
@@ -58548,8 +59784,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (314,27791,'RENE',Schmid',3,1,);</v>
       </c>
-    </row>
-    <row r="316" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I315" s="2"/>
+      <c r="J315" s="2"/>
+      <c r="K315" s="2"/>
+    </row>
+    <row r="316" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>315</v>
       </c>
@@ -58573,8 +59812,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (315,27820,'ROMAN',Schmidt',3,1,);</v>
       </c>
-    </row>
-    <row r="317" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I316" s="2"/>
+      <c r="J316" s="2"/>
+      <c r="K316" s="2"/>
+    </row>
+    <row r="317" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>316</v>
       </c>
@@ -58598,8 +59840,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (316,27851,'Romy',Schneider',3,1,);</v>
       </c>
-    </row>
-    <row r="318" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I317" s="2"/>
+      <c r="J317" s="2"/>
+      <c r="K317" s="2"/>
+    </row>
+    <row r="318" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>317</v>
       </c>
@@ -58623,8 +59868,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (317,27881,'Ronja',Schuster',3,1,);</v>
       </c>
-    </row>
-    <row r="319" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I318" s="2"/>
+      <c r="J318" s="2"/>
+      <c r="K318" s="2"/>
+    </row>
+    <row r="319" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>318</v>
       </c>
@@ -58648,8 +59896,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (318,27912,'Rosa',Schwarz',3,1,);</v>
       </c>
-    </row>
-    <row r="320" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I319" s="2"/>
+      <c r="J319" s="2"/>
+      <c r="K319" s="2"/>
+    </row>
+    <row r="320" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>319</v>
       </c>
@@ -58673,8 +59924,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (319,27942,'Rosalie',Stadler',3,1,);</v>
       </c>
-    </row>
-    <row r="321" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I320" s="2"/>
+      <c r="J320" s="2"/>
+      <c r="K320" s="2"/>
+    </row>
+    <row r="321" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>320</v>
       </c>
@@ -58698,8 +59952,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (320,27973,'SABRINA',Steiner',3,1,);</v>
       </c>
-    </row>
-    <row r="322" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I321" s="2"/>
+      <c r="J321" s="2"/>
+      <c r="K321" s="2"/>
+    </row>
+    <row r="322" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>321</v>
       </c>
@@ -58723,8 +59980,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (321,28004,'SAMIRA',Strasser',3,1,);</v>
       </c>
-    </row>
-    <row r="323" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I322" s="2"/>
+      <c r="J322" s="2"/>
+      <c r="K322" s="2"/>
+    </row>
+    <row r="323" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>322</v>
       </c>
@@ -58748,8 +60008,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (322,28034,'Samuel',Wagner',3,1,);</v>
       </c>
-    </row>
-    <row r="324" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I323" s="2"/>
+      <c r="J323" s="2"/>
+      <c r="K323" s="2"/>
+    </row>
+    <row r="324" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>323</v>
       </c>
@@ -58773,8 +60036,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (323,28065,'SANDRA',Wallner',3,1,);</v>
       </c>
-    </row>
-    <row r="325" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I324" s="2"/>
+      <c r="J324" s="2"/>
+      <c r="K324" s="2"/>
+    </row>
+    <row r="325" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>324</v>
       </c>
@@ -58798,8 +60064,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (324,28095,'SANDRO',Weber',3,1,);</v>
       </c>
-    </row>
-    <row r="326" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I325" s="2"/>
+      <c r="J325" s="2"/>
+      <c r="K325" s="2"/>
+    </row>
+    <row r="326" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>325</v>
       </c>
@@ -58823,8 +60092,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (325,28126,'Sarah',Weiss',3,1,);</v>
       </c>
-    </row>
-    <row r="327" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I326" s="2"/>
+      <c r="J326" s="2"/>
+      <c r="K326" s="2"/>
+    </row>
+    <row r="327" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>326</v>
       </c>
@@ -58848,8 +60120,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (326,28157,'SARINA',Wieser',3,1,);</v>
       </c>
-    </row>
-    <row r="328" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I327" s="2"/>
+      <c r="J327" s="2"/>
+      <c r="K327" s="2"/>
+    </row>
+    <row r="328" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>327</v>
       </c>
@@ -58873,8 +60148,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (327,28185,'Sebastian',Wimmer',3,1,);</v>
       </c>
-    </row>
-    <row r="329" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I328" s="2"/>
+      <c r="J328" s="2"/>
+      <c r="K328" s="2"/>
+    </row>
+    <row r="329" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>328</v>
       </c>
@@ -58898,8 +60176,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (328,28216,'Selina',Winkler',3,1,);</v>
       </c>
-    </row>
-    <row r="330" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I329" s="2"/>
+      <c r="J329" s="2"/>
+      <c r="K329" s="2"/>
+    </row>
+    <row r="330" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>329</v>
       </c>
@@ -58923,8 +60204,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (329,28246,'SEVERIN',Winter',3,1,);</v>
       </c>
-    </row>
-    <row r="331" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I330" s="2"/>
+      <c r="J330" s="2"/>
+      <c r="K330" s="2"/>
+    </row>
+    <row r="331" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>330</v>
       </c>
@@ -58948,8 +60232,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (330,28277,'Simon',Wolf',3,1,);</v>
       </c>
-    </row>
-    <row r="332" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I331" s="2"/>
+      <c r="J331" s="2"/>
+      <c r="K331" s="2"/>
+    </row>
+    <row r="332" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>331</v>
       </c>
@@ -58973,8 +60260,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (331,28307,'SIMONE',Aigner',3,1,);</v>
       </c>
-    </row>
-    <row r="333" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I332" s="2"/>
+      <c r="J332" s="2"/>
+      <c r="K332" s="2"/>
+    </row>
+    <row r="333" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>332</v>
       </c>
@@ -58998,8 +60288,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (332,28338,'Sina',Auer',3,1,);</v>
       </c>
-    </row>
-    <row r="334" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I333" s="2"/>
+      <c r="J333" s="2"/>
+      <c r="K333" s="2"/>
+    </row>
+    <row r="334" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>333</v>
       </c>
@@ -59023,8 +60316,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (333,28369,'SONJA',Bauer',3,1,);</v>
       </c>
-    </row>
-    <row r="335" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I334" s="2"/>
+      <c r="J334" s="2"/>
+      <c r="K334" s="2"/>
+    </row>
+    <row r="335" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>334</v>
       </c>
@@ -59048,8 +60344,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (334,28399,'Sophia',Baumgartner',3,1,);</v>
       </c>
-    </row>
-    <row r="336" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I335" s="2"/>
+      <c r="J335" s="2"/>
+      <c r="K335" s="2"/>
+    </row>
+    <row r="336" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>335</v>
       </c>
@@ -59073,8 +60372,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (335,28430,'Sophie',Berger',3,1,);</v>
       </c>
-    </row>
-    <row r="337" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I336" s="2"/>
+      <c r="J336" s="2"/>
+      <c r="K336" s="2"/>
+    </row>
+    <row r="337" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>336</v>
       </c>
@@ -59098,8 +60400,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (336,28460,'Stefan',Binder',3,1,);</v>
       </c>
-    </row>
-    <row r="338" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I337" s="2"/>
+      <c r="J337" s="2"/>
+      <c r="K337" s="2"/>
+    </row>
+    <row r="338" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>337</v>
       </c>
@@ -59123,8 +60428,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (337,28491,'STEFANIE',Brunner',3,1,);</v>
       </c>
-    </row>
-    <row r="339" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I338" s="2"/>
+      <c r="J338" s="2"/>
+      <c r="K338" s="2"/>
+    </row>
+    <row r="339" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>338</v>
       </c>
@@ -59148,8 +60456,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (338,28522,'Stella',Ebner',3,1,);</v>
       </c>
-    </row>
-    <row r="340" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I339" s="2"/>
+      <c r="J339" s="2"/>
+      <c r="K339" s="2"/>
+    </row>
+    <row r="340" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>339</v>
       </c>
@@ -59173,8 +60484,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (339,28550,'STEPHANIE',Eder',3,1,);</v>
       </c>
-    </row>
-    <row r="341" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I340" s="2"/>
+      <c r="J340" s="2"/>
+      <c r="K340" s="2"/>
+    </row>
+    <row r="341" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>340</v>
       </c>
@@ -59198,8 +60512,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (340,28581,'TAMARA',Egger',3,1,);</v>
       </c>
-    </row>
-    <row r="342" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I341" s="2"/>
+      <c r="J341" s="2"/>
+      <c r="K341" s="2"/>
+    </row>
+    <row r="342" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>341</v>
       </c>
@@ -59223,8 +60540,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (341,28611,'Theo',Fischer',3,1,);</v>
       </c>
-    </row>
-    <row r="343" spans="1:8" ht="24.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I342" s="2"/>
+      <c r="J342" s="2"/>
+      <c r="K342" s="2"/>
+    </row>
+    <row r="343" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>342</v>
       </c>
@@ -59235,7 +60555,7 @@
         <v>632</v>
       </c>
       <c r="D343" t="s">
-        <v>803</v>
+        <v>922</v>
       </c>
       <c r="E343" s="2">
         <v>3</v>
@@ -59246,10 +60566,13 @@
       <c r="G343" s="2"/>
       <c r="H343" s="2" t="str">
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (342,28642,'Theodor',Fuchs Übername',3,1,);</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>INSERT INTO PERSON VALUES (342,28642,'Theodor',Fuchs',3,1,);</v>
+      </c>
+      <c r="I343" s="2"/>
+      <c r="J343" s="2"/>
+      <c r="K343" s="2"/>
+    </row>
+    <row r="344" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>343</v>
       </c>
@@ -59273,8 +60596,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (343,28672,'Theresa',Gruber',3,1,);</v>
       </c>
-    </row>
-    <row r="345" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I344" s="2"/>
+      <c r="J344" s="2"/>
+      <c r="K344" s="2"/>
+    </row>
+    <row r="345" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>344</v>
       </c>
@@ -59298,8 +60624,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (344,28703,'Thomas',Haas',3,1,);</v>
       </c>
-    </row>
-    <row r="346" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I345" s="2"/>
+      <c r="J345" s="2"/>
+      <c r="K345" s="2"/>
+    </row>
+    <row r="346" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <v>345</v>
       </c>
@@ -59323,8 +60652,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (345,28734,'Tim',Haider',3,1,);</v>
       </c>
-    </row>
-    <row r="347" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I346" s="2"/>
+      <c r="J346" s="2"/>
+      <c r="K346" s="2"/>
+    </row>
+    <row r="347" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>346</v>
       </c>
@@ -59348,8 +60680,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (346,28764,'Tobias',Hofer',3,1,);</v>
       </c>
-    </row>
-    <row r="348" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I347" s="2"/>
+      <c r="J347" s="2"/>
+      <c r="K347" s="2"/>
+    </row>
+    <row r="348" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <v>347</v>
       </c>
@@ -59373,8 +60708,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (347,28795,'Toni',Holzer',3,1,);</v>
       </c>
-    </row>
-    <row r="349" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I348" s="2"/>
+      <c r="J348" s="2"/>
+      <c r="K348" s="2"/>
+    </row>
+    <row r="349" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>348</v>
       </c>
@@ -59398,8 +60736,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (348,28825,'TUANA',Huber',3,1,);</v>
       </c>
-    </row>
-    <row r="350" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I349" s="2"/>
+      <c r="J349" s="2"/>
+      <c r="K349" s="2"/>
+    </row>
+    <row r="350" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <v>349</v>
       </c>
@@ -59423,8 +60764,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (349,28856,'Valentin',Koller',3,1,);</v>
       </c>
-    </row>
-    <row r="351" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I350" s="2"/>
+      <c r="J350" s="2"/>
+      <c r="K350" s="2"/>
+    </row>
+    <row r="351" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>350</v>
       </c>
@@ -59448,8 +60792,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (350,28887,'Valentina',Lang',3,1,);</v>
       </c>
-    </row>
-    <row r="352" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I351" s="2"/>
+      <c r="J351" s="2"/>
+      <c r="K351" s="2"/>
+    </row>
+    <row r="352" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <v>351</v>
       </c>
@@ -59473,8 +60820,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (351,28915,'Valerie',Lechner',3,1,);</v>
       </c>
-    </row>
-    <row r="353" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I352" s="2"/>
+      <c r="J352" s="2"/>
+      <c r="K352" s="2"/>
+    </row>
+    <row r="353" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>352</v>
       </c>
@@ -59498,8 +60848,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (352,28946,'Vanessa',Lehner',3,1,);</v>
       </c>
-    </row>
-    <row r="354" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I353" s="2"/>
+      <c r="J353" s="2"/>
+      <c r="K353" s="2"/>
+    </row>
+    <row r="354" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <v>353</v>
       </c>
@@ -59523,8 +60876,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (353,28976,'VERENA',Leitner',3,1,);</v>
       </c>
-    </row>
-    <row r="355" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I354" s="2"/>
+      <c r="J354" s="2"/>
+      <c r="K354" s="2"/>
+    </row>
+    <row r="355" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <v>354</v>
       </c>
@@ -59548,8 +60904,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (354,29007,'Victoria',Maier',3,1,);</v>
       </c>
-    </row>
-    <row r="356" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I355" s="2"/>
+      <c r="J355" s="2"/>
+      <c r="K355" s="2"/>
+    </row>
+    <row r="356" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>355</v>
       </c>
@@ -59573,8 +60932,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (355,29037,'Viktoria',Mair',3,1,);</v>
       </c>
-    </row>
-    <row r="357" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I356" s="2"/>
+      <c r="J356" s="2"/>
+      <c r="K356" s="2"/>
+    </row>
+    <row r="357" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>356</v>
       </c>
@@ -59598,8 +60960,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (356,29068,'Vincent',Maurer',3,1,);</v>
       </c>
-    </row>
-    <row r="358" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I357" s="2"/>
+      <c r="J357" s="2"/>
+      <c r="K357" s="2"/>
+    </row>
+    <row r="358" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <v>357</v>
       </c>
@@ -59623,8 +60988,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (357,29099,'Xaver',Mayer',3,1,);</v>
       </c>
-    </row>
-    <row r="359" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I358" s="2"/>
+      <c r="J358" s="2"/>
+      <c r="K358" s="2"/>
+    </row>
+    <row r="359" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <v>358</v>
       </c>
@@ -59648,8 +61016,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (358,29129,'YAGMUR',Mayr',3,1,);</v>
       </c>
-    </row>
-    <row r="360" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I359" s="2"/>
+      <c r="J359" s="2"/>
+      <c r="K359" s="2"/>
+    </row>
+    <row r="360" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <v>359</v>
       </c>
@@ -59673,8 +61044,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (359,29160,'Yusuf',Moser',3,1,);</v>
       </c>
-    </row>
-    <row r="361" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I360" s="2"/>
+      <c r="J360" s="2"/>
+      <c r="K360" s="2"/>
+    </row>
+    <row r="361" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <v>360</v>
       </c>
@@ -59698,8 +61072,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (360,29190,'ZEHRA',Müller',3,1,);</v>
       </c>
-    </row>
-    <row r="362" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I361" s="2"/>
+      <c r="J361" s="2"/>
+      <c r="K361" s="2"/>
+    </row>
+    <row r="362" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <v>361</v>
       </c>
@@ -59723,8 +61100,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (361,29221,'Zeynep',Pichler',3,1,);</v>
       </c>
-    </row>
-    <row r="363" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I362" s="2"/>
+      <c r="J362" s="2"/>
+      <c r="K362" s="2"/>
+    </row>
+    <row r="363" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <v>362</v>
       </c>
@@ -59748,8 +61128,11 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (362,29252,'ZOE',Reiter',3,1,);</v>
       </c>
-    </row>
-    <row r="364" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I363" s="2"/>
+      <c r="J363" s="2"/>
+      <c r="K363" s="2"/>
+    </row>
+    <row r="364" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
         <v>363</v>
       </c>
@@ -59773,12 +61156,16 @@
         <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
         <v>INSERT INTO PERSON VALUES (363,29281,'ZOEY',Riegler',3,1,);</v>
       </c>
+      <c r="I364" s="3"/>
+      <c r="J364" s="3"/>
+      <c r="K364" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -59788,7 +61175,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60465,8 +61852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C81918-ECAD-4D07-A7ED-54441873E3F7}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/docs/Testdaten.xlsx
+++ b/src/docs/Testdaten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\SE2\rki-ear\src\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00763D54-FE29-4247-8DD9-60A67132691A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAE37DE-5BB0-48F2-9045-1AB9F216D784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20715" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="727" activeTab="1" xr2:uid="{C7E60199-CDCD-48E6-B7F8-6DAE96C95F81}"/>
+    <workbookView xWindow="-20715" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="727" activeTab="2" xr2:uid="{C7E60199-CDCD-48E6-B7F8-6DAE96C95F81}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="15" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8474" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8553" uniqueCount="929">
   <si>
     <t>ID  </t>
   </si>
@@ -2916,6 +2916,12 @@
   </si>
   <si>
     <t>TestDataLoader Create Person:</t>
+  </si>
+  <si>
+    <t>addressStrings.add(</t>
+  </si>
+  <si>
+    <t>ContactPerson</t>
   </si>
 </sst>
 </file>
@@ -3118,7 +3124,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3182,6 +3188,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3191,16 +3200,77 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="2" xr:uid="{33B0DD6A-F5E3-47DB-85A5-E9A1C09374CA}"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFACA899"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFACA899"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFACA899"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFACA899"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3300,66 +3370,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FFACA899"/>
-        </left>
-        <right style="medium">
-          <color rgb="FFACA899"/>
-        </right>
-        <top style="medium">
-          <color rgb="FFACA899"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFACA899"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3717,28 +3727,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{788FE72A-0140-4F72-B677-BEA081F800CF}" name="Tabelle2" displayName="Tabelle2" ref="A1:K364" totalsRowShown="0" dataDxfId="18" tableBorderDxfId="17">
-  <autoFilter ref="A1:K364" xr:uid="{788FE72A-0140-4F72-B677-BEA081F800CF}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{788FE72A-0140-4F72-B677-BEA081F800CF}" name="Tabelle2" displayName="Tabelle2" ref="A1:K364" totalsRowShown="0" dataDxfId="19" tableBorderDxfId="18">
+  <autoFilter ref="A1:K364" xr:uid="{788FE72A-0140-4F72-B677-BEA081F800CF}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{73ECDCFE-F4CF-43A2-A3FE-A6FEB0C7E2E5}" name="ID" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{BDF57E82-E959-487B-8D01-3953A3B1CD47}" name="BIRTHDATE" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{4998E088-509D-4193-89D4-1BEC1D46868C}" name="FIRST_NAME" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{AA1D70A9-BCA8-4030-899B-B90BBE86A682}" name="LAST_NAME" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{14BADE81-5D0B-4481-879A-7EC2F4B770FC}" name="PERSON_TYPE" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{B45A12C0-735E-4C4F-8298-6186A928C9A9}" name="STATUS" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{42A4B3BF-8DE5-45DE-8668-257156A0B4DE}" name="ADDRESS_ID" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{48D844C7-882A-4E27-B889-BE6A2977EA52}" name="insert statement" dataDxfId="9">
-      <calculatedColumnFormula>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{73ECDCFE-F4CF-43A2-A3FE-A6FEB0C7E2E5}" name="ID" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{BDF57E82-E959-487B-8D01-3953A3B1CD47}" name="BIRTHDATE" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{4998E088-509D-4193-89D4-1BEC1D46868C}" name="FIRST_NAME" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{AA1D70A9-BCA8-4030-899B-B90BBE86A682}" name="LAST_NAME" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{14BADE81-5D0B-4481-879A-7EC2F4B770FC}" name="PERSON_TYPE" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{B45A12C0-735E-4C4F-8298-6186A928C9A9}" name="STATUS" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{42A4B3BF-8DE5-45DE-8668-257156A0B4DE}" name="ADDRESS_ID" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{48D844C7-882A-4E27-B889-BE6A2977EA52}" name="insert statement" dataDxfId="0">
+      <calculatedColumnFormula>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{651F8A02-E2F5-4DE0-AA86-93328DAB793A}" name="personStrings.add(" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{1F0EF7A8-F4E1-4E2F-8F22-7672F0FE1516}" name="&quot;" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{09A7A5D2-C184-4092-87D9-9C23B8DF6095}" name="TestDataLoader Create Person:" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{651F8A02-E2F5-4DE0-AA86-93328DAB793A}" name="personStrings.add(" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{1F0EF7A8-F4E1-4E2F-8F22-7672F0FE1516}" name="&quot;" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{09A7A5D2-C184-4092-87D9-9C23B8DF6095}" name="TestDataLoader Create Person:" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3796,7 +3800,7 @@
     <sortCondition ref="L2:L52"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{EFC3C7E2-F4FA-4BF7-BC30-70E1D3D9ABF0}" name="Rang" dataDxfId="5" dataCellStyle="Link"/>
+    <tableColumn id="1" xr3:uid="{EFC3C7E2-F4FA-4BF7-BC30-70E1D3D9ABF0}" name="Rang" dataDxfId="4" dataCellStyle="Link"/>
     <tableColumn id="2" xr3:uid="{8E06C5C4-8A8A-47DD-8CB1-23CB38459C85}" name="Nachname"/>
     <tableColumn id="3" xr3:uid="{5099B911-3AB0-4AF9-97B6-08031CD214A1}" name="Bemerkung"/>
   </tableColumns>
@@ -3808,29 +3812,34 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{05418AF9-36DF-45F3-B39A-F5F7D6CBEE58}" name="Tabelle5" displayName="Tabelle5" ref="H2:I335" totalsRowShown="0">
   <autoFilter ref="H2:I335" xr:uid="{05418AF9-36DF-45F3-B39A-F5F7D6CBEE58}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A8E7E295-1D24-4F7A-9064-523A13994CE4}" name="Vorname (distinct)" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{9882EB1E-5EB8-42B8-A1ED-66E45A9693E2}" name="Anz" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{A8E7E295-1D24-4F7A-9064-523A13994CE4}" name="Vorname (distinct)" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{9882EB1E-5EB8-42B8-A1ED-66E45A9693E2}" name="Anz" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{636AB53E-12B0-49AC-A494-0891F83C73C7}" name="Tabelle14" displayName="Tabelle14" ref="A1:I21" totalsRowShown="0">
-  <autoFilter ref="A1:I21" xr:uid="{636AB53E-12B0-49AC-A494-0891F83C73C7}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{636AB53E-12B0-49AC-A494-0891F83C73C7}" name="Tabelle14" displayName="Tabelle14" ref="A1:L21" totalsRowShown="0">
+  <autoFilter ref="A1:L21" xr:uid="{636AB53E-12B0-49AC-A494-0891F83C73C7}"/>
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{90FFA424-B1EB-486D-BC53-6C66C674D1FA}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E8A21B9F-7879-4730-B904-855665D13C10}" name="CITY"/>
     <tableColumn id="3" xr3:uid="{C6289793-AFDE-47AD-AFF2-A8C986FAC675}" name="COUNTRY"/>
     <tableColumn id="4" xr3:uid="{8273CBB7-96F1-4423-B5C4-2AED628AE5F8}" name="FLOOR"/>
-    <tableColumn id="5" xr3:uid="{6CB265B1-9251-4188-B642-1435485933EC}" name="HOUSE_NUMBER" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{6CB265B1-9251-4188-B642-1435485933EC}" name="HOUSE_NUMBER" dataDxfId="7"/>
     <tableColumn id="6" xr3:uid="{455A6743-8098-4247-8B36-B6269C61FB9F}" name="STREET"/>
     <tableColumn id="7" xr3:uid="{D06B6C46-0FF5-4A13-9698-163F014D986C}" name="ZIP_CODE"/>
-    <tableColumn id="8" xr3:uid="{DD82338B-29F6-43E8-83B9-8C6C39BA6AED}" name="Address" dataDxfId="7">
+    <tableColumn id="8" xr3:uid="{DD82338B-29F6-43E8-83B9-8C6C39BA6AED}" name="Address" dataDxfId="6">
       <calculatedColumnFormula>Tabelle14[[#This Row],[STREET]]&amp;" "&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;", "&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;" "&amp;Tabelle14[[#This Row],[CITY]]&amp;", "&amp;Tabelle14[[#This Row],[COUNTRY]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{A1B4090E-D9AE-49B1-ADB7-BD00C6D0F3E3}" name="insert statement" dataDxfId="6">
+    <tableColumn id="9" xr3:uid="{A1B4090E-D9AE-49B1-ADB7-BD00C6D0F3E3}" name="insert statement" dataDxfId="5">
       <calculatedColumnFormula>("INSERT INTO ADDRESS VALUES ("&amp;Tabelle14[[#This Row],[ID]]&amp;",'"&amp;Tabelle14[[#This Row],[CITY]]&amp;"','"&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;"','"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;"','"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;"','"&amp;Tabelle14[[#This Row],[STREET]]&amp;"','"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;"');")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{A48E27C6-A664-4314-ABB8-736552C1C5C8}" name="addressStrings.add("/>
+    <tableColumn id="11" xr3:uid="{BC3E0854-D9F8-496D-98C7-1CBDBA941A0A}" name="&quot;"/>
+    <tableColumn id="12" xr3:uid="{8786D738-6201-4F58-A1AD-39C2D4A277EF}" name="TestDataLoader Create Person:" dataDxfId="1">
+      <calculatedColumnFormula>Tabelle14[[#This Row],[addressStrings.add(]]&amp;Tabelle14[[#This Row],["]]&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;";"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;";"&amp;Tabelle14[[#This Row],[CITY]]&amp;";"&amp;Tabelle14[[#This Row],[STREET]]&amp;";"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;";"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;Tabelle14[[#This Row],["]]&amp;");"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -47975,19 +47984,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>720</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
@@ -48052,18 +48061,18 @@
     </row>
     <row r="6" spans="1:11" s="12" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="28" t="s">
         <v>708</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
@@ -49385,18 +49394,18 @@
     </row>
     <row r="45" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="28" t="s">
         <v>687</v>
       </c>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
     </row>
     <row r="46" spans="1:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="10" t="s">
@@ -50728,19 +50737,19 @@
       <c r="K84" s="7"/>
     </row>
     <row r="85" spans="1:11" s="6" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="26" t="s">
+      <c r="A85" s="27" t="s">
         <v>645</v>
       </c>
-      <c r="B85" s="26"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
-      <c r="F85" s="26"/>
-      <c r="G85" s="26"/>
-      <c r="H85" s="26"/>
-      <c r="I85" s="26"/>
-      <c r="J85" s="26"/>
-      <c r="K85" s="26"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="27"/>
+      <c r="J85" s="27"/>
+      <c r="K85" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -50759,10 +50768,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF0B185-7B94-4B61-9302-05643D9FFA31}">
-  <dimension ref="A1:K364"/>
+  <dimension ref="A1:P364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K69" sqref="K69"/>
+    <sheetView topLeftCell="A85" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50774,11 +50783,11 @@
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="60.5703125" customWidth="1"/>
+    <col min="8" max="8" width="74" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" customWidth="1"/>
     <col min="10" max="10" width="4" customWidth="1"/>
     <col min="11" max="11" width="48.42578125" customWidth="1"/>
-    <col min="12" max="12" width="40.28515625" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50816,7 +50825,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -50837,14 +50846,14 @@
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="24" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (1,18264,'Gabrielle',Patel',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (1,'01.01.1950','Gabrielle',Patel',3,1,);</v>
       </c>
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -50865,14 +50874,14 @@
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (2,18295,'Brian',Robinson',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (2,'01.02.1950','Brian',Robinson',3,1,);</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -50893,14 +50902,14 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (3,18323,'Eduardo',Haugen',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (3,'01.03.1950','Eduardo',Haugen',3,1,);</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -50921,14 +50930,14 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (4,18354,'Koen',Johansen',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (4,'01.04.1950','Koen',Johansen',3,1,);</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -50949,14 +50958,14 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (5,18384,'Alejandro',Macdonald',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (5,'01.05.1950','Alejandro',Macdonald',3,1,);</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -50977,14 +50986,14 @@
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (6,18415,'Angel',Karlsson',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (6,'01.06.1950','Angel',Karlsson',3,1,);</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -51005,14 +51014,14 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (7,18445,'Yahir',Gustavsson',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (7,'01.07.1950','Yahir',Gustavsson',3,1,);</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -51033,14 +51042,14 @@
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (8,18476,'Haiden',Svensson',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (8,'01.08.1950','Haiden',Svensson',3,1,);</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -51061,14 +51070,14 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (9,18507,'Emily',Stewart',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (9,'01.09.1950','Emily',Stewart',3,1,);</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -51089,14 +51098,14 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (10,18537,'Corinne',Davis',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (10,'01.10.1950','Corinne',Davis',3,1,);</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -51117,14 +51126,14 @@
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (11,18568,'Ryann',Davis',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (11,'01.11.1950','Ryann',Davis',3,1,);</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -51145,14 +51154,14 @@
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (12,18598,'Yurem',Jackson',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (12,'01.12.1950','Yurem',Jackson',3,1,);</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -51173,14 +51182,14 @@
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (13,18629,'Kelly',Gustavsson',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (13,'01.01.1951','Kelly',Gustavsson',3,1,);</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -51201,14 +51210,14 @@
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (14,18660,'Eileen',Walker',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (14,'01.02.1951','Eileen',Walker',3,1,);</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -51229,14 +51238,14 @@
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (15,18688,'Katelyn',Martin',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (15,'01.03.1951','Katelyn',Martin',3,1,);</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -51257,14 +51266,14 @@
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (16,18719,'Israel',Carlsson',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (16,'01.04.1951','Israel',Carlsson',3,1,);</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -51285,14 +51294,14 @@
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (17,18749,'Quinn',Hansson',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (17,'01.05.1951','Quinn',Hansson',3,1,);</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -51313,14 +51322,14 @@
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (18,18780,'Makena',Smith',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (18,'01.06.1951','Makena',Smith',3,1,);</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -51341,14 +51350,14 @@
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (19,18810,'Danielle',Watson',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (19,'01.07.1951','Danielle',Watson',3,1,);</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -51369,14 +51378,14 @@
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (20,18841,'Leland',Harris',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (20,'01.08.1951','Leland',Harris',3,1,);</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -51397,14 +51406,14 @@
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (21,18872,'Gunner',Karlsen',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (21,'01.09.1951','Gunner',Karlsen',3,1,);</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -51425,14 +51434,14 @@
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (22,18902,'Jamar',Olsson',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (22,'01.10.1951','Jamar',Olsson',3,1,);</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -51453,14 +51462,14 @@
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (23,18933,'Lara',Martin',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (23,'01.11.1951','Lara',Martin',3,1,);</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -51481,14 +51490,14 @@
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (24,18963,'Ann',Andersson',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (24,'01.12.1951','Ann',Andersson',3,1,);</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -51509,14 +51518,14 @@
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (25,18994,'Remington',Andersson',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (25,'01.01.1952','Remington',Andersson',3,1,);</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -51537,14 +51546,14 @@
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (26,19025,'Rene',Carlsson',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (26,'01.02.1952','Rene',Carlsson',3,1,);</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -51565,14 +51574,14 @@
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (27,19054,'Elvis',Olsen',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (27,'01.03.1952','Elvis',Olsen',3,1,);</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -51593,14 +51602,14 @@
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (28,19085,'Solomon',Olsen',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (28,'01.04.1952','Solomon',Olsen',3,1,);</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -51621,14 +51630,14 @@
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (29,19115,'Jaydan',Jackson',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (29,'01.05.1952','Jaydan',Jackson',3,1,);</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -51649,14 +51658,14 @@
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (30,19146,'Bernard',Nilsen',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (30,'01.06.1952','Bernard',Nilsen',3,1,);</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -51677,14 +51686,14 @@
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (31,19176,'Aaron',Aigner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (31,'01.07.1952','Aaron',Aigner',3,1,);</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -51705,14 +51714,14 @@
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (32,19207,'Adam',Auer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (32,'01.08.1952','Adam',Auer',3,1,);</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -51733,14 +51742,14 @@
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (33,19238,'Adrian',Bauer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (33,'01.09.1952','Adrian',Bauer',3,1,);</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -51761,14 +51770,14 @@
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (34,19268,'AHMET',Baumgartner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (34,'01.10.1952','AHMET',Baumgartner',3,1,);</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -51789,14 +51798,14 @@
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (35,19299,'ALEKSANDAR',Berger',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (35,'01.11.1952','ALEKSANDAR',Berger',3,1,);</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -51817,14 +51826,14 @@
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (36,19329,'Alessandro',Binder',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (36,'01.12.1952','Alessandro',Binder',3,1,);</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -51845,14 +51854,14 @@
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (37,19360,'Alessio',Brunner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (37,'01.01.1953','Alessio',Brunner',3,1,);</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -51873,14 +51882,14 @@
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (38,19391,'Alexander',Ebner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (38,'01.02.1953','Alexander',Ebner',3,1,);</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -51901,14 +51910,14 @@
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (39,19419,'ALEXANDRA',Eder',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (39,'01.03.1953','ALEXANDRA',Eder',3,1,);</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -51929,14 +51938,14 @@
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (40,19450,'Ali',Egger',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (40,'01.04.1953','Ali',Egger',3,1,);</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -51957,14 +51966,14 @@
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (41,19480,'Alice',Fischer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (41,'01.05.1953','Alice',Fischer',3,1,);</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -51985,14 +51994,14 @@
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (42,19511,'Alina',Fuchs',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (42,'01.06.1953','Alina',Fuchs',3,1,);</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -52013,14 +52022,14 @@
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (43,19541,'ALISSA',Gruber',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (43,'01.07.1953','ALISSA',Gruber',3,1,);</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -52041,14 +52050,14 @@
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (44,19572,'Alma',Haas',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (44,'01.08.1953','Alma',Haas',3,1,);</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -52069,14 +52078,14 @@
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (45,19603,'Alois',Haider',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (45,'01.09.1953','Alois',Haider',3,1,);</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -52097,14 +52106,14 @@
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (46,19633,'Amalia',Hofer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (46,'01.10.1953','Amalia',Hofer',3,1,);</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -52125,14 +52134,14 @@
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (47,19664,'Amelie',Holzer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (47,'01.11.1953','Amelie',Holzer',3,1,);</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -52153,14 +52162,14 @@
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (48,19694,'Amina',Huber',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (48,'01.12.1953','Amina',Huber',3,1,);</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -52181,14 +52190,14 @@
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (49,19725,'AMY',Koller',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (49,'01.01.1954','AMY',Koller',3,1,);</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -52209,14 +52218,14 @@
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (50,19756,'ANDRE',Lang',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (50,'01.02.1954','ANDRE',Lang',3,1,);</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -52237,14 +52246,14 @@
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (51,19784,'Andreas',Lechner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (51,'01.03.1954','Andreas',Lechner',3,1,);</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -52265,14 +52274,14 @@
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (52,19815,'Angelina',Lehner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (52,'01.04.1954','Angelina',Lehner',3,1,);</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -52293,14 +52302,14 @@
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (53,19845,'ANGELO',Leitner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (53,'01.05.1954','ANGELO',Leitner',3,1,);</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -52321,14 +52330,14 @@
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (54,19876,'ANIKA',Maier',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (54,'01.06.1954','ANIKA',Maier',3,1,);</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
     </row>
-    <row r="56" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -52349,14 +52358,14 @@
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (55,19906,'Anja',Mair',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (55,'01.07.1954','Anja',Mair',3,1,);</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
     </row>
-    <row r="57" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -52377,14 +52386,14 @@
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (56,19937,'Anna',Maurer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (56,'01.08.1954','Anna',Maurer',3,1,);</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
     </row>
-    <row r="58" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -52405,14 +52414,14 @@
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (57,19968,'ANNABELL',Mayer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (57,'01.09.1954','ANNABELL',Mayer',3,1,);</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
     </row>
-    <row r="59" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -52433,14 +52442,14 @@
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (58,19998,'Anna-Lena',Mayr',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (58,'01.10.1954','Anna-Lena',Mayr',3,1,);</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
     </row>
-    <row r="60" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -52461,14 +52470,14 @@
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (59,20029,'ANNA-MARIA',Moser',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (59,'01.11.1954','ANNA-MARIA',Moser',3,1,);</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
     </row>
-    <row r="61" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -52489,14 +52498,14 @@
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (60,20059,'ANNA-SOPHIE',Müller',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (60,'01.12.1954','ANNA-SOPHIE',Müller',3,1,);</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
     </row>
-    <row r="62" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -52517,14 +52526,14 @@
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (61,20090,'Annika',Pichler',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (61,'01.01.1955','Annika',Pichler',3,1,);</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -52545,14 +52554,14 @@
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (62,20121,'Anton',Reiter',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (62,'01.02.1955','Anton',Reiter',3,1,);</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
     </row>
-    <row r="64" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -52573,14 +52582,14 @@
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (63,20149,'Antonia',Riegler',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (63,'01.03.1955','Antonia',Riegler',3,1,);</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
     </row>
-    <row r="65" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -52601,14 +52610,14 @@
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (64,20180,'ARAS',Schmid',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (64,'01.04.1955','ARAS',Schmid',3,1,);</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
     </row>
-    <row r="66" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -52629,14 +52638,14 @@
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (65,20210,'ARDA',Schmidt',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (65,'01.05.1955','ARDA',Schmidt',3,1,);</v>
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
     </row>
-    <row r="67" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -52659,21 +52668,37 @@
         <v>1</v>
       </c>
       <c r="H67" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (66,20241,'Arian',Schneider',Client,0,1);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (66,'01.06.1955','Arian',Schneider',Client,0,1);</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="J67" s="28" t="s">
+      <c r="J67" s="25" t="s">
         <v>923</v>
       </c>
       <c r="K67" s="2" t="str">
         <f>I67&amp;J67&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;J67&amp;");"</f>
         <v>personStrings.add("Arian;Schneider;Client");</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M67" s="29">
+        <f>Tabelle2[[#This Row],[BIRTHDATE]]</f>
+        <v>20241</v>
+      </c>
+      <c r="N67" t="str">
+        <f>TEXT(M67,"TT.MM.JJJ")</f>
+        <v>01.06.1955</v>
+      </c>
+      <c r="O67" t="str">
+        <f>N67</f>
+        <v>01.06.1955</v>
+      </c>
+      <c r="P67" t="str">
+        <f>O67&amp;"-"&amp;N67&amp;M67</f>
+        <v>01.06.1955-01.06.195520241</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -52696,13 +52721,13 @@
         <v>2</v>
       </c>
       <c r="H68" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (67,20271,'Armin',Schuster',Client,0,2);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (67,'01.07.1955','Armin',Schuster',Client,0,2);</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="J68" s="28" t="s">
+      <c r="J68" s="25" t="s">
         <v>923</v>
       </c>
       <c r="K68" s="2" t="str">
@@ -52710,7 +52735,7 @@
         <v>personStrings.add("Armin;Schuster;Client");</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -52733,13 +52758,13 @@
         <v>3</v>
       </c>
       <c r="H69" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (68,20302,'Arthur',Schwarz',Client,0,3);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (68,'01.08.1955','Arthur',Schwarz',Client,0,3);</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="J69" s="28" t="s">
+      <c r="J69" s="25" t="s">
         <v>923</v>
       </c>
       <c r="K69" s="2" t="str">
@@ -52747,7 +52772,7 @@
         <v>personStrings.add("Arthur;Schwarz;Client");</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -52770,13 +52795,13 @@
         <v>4</v>
       </c>
       <c r="H70" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (69,20333,'ASMIN',Stadler',Client,0,4);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (69,'01.09.1955','ASMIN',Stadler',Client,0,4);</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="J70" s="28" t="s">
+      <c r="J70" s="25" t="s">
         <v>923</v>
       </c>
       <c r="K70" s="2" t="str">
@@ -52784,7 +52809,7 @@
         <v>personStrings.add("ASMIN;Stadler;Client");</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -52807,13 +52832,13 @@
         <v>5</v>
       </c>
       <c r="H71" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (70,20363,'Aurelia',Steiner',Client,0,5);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (70,'01.10.1955','Aurelia',Steiner',Client,0,5);</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="J71" s="28" t="s">
+      <c r="J71" s="25" t="s">
         <v>923</v>
       </c>
       <c r="K71" s="2" t="str">
@@ -52821,7 +52846,7 @@
         <v>personStrings.add("Aurelia;Steiner;Client");</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -52844,13 +52869,13 @@
         <v>6</v>
       </c>
       <c r="H72" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (71,20394,'AYLIN',Strasser',Client,0,6);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (71,'01.11.1955','AYLIN',Strasser',Client,0,6);</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="J72" s="28" t="s">
+      <c r="J72" s="25" t="s">
         <v>923</v>
       </c>
       <c r="K72" s="2" t="str">
@@ -52858,7 +52883,7 @@
         <v>personStrings.add("AYLIN;Strasser;Client");</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -52881,13 +52906,13 @@
         <v>7</v>
       </c>
       <c r="H73" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (72,20424,'AZRA',Wagner',Client,0,7);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (72,'01.12.1955','AZRA',Wagner',Client,0,7);</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="J73" s="28" t="s">
+      <c r="J73" s="25" t="s">
         <v>923</v>
       </c>
       <c r="K73" s="2" t="str">
@@ -52895,7 +52920,7 @@
         <v>personStrings.add("AZRA;Wagner;Client");</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -52918,13 +52943,13 @@
         <v>8</v>
       </c>
       <c r="H74" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (73,20455,'BASTIAN',Wallner',Client,0,8);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (73,'01.01.1956','BASTIAN',Wallner',Client,0,8);</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="J74" s="28" t="s">
+      <c r="J74" s="25" t="s">
         <v>923</v>
       </c>
       <c r="K74" s="2" t="str">
@@ -52932,7 +52957,7 @@
         <v>personStrings.add("BASTIAN;Wallner;Client");</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -52955,13 +52980,13 @@
         <v>9</v>
       </c>
       <c r="H75" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (74,20486,'Ben',Weber',Client,0,9);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (74,'01.02.1956','Ben',Weber',Client,0,9);</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="J75" s="28" t="s">
+      <c r="J75" s="25" t="s">
         <v>923</v>
       </c>
       <c r="K75" s="2" t="str">
@@ -52969,7 +52994,7 @@
         <v>personStrings.add("Ben;Weber;Client");</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -52992,13 +53017,13 @@
         <v>10</v>
       </c>
       <c r="H76" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (75,20515,'Benedikt',Weiss',Client,0,10);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (75,'01.03.1956','Benedikt',Weiss',Client,0,10);</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="J76" s="28" t="s">
+      <c r="J76" s="25" t="s">
         <v>923</v>
       </c>
       <c r="K76" s="2" t="str">
@@ -53006,7 +53031,7 @@
         <v>personStrings.add("Benedikt;Weiss;Client");</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -53029,13 +53054,13 @@
         <v>11</v>
       </c>
       <c r="H77" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (76,20546,'Benjamin',Wieser',Client,0,11);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (76,'01.04.1956','Benjamin',Wieser',Client,0,11);</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="J77" s="28" t="s">
+      <c r="J77" s="25" t="s">
         <v>923</v>
       </c>
       <c r="K77" s="2" t="str">
@@ -53043,7 +53068,7 @@
         <v>personStrings.add("Benjamin;Wieser;Client");</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -53066,13 +53091,13 @@
         <v>12</v>
       </c>
       <c r="H78" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (77,20576,'BERAT',Wimmer',Client,0,12);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (77,'01.05.1956','BERAT',Wimmer',Client,0,12);</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="J78" s="28" t="s">
+      <c r="J78" s="25" t="s">
         <v>923</v>
       </c>
       <c r="K78" s="2" t="str">
@@ -53080,7 +53105,7 @@
         <v>personStrings.add("BERAT;Wimmer;Client");</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -53103,13 +53128,13 @@
         <v>13</v>
       </c>
       <c r="H79" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (78,20607,'Carina',Winkler',Client,0,13);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (78,'01.06.1956','Carina',Winkler',Client,0,13);</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="J79" s="28" t="s">
+      <c r="J79" s="25" t="s">
         <v>923</v>
       </c>
       <c r="K79" s="2" t="str">
@@ -53117,7 +53142,7 @@
         <v>personStrings.add("Carina;Winkler;Client");</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -53140,13 +53165,13 @@
         <v>14</v>
       </c>
       <c r="H80" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (79,20637,'Carla',Winter',Client,0,14);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (79,'01.07.1956','Carla',Winter',Client,0,14);</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="J80" s="28" t="s">
+      <c r="J80" s="25" t="s">
         <v>923</v>
       </c>
       <c r="K80" s="2" t="str">
@@ -53177,13 +53202,13 @@
         <v>15</v>
       </c>
       <c r="H81" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (80,20668,'Carolina',Wolf',Client,0,15);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (80,'01.08.1956','Carolina',Wolf',Client,0,15);</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="J81" s="28" t="s">
+      <c r="J81" s="25" t="s">
         <v>923</v>
       </c>
       <c r="K81" s="2" t="str">
@@ -53214,13 +53239,13 @@
         <v>16</v>
       </c>
       <c r="H82" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (81,20699,'Celina',Aigner',Client,0,16);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (81,'01.09.1956','Celina',Aigner',Client,0,16);</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="J82" s="28" t="s">
+      <c r="J82" s="25" t="s">
         <v>923</v>
       </c>
       <c r="K82" s="2" t="str">
@@ -53251,13 +53276,13 @@
         <v>17</v>
       </c>
       <c r="H83" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (82,20729,'CELINE',Auer',Client,0,17);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (82,'01.10.1956','CELINE',Auer',Client,0,17);</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="J83" s="28" t="s">
+      <c r="J83" s="25" t="s">
         <v>923</v>
       </c>
       <c r="K83" s="2" t="str">
@@ -53288,13 +53313,13 @@
         <v>18</v>
       </c>
       <c r="H84" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (83,20760,'Charlotte',Bauer',Client,0,18);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (83,'01.11.1956','Charlotte',Bauer',Client,0,18);</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="J84" s="28" t="s">
+      <c r="J84" s="25" t="s">
         <v>923</v>
       </c>
       <c r="K84" s="2" t="str">
@@ -53302,7 +53327,7 @@
         <v>personStrings.add("Charlotte;Bauer;Client");</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -53325,13 +53350,13 @@
         <v>19</v>
       </c>
       <c r="H85" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (84,20790,'Chiara',Baumgartner',Client,0,19);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (84,'01.12.1956','Chiara',Baumgartner',Client,0,19);</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="J85" s="28" t="s">
+      <c r="J85" s="25" t="s">
         <v>923</v>
       </c>
       <c r="K85" s="2" t="str">
@@ -53362,13 +53387,13 @@
         <v>20</v>
       </c>
       <c r="H86" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (85,20821,'Christian',Berger',Client,0,20);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (85,'01.01.1957','Christian',Berger',Client,0,20);</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="J86" s="28" t="s">
+      <c r="J86" s="25" t="s">
         <v>923</v>
       </c>
       <c r="K86" s="2" t="str">
@@ -53376,7 +53401,7 @@
         <v>personStrings.add("Christian;Berger;Client");</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -53389,22 +53414,31 @@
       <c r="D87" t="s">
         <v>813</v>
       </c>
-      <c r="E87" s="2">
-        <v>3</v>
+      <c r="E87" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="F87" s="2">
-        <v>1</v>
-      </c>
-      <c r="G87" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>21</v>
+      </c>
       <c r="H87" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (86,20852,'Christina',Binder',3,1,);</v>
-      </c>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
-    </row>
-    <row r="88" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (86,'01.02.1957','Christina',Binder',ContactPerson,0,21);</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="J87" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="K87" s="2" t="str">
+        <f>I87&amp;J87&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;J87&amp;");"</f>
+        <v>personStrings.add("Christina;Binder;ContactPerson");</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -53417,22 +53451,31 @@
       <c r="D88" t="s">
         <v>810</v>
       </c>
-      <c r="E88" s="2">
-        <v>3</v>
+      <c r="E88" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="F88" s="2">
-        <v>1</v>
-      </c>
-      <c r="G88" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>22</v>
+      </c>
       <c r="H88" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (87,20880,'CHRISTOF',Brunner',3,1,);</v>
-      </c>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
-    </row>
-    <row r="89" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (87,'01.03.1957','CHRISTOF',Brunner',ContactPerson,0,22);</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="J88" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="K88" s="2" t="str">
+        <f>I88&amp;J88&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;J88&amp;");"</f>
+        <v>personStrings.add("CHRISTOF;Brunner;ContactPerson");</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -53445,22 +53488,31 @@
       <c r="D89" t="s">
         <v>814</v>
       </c>
-      <c r="E89" s="2">
-        <v>3</v>
+      <c r="E89" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="F89" s="2">
-        <v>1</v>
-      </c>
-      <c r="G89" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>23</v>
+      </c>
       <c r="H89" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (88,20911,'Christoph',Ebner',3,1,);</v>
-      </c>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-    </row>
-    <row r="90" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (88,'01.04.1957','Christoph',Ebner',ContactPerson,0,23);</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="J89" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="K89" s="2" t="str">
+        <f>I89&amp;J89&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;J89&amp;");"</f>
+        <v>personStrings.add("Christoph;Ebner;ContactPerson");</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -53473,22 +53525,31 @@
       <c r="D90" t="s">
         <v>798</v>
       </c>
-      <c r="E90" s="2">
-        <v>3</v>
+      <c r="E90" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="F90" s="2">
-        <v>1</v>
-      </c>
-      <c r="G90" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>24</v>
+      </c>
       <c r="H90" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (89,20941,'CLARA',Eder',3,1,);</v>
-      </c>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-    </row>
-    <row r="91" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (89,'01.05.1957','CLARA',Eder',ContactPerson,0,24);</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="J90" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="K90" s="2" t="str">
+        <f>I90&amp;J90&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;J90&amp;");"</f>
+        <v>personStrings.add("CLARA;Eder;ContactPerson");</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -53501,22 +53562,31 @@
       <c r="D91" t="s">
         <v>808</v>
       </c>
-      <c r="E91" s="2">
-        <v>3</v>
+      <c r="E91" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="F91" s="2">
-        <v>1</v>
-      </c>
-      <c r="G91" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>25</v>
+      </c>
       <c r="H91" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (90,20972,'CLAUDIA',Egger',3,1,);</v>
-      </c>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-    </row>
-    <row r="92" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (90,'01.06.1957','CLAUDIA',Egger',ContactPerson,0,25);</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="J91" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="K91" s="2" t="str">
+        <f>I91&amp;J91&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;J91&amp;");"</f>
+        <v>personStrings.add("CLAUDIA;Egger;ContactPerson");</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -53529,22 +53599,31 @@
       <c r="D92" t="s">
         <v>806</v>
       </c>
-      <c r="E92" s="2">
-        <v>3</v>
+      <c r="E92" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="F92" s="2">
-        <v>1</v>
-      </c>
-      <c r="G92" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>26</v>
+      </c>
       <c r="H92" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (91,21002,'Clemens',Fischer',3,1,);</v>
-      </c>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
-    </row>
-    <row r="93" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (91,'01.07.1957','Clemens',Fischer',ContactPerson,0,26);</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="J92" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="K92" s="2" t="str">
+        <f>I92&amp;J92&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;J92&amp;");"</f>
+        <v>personStrings.add("Clemens;Fischer;ContactPerson");</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -53557,22 +53636,31 @@
       <c r="D93" t="s">
         <v>922</v>
       </c>
-      <c r="E93" s="2">
-        <v>3</v>
+      <c r="E93" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="F93" s="2">
-        <v>1</v>
-      </c>
-      <c r="G93" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>27</v>
+      </c>
       <c r="H93" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (92,21033,'CONSTANTIN',Fuchs',3,1,);</v>
-      </c>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
-    </row>
-    <row r="94" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (92,'01.08.1957','CONSTANTIN',Fuchs',ContactPerson,0,27);</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="J93" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="K93" s="2" t="str">
+        <f>I93&amp;J93&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;J93&amp;");"</f>
+        <v>personStrings.add("CONSTANTIN;Fuchs;ContactPerson");</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -53585,22 +53673,31 @@
       <c r="D94" t="s">
         <v>792</v>
       </c>
-      <c r="E94" s="2">
-        <v>3</v>
+      <c r="E94" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="F94" s="2">
-        <v>1</v>
-      </c>
-      <c r="G94" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>28</v>
+      </c>
       <c r="H94" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (93,21064,'Damian',Gruber',3,1,);</v>
-      </c>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-      <c r="K94" s="2"/>
-    </row>
-    <row r="95" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (93,'01.09.1957','Damian',Gruber',ContactPerson,0,28);</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="J94" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="K94" s="2" t="str">
+        <f>I94&amp;J94&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;J94&amp;");"</f>
+        <v>personStrings.add("Damian;Gruber;ContactPerson");</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -53613,22 +53710,31 @@
       <c r="D95" t="s">
         <v>775</v>
       </c>
-      <c r="E95" s="2">
-        <v>3</v>
+      <c r="E95" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="F95" s="2">
-        <v>1</v>
-      </c>
-      <c r="G95" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>29</v>
+      </c>
       <c r="H95" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (94,21094,'Daniel',Haas',3,1,);</v>
-      </c>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-    </row>
-    <row r="96" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (94,'01.10.1957','Daniel',Haas',ContactPerson,0,29);</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="J95" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="K95" s="2" t="str">
+        <f>I95&amp;J95&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;J95&amp;");"</f>
+        <v>personStrings.add("Daniel;Haas;ContactPerson");</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -53641,22 +53747,31 @@
       <c r="D96" t="s">
         <v>819</v>
       </c>
-      <c r="E96" s="2">
-        <v>3</v>
+      <c r="E96" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="F96" s="2">
-        <v>1</v>
-      </c>
-      <c r="G96" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>30</v>
+      </c>
       <c r="H96" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (95,21125,'DANIELA',Haider',3,1,);</v>
-      </c>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
-    </row>
-    <row r="97" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (95,'01.11.1957','DANIELA',Haider',ContactPerson,0,30);</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="J96" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="K96" s="2" t="str">
+        <f>I96&amp;J96&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;J96&amp;");"</f>
+        <v>personStrings.add("DANIELA;Haider;ContactPerson");</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -53669,22 +53784,31 @@
       <c r="D97" t="s">
         <v>797</v>
       </c>
-      <c r="E97" s="2">
-        <v>3</v>
+      <c r="E97" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="F97" s="2">
-        <v>1</v>
-      </c>
-      <c r="G97" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>31</v>
+      </c>
       <c r="H97" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (96,21155,'DARIO',Hofer',3,1,);</v>
-      </c>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
-    </row>
-    <row r="98" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (96,'01.12.1957','DARIO',Hofer',ContactPerson,0,31);</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="J97" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="K97" s="2" t="str">
+        <f>I97&amp;J97&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;J97&amp;");"</f>
+        <v>personStrings.add("DARIO;Hofer;ContactPerson");</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -53697,22 +53821,31 @@
       <c r="D98" t="s">
         <v>820</v>
       </c>
-      <c r="E98" s="2">
-        <v>3</v>
+      <c r="E98" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="F98" s="2">
-        <v>1</v>
-      </c>
-      <c r="G98" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>32</v>
+      </c>
       <c r="H98" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (97,21186,'David',Holzer',3,1,);</v>
-      </c>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
-    </row>
-    <row r="99" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (97,'01.01.1958','David',Holzer',ContactPerson,0,32);</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="J98" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="K98" s="2" t="str">
+        <f>I98&amp;J98&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;";"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;J98&amp;");"</f>
+        <v>personStrings.add("David;Holzer;ContactPerson");</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -53733,14 +53866,14 @@
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (98,21217,'Defne',Huber',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (98,'01.02.1958','Defne',Huber',3,1,);</v>
       </c>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
     </row>
-    <row r="100" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -53761,14 +53894,14 @@
       </c>
       <c r="G100" s="2"/>
       <c r="H100" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (99,21245,'DENISE',Koller',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (99,'01.03.1958','DENISE',Koller',3,1,);</v>
       </c>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
     </row>
-    <row r="101" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -53789,14 +53922,14 @@
       </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (100,21276,'DENIZ',Lang',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (100,'01.04.1958','DENIZ',Lang',3,1,);</v>
       </c>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
     </row>
-    <row r="102" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -53817,14 +53950,14 @@
       </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (101,21306,'Diana',Lechner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (101,'01.05.1958','Diana',Lechner',3,1,);</v>
       </c>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
     </row>
-    <row r="103" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -53845,14 +53978,14 @@
       </c>
       <c r="G103" s="2"/>
       <c r="H103" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (102,21337,'Diego',Lehner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (102,'01.06.1958','Diego',Lehner',3,1,);</v>
       </c>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
     </row>
-    <row r="104" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -53873,14 +54006,14 @@
       </c>
       <c r="G104" s="2"/>
       <c r="H104" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (103,21367,'Dominik',Leitner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (103,'01.07.1958','Dominik',Leitner',3,1,);</v>
       </c>
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
     </row>
-    <row r="105" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -53901,14 +54034,14 @@
       </c>
       <c r="G105" s="2"/>
       <c r="H105" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (104,21398,'ECRIN',Maier',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (104,'01.08.1958','ECRIN',Maier',3,1,);</v>
       </c>
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
     </row>
-    <row r="106" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -53929,14 +54062,14 @@
       </c>
       <c r="G106" s="2"/>
       <c r="H106" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (105,21429,'EFE',Mair',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (105,'01.09.1958','EFE',Mair',3,1,);</v>
       </c>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
     </row>
-    <row r="107" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -53957,14 +54090,14 @@
       </c>
       <c r="G107" s="2"/>
       <c r="H107" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (106,21459,'EGE',Maurer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (106,'01.10.1958','EGE',Maurer',3,1,);</v>
       </c>
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
     </row>
-    <row r="108" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -53985,14 +54118,14 @@
       </c>
       <c r="G108" s="2"/>
       <c r="H108" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (107,21490,'EILEEN',Mayer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (107,'01.11.1958','EILEEN',Mayer',3,1,);</v>
       </c>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
     </row>
-    <row r="109" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -54013,14 +54146,14 @@
       </c>
       <c r="G109" s="2"/>
       <c r="H109" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (108,21520,'ELA',Mayr',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (108,'01.12.1958','ELA',Mayr',3,1,);</v>
       </c>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
     </row>
-    <row r="110" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -54041,14 +54174,14 @@
       </c>
       <c r="G110" s="2"/>
       <c r="H110" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (109,21551,'Elena',Moser',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (109,'01.01.1959','Elena',Moser',3,1,);</v>
       </c>
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
     </row>
-    <row r="111" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -54069,14 +54202,14 @@
       </c>
       <c r="G111" s="2"/>
       <c r="H111" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (110,21582,'ELIA',Müller',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (110,'01.02.1959','ELIA',Müller',3,1,);</v>
       </c>
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
     </row>
-    <row r="112" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -54097,14 +54230,14 @@
       </c>
       <c r="G112" s="2"/>
       <c r="H112" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (111,21610,'Eliah',Pichler',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (111,'01.03.1959','Eliah',Pichler',3,1,);</v>
       </c>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
     </row>
-    <row r="113" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -54125,14 +54258,14 @@
       </c>
       <c r="G113" s="2"/>
       <c r="H113" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (112,21641,'Elias',Reiter',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (112,'01.04.1959','Elias',Reiter',3,1,);</v>
       </c>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
     </row>
-    <row r="114" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -54153,14 +54286,14 @@
       </c>
       <c r="G114" s="2"/>
       <c r="H114" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (113,21671,'Elif',Riegler',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (113,'01.05.1959','Elif',Riegler',3,1,);</v>
       </c>
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
     </row>
-    <row r="115" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -54181,14 +54314,14 @@
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (114,21702,'Elina',Schmid',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (114,'01.06.1959','Elina',Schmid',3,1,);</v>
       </c>
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
     </row>
-    <row r="116" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -54209,14 +54342,14 @@
       </c>
       <c r="G116" s="2"/>
       <c r="H116" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (115,21732,'Elisa',Schmidt',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (115,'01.07.1959','Elisa',Schmidt',3,1,);</v>
       </c>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
     </row>
-    <row r="117" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -54237,14 +54370,14 @@
       </c>
       <c r="G117" s="2"/>
       <c r="H117" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (116,21763,'Elisabeth',Schneider',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (116,'01.08.1959','Elisabeth',Schneider',3,1,);</v>
       </c>
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
     </row>
-    <row r="118" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -54265,14 +54398,14 @@
       </c>
       <c r="G118" s="2"/>
       <c r="H118" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (117,21794,'Ella',Schuster',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (117,'01.09.1959','Ella',Schuster',3,1,);</v>
       </c>
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
     </row>
-    <row r="119" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -54293,14 +54426,14 @@
       </c>
       <c r="G119" s="2"/>
       <c r="H119" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (118,21824,'Emanuel',Schwarz',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (118,'01.10.1959','Emanuel',Schwarz',3,1,);</v>
       </c>
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
     </row>
-    <row r="120" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -54321,14 +54454,14 @@
       </c>
       <c r="G120" s="2"/>
       <c r="H120" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (119,21855,'EMELIE',Stadler',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (119,'01.11.1959','EMELIE',Stadler',3,1,);</v>
       </c>
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
     </row>
-    <row r="121" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -54349,14 +54482,14 @@
       </c>
       <c r="G121" s="2"/>
       <c r="H121" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (120,21885,'Emely',Steiner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (120,'01.12.1959','Emely',Steiner',3,1,);</v>
       </c>
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
     </row>
-    <row r="122" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -54377,14 +54510,14 @@
       </c>
       <c r="G122" s="2"/>
       <c r="H122" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (121,21916,'Emil',Strasser',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (121,'01.01.1960','Emil',Strasser',3,1,);</v>
       </c>
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
     </row>
-    <row r="123" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -54405,14 +54538,14 @@
       </c>
       <c r="G123" s="2"/>
       <c r="H123" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (122,21947,'Emilia',Wagner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (122,'01.02.1960','Emilia',Wagner',3,1,);</v>
       </c>
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
     </row>
-    <row r="124" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -54433,14 +54566,14 @@
       </c>
       <c r="G124" s="2"/>
       <c r="H124" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (123,21976,'Emilian',Wallner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (123,'01.03.1960','Emilian',Wallner',3,1,);</v>
       </c>
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
     </row>
-    <row r="125" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -54461,14 +54594,14 @@
       </c>
       <c r="G125" s="2"/>
       <c r="H125" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (124,22007,'Emilio',Weber',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (124,'01.04.1960','Emilio',Weber',3,1,);</v>
       </c>
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
     </row>
-    <row r="126" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -54489,14 +54622,14 @@
       </c>
       <c r="G126" s="2"/>
       <c r="H126" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (125,22037,'Emily',Weiss',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (125,'01.05.1960','Emily',Weiss',3,1,);</v>
       </c>
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
     </row>
-    <row r="127" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -54517,14 +54650,14 @@
       </c>
       <c r="G127" s="2"/>
       <c r="H127" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (126,22068,'Emir',Wieser',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (126,'01.06.1960','Emir',Wieser',3,1,);</v>
       </c>
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
     </row>
-    <row r="128" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -54545,14 +54678,14 @@
       </c>
       <c r="G128" s="2"/>
       <c r="H128" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (127,22098,'Emma',Wimmer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (127,'01.07.1960','Emma',Wimmer',3,1,);</v>
       </c>
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
     </row>
-    <row r="129" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -54573,14 +54706,14 @@
       </c>
       <c r="G129" s="2"/>
       <c r="H129" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (128,22129,'EMRE',Winkler',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (128,'01.08.1960','EMRE',Winkler',3,1,);</v>
       </c>
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
     </row>
-    <row r="130" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -54601,14 +54734,14 @@
       </c>
       <c r="G130" s="2"/>
       <c r="H130" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (129,22160,'ERAY',Winter',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (129,'01.09.1960','ERAY',Winter',3,1,);</v>
       </c>
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
     </row>
-    <row r="131" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -54629,14 +54762,14 @@
       </c>
       <c r="G131" s="2"/>
       <c r="H131" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (130,22190,'EREN',Wolf',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (130,'01.10.1960','EREN',Wolf',3,1,);</v>
       </c>
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
     </row>
-    <row r="132" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -54657,14 +54790,14 @@
       </c>
       <c r="G132" s="2"/>
       <c r="H132" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (131,22221,'Eric',Aigner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (131,'01.11.1960','Eric',Aigner',3,1,);</v>
       </c>
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
     </row>
-    <row r="133" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -54685,14 +54818,14 @@
       </c>
       <c r="G133" s="2"/>
       <c r="H133" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (132,22251,'ERIK',Auer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (132,'01.12.1960','ERIK',Auer',3,1,);</v>
       </c>
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
     </row>
-    <row r="134" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -54713,14 +54846,14 @@
       </c>
       <c r="G134" s="2"/>
       <c r="H134" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (133,22282,'ESILA',Bauer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (133,'01.01.1961','ESILA',Bauer',3,1,);</v>
       </c>
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
     </row>
-    <row r="135" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -54741,14 +54874,14 @@
       </c>
       <c r="G135" s="2"/>
       <c r="H135" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (134,22313,'ESMA',Baumgartner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (134,'01.02.1961','ESMA',Baumgartner',3,1,);</v>
       </c>
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
     </row>
-    <row r="136" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -54769,14 +54902,14 @@
       </c>
       <c r="G136" s="2"/>
       <c r="H136" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (135,22341,'Eva',Berger',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (135,'01.03.1961','Eva',Berger',3,1,);</v>
       </c>
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
     </row>
-    <row r="137" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -54797,14 +54930,14 @@
       </c>
       <c r="G137" s="2"/>
       <c r="H137" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (136,22372,'Eymen',Binder',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (136,'01.04.1961','Eymen',Binder',3,1,);</v>
       </c>
       <c r="I137" s="2"/>
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
     </row>
-    <row r="138" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -54825,14 +54958,14 @@
       </c>
       <c r="G138" s="2"/>
       <c r="H138" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (137,22402,'Fabian',Brunner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (137,'01.05.1961','Fabian',Brunner',3,1,);</v>
       </c>
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
     </row>
-    <row r="139" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -54853,14 +54986,14 @@
       </c>
       <c r="G139" s="2"/>
       <c r="H139" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (138,22433,'Fabienne',Ebner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (138,'01.06.1961','Fabienne',Ebner',3,1,);</v>
       </c>
       <c r="I139" s="2"/>
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
     </row>
-    <row r="140" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -54881,14 +55014,14 @@
       </c>
       <c r="G140" s="2"/>
       <c r="H140" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (139,22463,'Fabio',Eder',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (139,'01.07.1961','Fabio',Eder',3,1,);</v>
       </c>
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
     </row>
-    <row r="141" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -54909,14 +55042,14 @@
       </c>
       <c r="G141" s="2"/>
       <c r="H141" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (140,22494,'Felix',Egger',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (140,'01.08.1961','Felix',Egger',3,1,);</v>
       </c>
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
     </row>
-    <row r="142" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -54937,14 +55070,14 @@
       </c>
       <c r="G142" s="2"/>
       <c r="H142" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (141,22525,'FILIP',Fischer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (141,'01.09.1961','FILIP',Fischer',3,1,);</v>
       </c>
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
     </row>
-    <row r="143" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -54965,14 +55098,14 @@
       </c>
       <c r="G143" s="2"/>
       <c r="H143" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (142,22555,'Finn',Fuchs',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (142,'01.10.1961','Finn',Fuchs',3,1,);</v>
       </c>
       <c r="I143" s="2"/>
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
     </row>
-    <row r="144" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -54993,14 +55126,14 @@
       </c>
       <c r="G144" s="2"/>
       <c r="H144" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (143,22586,'Fiona',Gruber',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (143,'01.11.1961','Fiona',Gruber',3,1,);</v>
       </c>
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
     </row>
-    <row r="145" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -55021,14 +55154,14 @@
       </c>
       <c r="G145" s="2"/>
       <c r="H145" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (144,22616,'Flora',Haas',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (144,'01.12.1961','Flora',Haas',3,1,);</v>
       </c>
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
     </row>
-    <row r="146" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -55049,14 +55182,14 @@
       </c>
       <c r="G146" s="2"/>
       <c r="H146" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (145,22647,'FLORENTINA',Haider',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (145,'01.01.1962','FLORENTINA',Haider',3,1,);</v>
       </c>
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
     </row>
-    <row r="147" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -55077,14 +55210,14 @@
       </c>
       <c r="G147" s="2"/>
       <c r="H147" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (146,22678,'Florian',Hofer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (146,'01.02.1962','Florian',Hofer',3,1,);</v>
       </c>
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
     </row>
-    <row r="148" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -55105,14 +55238,14 @@
       </c>
       <c r="G148" s="2"/>
       <c r="H148" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (147,22706,'Franz',Holzer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (147,'01.03.1962','Franz',Holzer',3,1,);</v>
       </c>
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
     </row>
-    <row r="149" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -55133,14 +55266,14 @@
       </c>
       <c r="G149" s="2"/>
       <c r="H149" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (148,22737,'Franziska',Huber',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (148,'01.04.1962','Franziska',Huber',3,1,);</v>
       </c>
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
     </row>
-    <row r="150" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -55161,14 +55294,14 @@
       </c>
       <c r="G150" s="2"/>
       <c r="H150" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (149,22767,'Frida',Koller',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (149,'01.05.1962','Frida',Koller',3,1,);</v>
       </c>
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
     </row>
-    <row r="151" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -55189,14 +55322,14 @@
       </c>
       <c r="G151" s="2"/>
       <c r="H151" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (150,22798,'Frieda',Lang',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (150,'01.06.1962','Frieda',Lang',3,1,);</v>
       </c>
       <c r="I151" s="2"/>
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
     </row>
-    <row r="152" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -55217,14 +55350,14 @@
       </c>
       <c r="G152" s="2"/>
       <c r="H152" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (151,22828,'Gabriel',Lechner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (151,'01.07.1962','Gabriel',Lechner',3,1,);</v>
       </c>
       <c r="I152" s="2"/>
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
     </row>
-    <row r="153" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -55245,14 +55378,14 @@
       </c>
       <c r="G153" s="2"/>
       <c r="H153" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (152,22859,'Georg',Lehner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (152,'01.08.1962','Georg',Lehner',3,1,);</v>
       </c>
       <c r="I153" s="2"/>
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
     </row>
-    <row r="154" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -55273,14 +55406,14 @@
       </c>
       <c r="G154" s="2"/>
       <c r="H154" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (153,22890,'GLORIA',Leitner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (153,'01.09.1962','GLORIA',Leitner',3,1,);</v>
       </c>
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
     </row>
-    <row r="155" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -55301,14 +55434,14 @@
       </c>
       <c r="G155" s="2"/>
       <c r="H155" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (154,22920,'GREGOR',Maier',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (154,'01.10.1962','GREGOR',Maier',3,1,);</v>
       </c>
       <c r="I155" s="2"/>
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
     </row>
-    <row r="156" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -55329,14 +55462,14 @@
       </c>
       <c r="G156" s="2"/>
       <c r="H156" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (155,22951,'Greta',Mair',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (155,'01.11.1962','Greta',Mair',3,1,);</v>
       </c>
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
     </row>
-    <row r="157" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -55357,14 +55490,14 @@
       </c>
       <c r="G157" s="2"/>
       <c r="H157" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (156,22981,'Hamza',Maurer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (156,'01.12.1962','Hamza',Maurer',3,1,);</v>
       </c>
       <c r="I157" s="2"/>
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
     </row>
-    <row r="158" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -55385,14 +55518,14 @@
       </c>
       <c r="G158" s="2"/>
       <c r="H158" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (157,23012,'Hannah',Mayer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (157,'01.01.1963','Hannah',Mayer',3,1,);</v>
       </c>
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
     </row>
-    <row r="159" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -55413,14 +55546,14 @@
       </c>
       <c r="G159" s="2"/>
       <c r="H159" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (158,23043,'Hannes',Mayr',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (158,'01.02.1963','Hannes',Mayr',3,1,);</v>
       </c>
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
     </row>
-    <row r="160" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -55441,14 +55574,14 @@
       </c>
       <c r="G160" s="2"/>
       <c r="H160" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (159,23071,'Heidi',Moser',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (159,'01.03.1963','Heidi',Moser',3,1,);</v>
       </c>
       <c r="I160" s="2"/>
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
     </row>
-    <row r="161" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -55469,14 +55602,14 @@
       </c>
       <c r="G161" s="2"/>
       <c r="H161" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (160,23102,'Helena',Müller',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (160,'01.04.1963','Helena',Müller',3,1,);</v>
       </c>
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
     </row>
-    <row r="162" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -55497,14 +55630,14 @@
       </c>
       <c r="G162" s="2"/>
       <c r="H162" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (161,23132,'Henri',Pichler',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (161,'01.05.1963','Henri',Pichler',3,1,);</v>
       </c>
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
     </row>
-    <row r="163" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -55525,14 +55658,14 @@
       </c>
       <c r="G163" s="2"/>
       <c r="H163" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (162,23163,'Henry',Reiter',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (162,'01.06.1963','Henry',Reiter',3,1,);</v>
       </c>
       <c r="I163" s="2"/>
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
     </row>
-    <row r="164" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -55553,14 +55686,14 @@
       </c>
       <c r="G164" s="2"/>
       <c r="H164" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (163,23193,'Hira',Riegler',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (163,'01.07.1963','Hira',Riegler',3,1,);</v>
       </c>
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
     </row>
-    <row r="165" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -55581,14 +55714,14 @@
       </c>
       <c r="G165" s="2"/>
       <c r="H165" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (164,23224,'HÜSEYIN',Schmid',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (164,'01.08.1963','HÜSEYIN',Schmid',3,1,);</v>
       </c>
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
     </row>
-    <row r="166" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -55609,14 +55742,14 @@
       </c>
       <c r="G166" s="2"/>
       <c r="H166" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (165,23255,'Ida',Schmidt',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (165,'01.09.1963','Ida',Schmidt',3,1,);</v>
       </c>
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
     </row>
-    <row r="167" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -55637,14 +55770,14 @@
       </c>
       <c r="G167" s="2"/>
       <c r="H167" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (166,23285,'Ilvy',Schneider',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (166,'01.10.1963','Ilvy',Schneider',3,1,);</v>
       </c>
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
     </row>
-    <row r="168" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -55665,14 +55798,14 @@
       </c>
       <c r="G168" s="2"/>
       <c r="H168" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (167,23316,'IRIS',Schuster',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (167,'01.11.1963','IRIS',Schuster',3,1,);</v>
       </c>
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
     </row>
-    <row r="169" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -55693,14 +55826,14 @@
       </c>
       <c r="G169" s="2"/>
       <c r="H169" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (168,23346,'ISABEL',Schwarz',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (168,'01.12.1963','ISABEL',Schwarz',3,1,);</v>
       </c>
       <c r="I169" s="2"/>
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
     </row>
-    <row r="170" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -55721,14 +55854,14 @@
       </c>
       <c r="G170" s="2"/>
       <c r="H170" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (169,23377,'ISABELL',Stadler',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (169,'01.01.1964','ISABELL',Stadler',3,1,);</v>
       </c>
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
     </row>
-    <row r="171" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -55749,14 +55882,14 @@
       </c>
       <c r="G171" s="2"/>
       <c r="H171" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (170,23408,'Isabella',Steiner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (170,'01.02.1964','Isabella',Steiner',3,1,);</v>
       </c>
       <c r="I171" s="2"/>
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
     </row>
-    <row r="172" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -55777,14 +55910,14 @@
       </c>
       <c r="G172" s="2"/>
       <c r="H172" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (171,23437,'Jakob',Strasser',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (171,'01.03.1964','Jakob',Strasser',3,1,);</v>
       </c>
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
     </row>
-    <row r="173" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -55805,14 +55938,14 @@
       </c>
       <c r="G173" s="2"/>
       <c r="H173" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (172,23468,'Jamie',Wagner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (172,'01.04.1964','Jamie',Wagner',3,1,);</v>
       </c>
       <c r="I173" s="2"/>
       <c r="J173" s="2"/>
       <c r="K173" s="2"/>
     </row>
-    <row r="174" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -55833,14 +55966,14 @@
       </c>
       <c r="G174" s="2"/>
       <c r="H174" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (173,23498,'Jana',Wallner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (173,'01.05.1964','Jana',Wallner',3,1,);</v>
       </c>
       <c r="I174" s="2"/>
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
     </row>
-    <row r="175" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -55861,14 +55994,14 @@
       </c>
       <c r="G175" s="2"/>
       <c r="H175" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (174,23529,'Jasmin',Weber',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (174,'01.06.1964','Jasmin',Weber',3,1,);</v>
       </c>
       <c r="I175" s="2"/>
       <c r="J175" s="2"/>
       <c r="K175" s="2"/>
     </row>
-    <row r="176" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -55889,14 +56022,14 @@
       </c>
       <c r="G176" s="2"/>
       <c r="H176" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (175,23559,'JOEL',Weiss',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (175,'01.07.1964','JOEL',Weiss',3,1,);</v>
       </c>
       <c r="I176" s="2"/>
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
     </row>
-    <row r="177" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -55917,14 +56050,14 @@
       </c>
       <c r="G177" s="2"/>
       <c r="H177" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (176,23590,'Johann',Wieser',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (176,'01.08.1964','Johann',Wieser',3,1,);</v>
       </c>
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
     </row>
-    <row r="178" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -55945,14 +56078,14 @@
       </c>
       <c r="G178" s="2"/>
       <c r="H178" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (177,23621,'Johanna',Wimmer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (177,'01.09.1964','Johanna',Wimmer',3,1,);</v>
       </c>
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
     </row>
-    <row r="179" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -55973,14 +56106,14 @@
       </c>
       <c r="G179" s="2"/>
       <c r="H179" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (178,23651,'Johannes',Winkler',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (178,'01.10.1964','Johannes',Winkler',3,1,);</v>
       </c>
       <c r="I179" s="2"/>
       <c r="J179" s="2"/>
       <c r="K179" s="2"/>
     </row>
-    <row r="180" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -56001,14 +56134,14 @@
       </c>
       <c r="G180" s="2"/>
       <c r="H180" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (179,23682,'Jonah',Winter',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (179,'01.11.1964','Jonah',Winter',3,1,);</v>
       </c>
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
     </row>
-    <row r="181" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -56029,14 +56162,14 @@
       </c>
       <c r="G181" s="2"/>
       <c r="H181" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (180,23712,'Jonas',Wolf',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (180,'01.12.1964','Jonas',Wolf',3,1,);</v>
       </c>
       <c r="I181" s="2"/>
       <c r="J181" s="2"/>
       <c r="K181" s="2"/>
     </row>
-    <row r="182" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -56057,14 +56190,14 @@
       </c>
       <c r="G182" s="2"/>
       <c r="H182" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (181,23743,'Jonathan',Aigner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (181,'01.01.1965','Jonathan',Aigner',3,1,);</v>
       </c>
       <c r="I182" s="2"/>
       <c r="J182" s="2"/>
       <c r="K182" s="2"/>
     </row>
-    <row r="183" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -56085,14 +56218,14 @@
       </c>
       <c r="G183" s="2"/>
       <c r="H183" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (182,23774,'Josef',Auer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (182,'01.02.1965','Josef',Auer',3,1,);</v>
       </c>
       <c r="I183" s="2"/>
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
     </row>
-    <row r="184" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -56113,14 +56246,14 @@
       </c>
       <c r="G184" s="2"/>
       <c r="H184" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (183,23802,'Josefine',Bauer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (183,'01.03.1965','Josefine',Bauer',3,1,);</v>
       </c>
       <c r="I184" s="2"/>
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
     </row>
-    <row r="185" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -56141,14 +56274,14 @@
       </c>
       <c r="G185" s="2"/>
       <c r="H185" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (184,23833,'JOSHUA',Baumgartner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (184,'01.04.1965','JOSHUA',Baumgartner',3,1,);</v>
       </c>
       <c r="I185" s="2"/>
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
     </row>
-    <row r="186" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -56169,14 +56302,14 @@
       </c>
       <c r="G186" s="2"/>
       <c r="H186" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (185,23863,'Julia',Berger',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (185,'01.05.1965','Julia',Berger',3,1,);</v>
       </c>
       <c r="I186" s="2"/>
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
     </row>
-    <row r="187" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -56197,14 +56330,14 @@
       </c>
       <c r="G187" s="2"/>
       <c r="H187" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (186,23894,'Julian',Binder',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (186,'01.06.1965','Julian',Binder',3,1,);</v>
       </c>
       <c r="I187" s="2"/>
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
     </row>
-    <row r="188" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -56225,14 +56358,14 @@
       </c>
       <c r="G188" s="2"/>
       <c r="H188" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (187,23924,'Julius',Brunner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (187,'01.07.1965','Julius',Brunner',3,1,);</v>
       </c>
       <c r="I188" s="2"/>
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
     </row>
-    <row r="189" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -56253,14 +56386,14 @@
       </c>
       <c r="G189" s="2"/>
       <c r="H189" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (188,23955,'JUSTIN',Ebner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (188,'01.08.1965','JUSTIN',Ebner',3,1,);</v>
       </c>
       <c r="I189" s="2"/>
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
     </row>
-    <row r="190" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -56281,14 +56414,14 @@
       </c>
       <c r="G190" s="2"/>
       <c r="H190" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (189,23986,'KAAN',Eder',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (189,'01.09.1965','KAAN',Eder',3,1,);</v>
       </c>
       <c r="I190" s="2"/>
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
     </row>
-    <row r="191" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -56309,14 +56442,14 @@
       </c>
       <c r="G191" s="2"/>
       <c r="H191" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (190,24016,'Katharina',Egger',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (190,'01.10.1965','Katharina',Egger',3,1,);</v>
       </c>
       <c r="I191" s="2"/>
       <c r="J191" s="2"/>
       <c r="K191" s="2"/>
     </row>
-    <row r="192" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -56337,14 +56470,14 @@
       </c>
       <c r="G192" s="2"/>
       <c r="H192" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (191,24047,'KENAN',Fischer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (191,'01.11.1965','KENAN',Fischer',3,1,);</v>
       </c>
       <c r="I192" s="2"/>
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
     </row>
-    <row r="193" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -56365,14 +56498,14 @@
       </c>
       <c r="G193" s="2"/>
       <c r="H193" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (192,24077,'KEVIN',Fuchs',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (192,'01.12.1965','KEVIN',Fuchs',3,1,);</v>
       </c>
       <c r="I193" s="2"/>
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
     </row>
-    <row r="194" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -56393,14 +56526,14 @@
       </c>
       <c r="G194" s="2"/>
       <c r="H194" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (193,24108,'Kilian',Gruber',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (193,'01.01.1966','Kilian',Gruber',3,1,);</v>
       </c>
       <c r="I194" s="2"/>
       <c r="J194" s="2"/>
       <c r="K194" s="2"/>
     </row>
-    <row r="195" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -56421,14 +56554,14 @@
       </c>
       <c r="G195" s="2"/>
       <c r="H195" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (194,24139,'Klara',Haas',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (194,'01.02.1966','Klara',Haas',3,1,);</v>
       </c>
       <c r="I195" s="2"/>
       <c r="J195" s="2"/>
       <c r="K195" s="2"/>
     </row>
-    <row r="196" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -56449,14 +56582,14 @@
       </c>
       <c r="G196" s="2"/>
       <c r="H196" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (195,24167,'Konstantin',Haider',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (195,'01.03.1966','Konstantin',Haider',3,1,);</v>
       </c>
       <c r="I196" s="2"/>
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
     </row>
-    <row r="197" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -56477,14 +56610,14 @@
       </c>
       <c r="G197" s="2"/>
       <c r="H197" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (196,24198,'LANA',Hofer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (196,'01.04.1966','LANA',Hofer',3,1,);</v>
       </c>
       <c r="I197" s="2"/>
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
     </row>
-    <row r="198" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -56505,14 +56638,14 @@
       </c>
       <c r="G198" s="2"/>
       <c r="H198" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (197,24228,'Lara',Holzer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (197,'01.05.1966','Lara',Holzer',3,1,);</v>
       </c>
       <c r="I198" s="2"/>
       <c r="J198" s="2"/>
       <c r="K198" s="2"/>
     </row>
-    <row r="199" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -56533,14 +56666,14 @@
       </c>
       <c r="G199" s="2"/>
       <c r="H199" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (198,24259,'Larissa',Huber',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (198,'01.06.1966','Larissa',Huber',3,1,);</v>
       </c>
       <c r="I199" s="2"/>
       <c r="J199" s="2"/>
       <c r="K199" s="2"/>
     </row>
-    <row r="200" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -56561,14 +56694,14 @@
       </c>
       <c r="G200" s="2"/>
       <c r="H200" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (199,24289,'Laura',Koller',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (199,'01.07.1966','Laura',Koller',3,1,);</v>
       </c>
       <c r="I200" s="2"/>
       <c r="J200" s="2"/>
       <c r="K200" s="2"/>
     </row>
-    <row r="201" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -56589,14 +56722,14 @@
       </c>
       <c r="G201" s="2"/>
       <c r="H201" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (200,24320,'LAURENZ',Lang',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (200,'01.08.1966','LAURENZ',Lang',3,1,);</v>
       </c>
       <c r="I201" s="2"/>
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
     </row>
-    <row r="202" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -56617,14 +56750,14 @@
       </c>
       <c r="G202" s="2"/>
       <c r="H202" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (201,24351,'Laurin',Lechner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (201,'01.09.1966','Laurin',Lechner',3,1,);</v>
       </c>
       <c r="I202" s="2"/>
       <c r="J202" s="2"/>
       <c r="K202" s="2"/>
     </row>
-    <row r="203" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -56645,14 +56778,14 @@
       </c>
       <c r="G203" s="2"/>
       <c r="H203" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (202,24381,'Lea',Lehner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (202,'01.10.1966','Lea',Lehner',3,1,);</v>
       </c>
       <c r="I203" s="2"/>
       <c r="J203" s="2"/>
       <c r="K203" s="2"/>
     </row>
-    <row r="204" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -56673,14 +56806,14 @@
       </c>
       <c r="G204" s="2"/>
       <c r="H204" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (203,24412,'Lena',Leitner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (203,'01.11.1966','Lena',Leitner',3,1,);</v>
       </c>
       <c r="I204" s="2"/>
       <c r="J204" s="2"/>
       <c r="K204" s="2"/>
     </row>
-    <row r="205" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -56701,14 +56834,14 @@
       </c>
       <c r="G205" s="2"/>
       <c r="H205" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (204,24442,'Leni',Maier',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (204,'01.12.1966','Leni',Maier',3,1,);</v>
       </c>
       <c r="I205" s="2"/>
       <c r="J205" s="2"/>
       <c r="K205" s="2"/>
     </row>
-    <row r="206" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -56729,14 +56862,14 @@
       </c>
       <c r="G206" s="2"/>
       <c r="H206" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (205,24473,'Lenny',Mair',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (205,'01.01.1967','Lenny',Mair',3,1,);</v>
       </c>
       <c r="I206" s="2"/>
       <c r="J206" s="2"/>
       <c r="K206" s="2"/>
     </row>
-    <row r="207" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -56757,14 +56890,14 @@
       </c>
       <c r="G207" s="2"/>
       <c r="H207" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (206,24504,'Leo',Maurer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (206,'01.02.1967','Leo',Maurer',3,1,);</v>
       </c>
       <c r="I207" s="2"/>
       <c r="J207" s="2"/>
       <c r="K207" s="2"/>
     </row>
-    <row r="208" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -56785,14 +56918,14 @@
       </c>
       <c r="G208" s="2"/>
       <c r="H208" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (207,24532,'Leon',Mayer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (207,'01.03.1967','Leon',Mayer',3,1,);</v>
       </c>
       <c r="I208" s="2"/>
       <c r="J208" s="2"/>
       <c r="K208" s="2"/>
     </row>
-    <row r="209" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -56813,14 +56946,14 @@
       </c>
       <c r="G209" s="2"/>
       <c r="H209" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (208,24563,'LEONARDO',Mayr',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (208,'01.04.1967','LEONARDO',Mayr',3,1,);</v>
       </c>
       <c r="I209" s="2"/>
       <c r="J209" s="2"/>
       <c r="K209" s="2"/>
     </row>
-    <row r="210" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -56841,14 +56974,14 @@
       </c>
       <c r="G210" s="2"/>
       <c r="H210" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (209,24593,'Leonhard',Moser',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (209,'01.05.1967','Leonhard',Moser',3,1,);</v>
       </c>
       <c r="I210" s="2"/>
       <c r="J210" s="2"/>
       <c r="K210" s="2"/>
     </row>
-    <row r="211" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -56869,14 +57002,14 @@
       </c>
       <c r="G211" s="2"/>
       <c r="H211" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (210,24624,'Leonie',Müller',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (210,'01.06.1967','Leonie',Müller',3,1,);</v>
       </c>
       <c r="I211" s="2"/>
       <c r="J211" s="2"/>
       <c r="K211" s="2"/>
     </row>
-    <row r="212" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -56897,14 +57030,14 @@
       </c>
       <c r="G212" s="2"/>
       <c r="H212" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (211,24654,'Leopold',Pichler',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (211,'01.07.1967','Leopold',Pichler',3,1,);</v>
       </c>
       <c r="I212" s="2"/>
       <c r="J212" s="2"/>
       <c r="K212" s="2"/>
     </row>
-    <row r="213" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -56925,14 +57058,14 @@
       </c>
       <c r="G213" s="2"/>
       <c r="H213" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (212,24685,'Levi',Reiter',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (212,'01.08.1967','Levi',Reiter',3,1,);</v>
       </c>
       <c r="I213" s="2"/>
       <c r="J213" s="2"/>
       <c r="K213" s="2"/>
     </row>
-    <row r="214" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -56953,14 +57086,14 @@
       </c>
       <c r="G214" s="2"/>
       <c r="H214" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (213,24716,'LEVIN',Riegler',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (213,'01.09.1967','LEVIN',Riegler',3,1,);</v>
       </c>
       <c r="I214" s="2"/>
       <c r="J214" s="2"/>
       <c r="K214" s="2"/>
     </row>
-    <row r="215" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -56981,14 +57114,14 @@
       </c>
       <c r="G215" s="2"/>
       <c r="H215" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (214,24746,'Lia',Schmid',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (214,'01.10.1967','Lia',Schmid',3,1,);</v>
       </c>
       <c r="I215" s="2"/>
       <c r="J215" s="2"/>
       <c r="K215" s="2"/>
     </row>
-    <row r="216" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -57009,14 +57142,14 @@
       </c>
       <c r="G216" s="2"/>
       <c r="H216" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (215,24777,'Liah',Schmidt',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (215,'01.11.1967','Liah',Schmidt',3,1,);</v>
       </c>
       <c r="I216" s="2"/>
       <c r="J216" s="2"/>
       <c r="K216" s="2"/>
     </row>
-    <row r="217" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -57037,14 +57170,14 @@
       </c>
       <c r="G217" s="2"/>
       <c r="H217" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (216,24807,'Liam',Schneider',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (216,'01.12.1967','Liam',Schneider',3,1,);</v>
       </c>
       <c r="I217" s="2"/>
       <c r="J217" s="2"/>
       <c r="K217" s="2"/>
     </row>
-    <row r="218" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -57065,14 +57198,14 @@
       </c>
       <c r="G218" s="2"/>
       <c r="H218" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (217,24838,'Lilly',Schuster',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (217,'01.01.1968','Lilly',Schuster',3,1,);</v>
       </c>
       <c r="I218" s="2"/>
       <c r="J218" s="2"/>
       <c r="K218" s="2"/>
     </row>
-    <row r="219" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -57093,14 +57226,14 @@
       </c>
       <c r="G219" s="2"/>
       <c r="H219" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (218,24869,'Lina',Schwarz',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (218,'01.02.1968','Lina',Schwarz',3,1,);</v>
       </c>
       <c r="I219" s="2"/>
       <c r="J219" s="2"/>
       <c r="K219" s="2"/>
     </row>
-    <row r="220" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -57121,14 +57254,14 @@
       </c>
       <c r="G220" s="2"/>
       <c r="H220" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (219,24898,'Linda',Stadler',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (219,'01.03.1968','Linda',Stadler',3,1,);</v>
       </c>
       <c r="I220" s="2"/>
       <c r="J220" s="2"/>
       <c r="K220" s="2"/>
     </row>
-    <row r="221" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -57149,14 +57282,14 @@
       </c>
       <c r="G221" s="2"/>
       <c r="H221" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (220,24929,'Linus',Steiner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (220,'01.04.1968','Linus',Steiner',3,1,);</v>
       </c>
       <c r="I221" s="2"/>
       <c r="J221" s="2"/>
       <c r="K221" s="2"/>
     </row>
-    <row r="222" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -57177,14 +57310,14 @@
       </c>
       <c r="G222" s="2"/>
       <c r="H222" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (221,24959,'LION',Strasser',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (221,'01.05.1968','LION',Strasser',3,1,);</v>
       </c>
       <c r="I222" s="2"/>
       <c r="J222" s="2"/>
       <c r="K222" s="2"/>
     </row>
-    <row r="223" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -57205,14 +57338,14 @@
       </c>
       <c r="G223" s="2"/>
       <c r="H223" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (222,24990,'LIONEL',Wagner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (222,'01.06.1968','LIONEL',Wagner',3,1,);</v>
       </c>
       <c r="I223" s="2"/>
       <c r="J223" s="2"/>
       <c r="K223" s="2"/>
     </row>
-    <row r="224" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -57233,14 +57366,14 @@
       </c>
       <c r="G224" s="2"/>
       <c r="H224" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (223,25020,'Lisa',Wallner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (223,'01.07.1968','Lisa',Wallner',3,1,);</v>
       </c>
       <c r="I224" s="2"/>
       <c r="J224" s="2"/>
       <c r="K224" s="2"/>
     </row>
-    <row r="225" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -57261,14 +57394,14 @@
       </c>
       <c r="G225" s="2"/>
       <c r="H225" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (224,25051,'Livia',Weber',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (224,'01.08.1968','Livia',Weber',3,1,);</v>
       </c>
       <c r="I225" s="2"/>
       <c r="J225" s="2"/>
       <c r="K225" s="2"/>
     </row>
-    <row r="226" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -57289,14 +57422,14 @@
       </c>
       <c r="G226" s="2"/>
       <c r="H226" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (225,25082,'Liya',Weiss',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (225,'01.09.1968','Liya',Weiss',3,1,);</v>
       </c>
       <c r="I226" s="2"/>
       <c r="J226" s="2"/>
       <c r="K226" s="2"/>
     </row>
-    <row r="227" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -57317,14 +57450,14 @@
       </c>
       <c r="G227" s="2"/>
       <c r="H227" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (226,25112,'Lorena',Wieser',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (226,'01.10.1968','Lorena',Wieser',3,1,);</v>
       </c>
       <c r="I227" s="2"/>
       <c r="J227" s="2"/>
       <c r="K227" s="2"/>
     </row>
-    <row r="228" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -57345,14 +57478,14 @@
       </c>
       <c r="G228" s="2"/>
       <c r="H228" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (227,25143,'Lorenz',Wimmer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (227,'01.11.1968','Lorenz',Wimmer',3,1,);</v>
       </c>
       <c r="I228" s="2"/>
       <c r="J228" s="2"/>
       <c r="K228" s="2"/>
     </row>
-    <row r="229" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -57373,14 +57506,14 @@
       </c>
       <c r="G229" s="2"/>
       <c r="H229" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (228,25173,'Louis',Winkler',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (228,'01.12.1968','Louis',Winkler',3,1,);</v>
       </c>
       <c r="I229" s="2"/>
       <c r="J229" s="2"/>
       <c r="K229" s="2"/>
     </row>
-    <row r="230" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -57401,14 +57534,14 @@
       </c>
       <c r="G230" s="2"/>
       <c r="H230" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (229,25204,'LOUISA',Winter',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (229,'01.01.1969','LOUISA',Winter',3,1,);</v>
       </c>
       <c r="I230" s="2"/>
       <c r="J230" s="2"/>
       <c r="K230" s="2"/>
     </row>
-    <row r="231" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -57429,14 +57562,14 @@
       </c>
       <c r="G231" s="2"/>
       <c r="H231" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (230,25235,'Luca',Wolf',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (230,'01.02.1969','Luca',Wolf',3,1,);</v>
       </c>
       <c r="I231" s="2"/>
       <c r="J231" s="2"/>
       <c r="K231" s="2"/>
     </row>
-    <row r="232" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -57457,14 +57590,14 @@
       </c>
       <c r="G232" s="2"/>
       <c r="H232" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (231,25263,'Luis',Aigner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (231,'01.03.1969','Luis',Aigner',3,1,);</v>
       </c>
       <c r="I232" s="2"/>
       <c r="J232" s="2"/>
       <c r="K232" s="2"/>
     </row>
-    <row r="233" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -57485,14 +57618,14 @@
       </c>
       <c r="G233" s="2"/>
       <c r="H233" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (232,25294,'Luisa',Auer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (232,'01.04.1969','Luisa',Auer',3,1,);</v>
       </c>
       <c r="I233" s="2"/>
       <c r="J233" s="2"/>
       <c r="K233" s="2"/>
     </row>
-    <row r="234" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -57513,14 +57646,14 @@
       </c>
       <c r="G234" s="2"/>
       <c r="H234" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (233,25324,'Lukas',Bauer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (233,'01.05.1969','Lukas',Bauer',3,1,);</v>
       </c>
       <c r="I234" s="2"/>
       <c r="J234" s="2"/>
       <c r="K234" s="2"/>
     </row>
-    <row r="235" spans="1:11" ht="24.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -57541,14 +57674,14 @@
       </c>
       <c r="G235" s="2"/>
       <c r="H235" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (234,25355,'MADELEINE',Baumgartner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (234,'01.06.1969','MADELEINE',Baumgartner',3,1,);</v>
       </c>
       <c r="I235" s="2"/>
       <c r="J235" s="2"/>
       <c r="K235" s="2"/>
     </row>
-    <row r="236" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -57569,14 +57702,14 @@
       </c>
       <c r="G236" s="2"/>
       <c r="H236" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (235,25385,'MADLEN',Berger',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (235,'01.07.1969','MADLEN',Berger',3,1,);</v>
       </c>
       <c r="I236" s="2"/>
       <c r="J236" s="2"/>
       <c r="K236" s="2"/>
     </row>
-    <row r="237" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -57597,14 +57730,14 @@
       </c>
       <c r="G237" s="2"/>
       <c r="H237" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (236,25416,'Magdalena',Binder',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (236,'01.08.1969','Magdalena',Binder',3,1,);</v>
       </c>
       <c r="I237" s="2"/>
       <c r="J237" s="2"/>
       <c r="K237" s="2"/>
     </row>
-    <row r="238" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -57625,14 +57758,14 @@
       </c>
       <c r="G238" s="2"/>
       <c r="H238" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (237,25447,'Maja',Brunner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (237,'01.09.1969','Maja',Brunner',3,1,);</v>
       </c>
       <c r="I238" s="2"/>
       <c r="J238" s="2"/>
       <c r="K238" s="2"/>
     </row>
-    <row r="239" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -57653,14 +57786,14 @@
       </c>
       <c r="G239" s="2"/>
       <c r="H239" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (238,25477,'Manuel',Ebner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (238,'01.10.1969','Manuel',Ebner',3,1,);</v>
       </c>
       <c r="I239" s="2"/>
       <c r="J239" s="2"/>
       <c r="K239" s="2"/>
     </row>
-    <row r="240" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -57681,14 +57814,14 @@
       </c>
       <c r="G240" s="2"/>
       <c r="H240" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (239,25508,'Mara',Eder',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (239,'01.11.1969','Mara',Eder',3,1,);</v>
       </c>
       <c r="I240" s="2"/>
       <c r="J240" s="2"/>
       <c r="K240" s="2"/>
     </row>
-    <row r="241" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -57709,14 +57842,14 @@
       </c>
       <c r="G241" s="2"/>
       <c r="H241" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (240,25538,'Marcel',Egger',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (240,'01.12.1969','Marcel',Egger',3,1,);</v>
       </c>
       <c r="I241" s="2"/>
       <c r="J241" s="2"/>
       <c r="K241" s="2"/>
     </row>
-    <row r="242" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -57737,14 +57870,14 @@
       </c>
       <c r="G242" s="2"/>
       <c r="H242" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (241,25569,'Marco',Fischer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (241,'01.01.1970','Marco',Fischer',3,1,);</v>
       </c>
       <c r="I242" s="2"/>
       <c r="J242" s="2"/>
       <c r="K242" s="2"/>
     </row>
-    <row r="243" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>242</v>
       </c>
@@ -57765,14 +57898,14 @@
       </c>
       <c r="G243" s="2"/>
       <c r="H243" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (242,25600,'Maria',Fuchs',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (242,'01.02.1970','Maria',Fuchs',3,1,);</v>
       </c>
       <c r="I243" s="2"/>
       <c r="J243" s="2"/>
       <c r="K243" s="2"/>
     </row>
-    <row r="244" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>243</v>
       </c>
@@ -57793,14 +57926,14 @@
       </c>
       <c r="G244" s="2"/>
       <c r="H244" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (243,25628,'MARIAN',Gruber',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (243,'01.03.1970','MARIAN',Gruber',3,1,);</v>
       </c>
       <c r="I244" s="2"/>
       <c r="J244" s="2"/>
       <c r="K244" s="2"/>
     </row>
-    <row r="245" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>244</v>
       </c>
@@ -57821,14 +57954,14 @@
       </c>
       <c r="G245" s="2"/>
       <c r="H245" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (244,25659,'Marie',Haas',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (244,'01.04.1970','Marie',Haas',3,1,);</v>
       </c>
       <c r="I245" s="2"/>
       <c r="J245" s="2"/>
       <c r="K245" s="2"/>
     </row>
-    <row r="246" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -57849,14 +57982,14 @@
       </c>
       <c r="G246" s="2"/>
       <c r="H246" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (245,25689,'MARIELLA',Haider',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (245,'01.05.1970','MARIELLA',Haider',3,1,);</v>
       </c>
       <c r="I246" s="2"/>
       <c r="J246" s="2"/>
       <c r="K246" s="2"/>
     </row>
-    <row r="247" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>246</v>
       </c>
@@ -57877,14 +58010,14 @@
       </c>
       <c r="G247" s="2"/>
       <c r="H247" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (246,25720,'Marina',Hofer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (246,'01.06.1970','Marina',Hofer',3,1,);</v>
       </c>
       <c r="I247" s="2"/>
       <c r="J247" s="2"/>
       <c r="K247" s="2"/>
     </row>
-    <row r="248" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>247</v>
       </c>
@@ -57905,14 +58038,14 @@
       </c>
       <c r="G248" s="2"/>
       <c r="H248" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (247,25750,'Mario',Holzer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (247,'01.07.1970','Mario',Holzer',3,1,);</v>
       </c>
       <c r="I248" s="2"/>
       <c r="J248" s="2"/>
       <c r="K248" s="2"/>
     </row>
-    <row r="249" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>248</v>
       </c>
@@ -57933,14 +58066,14 @@
       </c>
       <c r="G249" s="2"/>
       <c r="H249" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (248,25781,'MARIUS',Huber',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (248,'01.08.1970','MARIUS',Huber',3,1,);</v>
       </c>
       <c r="I249" s="2"/>
       <c r="J249" s="2"/>
       <c r="K249" s="2"/>
     </row>
-    <row r="250" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -57961,14 +58094,14 @@
       </c>
       <c r="G250" s="2"/>
       <c r="H250" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (249,25812,'MARKO',Koller',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (249,'01.09.1970','MARKO',Koller',3,1,);</v>
       </c>
       <c r="I250" s="2"/>
       <c r="J250" s="2"/>
       <c r="K250" s="2"/>
     </row>
-    <row r="251" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -57989,14 +58122,14 @@
       </c>
       <c r="G251" s="2"/>
       <c r="H251" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (250,25842,'Markus',Lang',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (250,'01.10.1970','Markus',Lang',3,1,);</v>
       </c>
       <c r="I251" s="2"/>
       <c r="J251" s="2"/>
       <c r="K251" s="2"/>
     </row>
-    <row r="252" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -58017,14 +58150,14 @@
       </c>
       <c r="G252" s="2"/>
       <c r="H252" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (251,25873,'Marlena',Lechner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (251,'01.11.1970','Marlena',Lechner',3,1,);</v>
       </c>
       <c r="I252" s="2"/>
       <c r="J252" s="2"/>
       <c r="K252" s="2"/>
     </row>
-    <row r="253" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>252</v>
       </c>
@@ -58045,14 +58178,14 @@
       </c>
       <c r="G253" s="2"/>
       <c r="H253" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (252,25903,'Marlene',Lehner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (252,'01.12.1970','Marlene',Lehner',3,1,);</v>
       </c>
       <c r="I253" s="2"/>
       <c r="J253" s="2"/>
       <c r="K253" s="2"/>
     </row>
-    <row r="254" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -58073,14 +58206,14 @@
       </c>
       <c r="G254" s="2"/>
       <c r="H254" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (253,25934,'Martha',Leitner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (253,'01.01.1971','Martha',Leitner',3,1,);</v>
       </c>
       <c r="I254" s="2"/>
       <c r="J254" s="2"/>
       <c r="K254" s="2"/>
     </row>
-    <row r="255" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -58101,14 +58234,14 @@
       </c>
       <c r="G255" s="2"/>
       <c r="H255" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (254,25965,'Martin',Maier',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (254,'01.02.1971','Martin',Maier',3,1,);</v>
       </c>
       <c r="I255" s="2"/>
       <c r="J255" s="2"/>
       <c r="K255" s="2"/>
     </row>
-    <row r="256" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -58129,14 +58262,14 @@
       </c>
       <c r="G256" s="2"/>
       <c r="H256" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (255,25993,'Mathilda',Mair',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (255,'01.03.1971','Mathilda',Mair',3,1,);</v>
       </c>
       <c r="I256" s="2"/>
       <c r="J256" s="2"/>
       <c r="K256" s="2"/>
     </row>
-    <row r="257" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -58157,14 +58290,14 @@
       </c>
       <c r="G257" s="2"/>
       <c r="H257" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (256,26024,'Matilda',Maurer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (256,'01.04.1971','Matilda',Maurer',3,1,);</v>
       </c>
       <c r="I257" s="2"/>
       <c r="J257" s="2"/>
       <c r="K257" s="2"/>
     </row>
-    <row r="258" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -58185,14 +58318,14 @@
       </c>
       <c r="G258" s="2"/>
       <c r="H258" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (257,26054,'Matteo',Mayer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (257,'01.05.1971','Matteo',Mayer',3,1,);</v>
       </c>
       <c r="I258" s="2"/>
       <c r="J258" s="2"/>
       <c r="K258" s="2"/>
     </row>
-    <row r="259" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -58213,14 +58346,14 @@
       </c>
       <c r="G259" s="2"/>
       <c r="H259" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (258,26085,'Matthias',Mayr',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (258,'01.06.1971','Matthias',Mayr',3,1,);</v>
       </c>
       <c r="I259" s="2"/>
       <c r="J259" s="2"/>
       <c r="K259" s="2"/>
     </row>
-    <row r="260" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -58241,14 +58374,14 @@
       </c>
       <c r="G260" s="2"/>
       <c r="H260" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (259,26115,'Max',Moser',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (259,'01.07.1971','Max',Moser',3,1,);</v>
       </c>
       <c r="I260" s="2"/>
       <c r="J260" s="2"/>
       <c r="K260" s="2"/>
     </row>
-    <row r="261" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -58269,14 +58402,14 @@
       </c>
       <c r="G261" s="2"/>
       <c r="H261" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (260,26146,'Maximilian',Müller',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (260,'01.08.1971','Maximilian',Müller',3,1,);</v>
       </c>
       <c r="I261" s="2"/>
       <c r="J261" s="2"/>
       <c r="K261" s="2"/>
     </row>
-    <row r="262" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -58297,14 +58430,14 @@
       </c>
       <c r="G262" s="2"/>
       <c r="H262" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (261,26177,'Maya',Pichler',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (261,'01.09.1971','Maya',Pichler',3,1,);</v>
       </c>
       <c r="I262" s="2"/>
       <c r="J262" s="2"/>
       <c r="K262" s="2"/>
     </row>
-    <row r="263" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -58325,14 +58458,14 @@
       </c>
       <c r="G263" s="2"/>
       <c r="H263" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (262,26207,'MEHMET',Reiter',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (262,'01.10.1971','MEHMET',Reiter',3,1,);</v>
       </c>
       <c r="I263" s="2"/>
       <c r="J263" s="2"/>
       <c r="K263" s="2"/>
     </row>
-    <row r="264" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -58353,14 +58486,14 @@
       </c>
       <c r="G264" s="2"/>
       <c r="H264" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (263,26238,'Melanie',Riegler',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (263,'01.11.1971','Melanie',Riegler',3,1,);</v>
       </c>
       <c r="I264" s="2"/>
       <c r="J264" s="2"/>
       <c r="K264" s="2"/>
     </row>
-    <row r="265" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -58381,14 +58514,14 @@
       </c>
       <c r="G265" s="2"/>
       <c r="H265" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (264,26268,'Melina',Schmid',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (264,'01.12.1971','Melina',Schmid',3,1,);</v>
       </c>
       <c r="I265" s="2"/>
       <c r="J265" s="2"/>
       <c r="K265" s="2"/>
     </row>
-    <row r="266" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -58409,14 +58542,14 @@
       </c>
       <c r="G266" s="2"/>
       <c r="H266" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (265,26299,'Melissa',Schmidt',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (265,'01.01.1972','Melissa',Schmidt',3,1,);</v>
       </c>
       <c r="I266" s="2"/>
       <c r="J266" s="2"/>
       <c r="K266" s="2"/>
     </row>
-    <row r="267" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -58437,14 +58570,14 @@
       </c>
       <c r="G267" s="2"/>
       <c r="H267" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (266,26330,'Mert',Schneider',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (266,'01.02.1972','Mert',Schneider',3,1,);</v>
       </c>
       <c r="I267" s="2"/>
       <c r="J267" s="2"/>
       <c r="K267" s="2"/>
     </row>
-    <row r="268" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -58465,14 +58598,14 @@
       </c>
       <c r="G268" s="2"/>
       <c r="H268" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (267,26359,'Meryem',Schuster',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (267,'01.03.1972','Meryem',Schuster',3,1,);</v>
       </c>
       <c r="I268" s="2"/>
       <c r="J268" s="2"/>
       <c r="K268" s="2"/>
     </row>
-    <row r="269" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -58493,14 +58626,14 @@
       </c>
       <c r="G269" s="2"/>
       <c r="H269" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (268,26390,'Mia',Schwarz',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (268,'01.04.1972','Mia',Schwarz',3,1,);</v>
       </c>
       <c r="I269" s="2"/>
       <c r="J269" s="2"/>
       <c r="K269" s="2"/>
     </row>
-    <row r="270" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -58521,14 +58654,14 @@
       </c>
       <c r="G270" s="2"/>
       <c r="H270" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (269,26420,'Michael',Stadler',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (269,'01.05.1972','Michael',Stadler',3,1,);</v>
       </c>
       <c r="I270" s="2"/>
       <c r="J270" s="2"/>
       <c r="K270" s="2"/>
     </row>
-    <row r="271" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -58549,14 +58682,14 @@
       </c>
       <c r="G271" s="2"/>
       <c r="H271" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (270,26451,'MICHELLE',Steiner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (270,'01.06.1972','MICHELLE',Steiner',3,1,);</v>
       </c>
       <c r="I271" s="2"/>
       <c r="J271" s="2"/>
       <c r="K271" s="2"/>
     </row>
-    <row r="272" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -58577,14 +58710,14 @@
       </c>
       <c r="G272" s="2"/>
       <c r="H272" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (271,26481,'Mikail',Strasser',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (271,'01.07.1972','Mikail',Strasser',3,1,);</v>
       </c>
       <c r="I272" s="2"/>
       <c r="J272" s="2"/>
       <c r="K272" s="2"/>
     </row>
-    <row r="273" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>272</v>
       </c>
@@ -58605,14 +58738,14 @@
       </c>
       <c r="G273" s="2"/>
       <c r="H273" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (272,26512,'Mila',Wagner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (272,'01.08.1972','Mila',Wagner',3,1,);</v>
       </c>
       <c r="I273" s="2"/>
       <c r="J273" s="2"/>
       <c r="K273" s="2"/>
     </row>
-    <row r="274" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>273</v>
       </c>
@@ -58633,14 +58766,14 @@
       </c>
       <c r="G274" s="2"/>
       <c r="H274" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (273,26543,'MILAN',Wallner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (273,'01.09.1972','MILAN',Wallner',3,1,);</v>
       </c>
       <c r="I274" s="2"/>
       <c r="J274" s="2"/>
       <c r="K274" s="2"/>
     </row>
-    <row r="275" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>274</v>
       </c>
@@ -58661,14 +58794,14 @@
       </c>
       <c r="G275" s="2"/>
       <c r="H275" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (274,26573,'MILENA',Weber',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (274,'01.10.1972','MILENA',Weber',3,1,);</v>
       </c>
       <c r="I275" s="2"/>
       <c r="J275" s="2"/>
       <c r="K275" s="2"/>
     </row>
-    <row r="276" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>275</v>
       </c>
@@ -58689,14 +58822,14 @@
       </c>
       <c r="G276" s="2"/>
       <c r="H276" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (275,26604,'MINA',Weiss',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (275,'01.11.1972','MINA',Weiss',3,1,);</v>
       </c>
       <c r="I276" s="2"/>
       <c r="J276" s="2"/>
       <c r="K276" s="2"/>
     </row>
-    <row r="277" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>276</v>
       </c>
@@ -58717,14 +58850,14 @@
       </c>
       <c r="G277" s="2"/>
       <c r="H277" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (276,26634,'Mira',Wieser',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (276,'01.12.1972','Mira',Wieser',3,1,);</v>
       </c>
       <c r="I277" s="2"/>
       <c r="J277" s="2"/>
       <c r="K277" s="2"/>
     </row>
-    <row r="278" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>277</v>
       </c>
@@ -58745,14 +58878,14 @@
       </c>
       <c r="G278" s="2"/>
       <c r="H278" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (277,26665,'Miraç',Wimmer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (277,'01.01.1973','Miraç',Wimmer',3,1,);</v>
       </c>
       <c r="I278" s="2"/>
       <c r="J278" s="2"/>
       <c r="K278" s="2"/>
     </row>
-    <row r="279" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>278</v>
       </c>
@@ -58773,14 +58906,14 @@
       </c>
       <c r="G279" s="2"/>
       <c r="H279" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (278,26696,'Miray',Winkler',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (278,'01.02.1973','Miray',Winkler',3,1,);</v>
       </c>
       <c r="I279" s="2"/>
       <c r="J279" s="2"/>
       <c r="K279" s="2"/>
     </row>
-    <row r="280" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>279</v>
       </c>
@@ -58801,14 +58934,14 @@
       </c>
       <c r="G280" s="2"/>
       <c r="H280" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (279,26724,'Miriam',Winter',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (279,'01.03.1973','Miriam',Winter',3,1,);</v>
       </c>
       <c r="I280" s="2"/>
       <c r="J280" s="2"/>
       <c r="K280" s="2"/>
     </row>
-    <row r="281" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>280</v>
       </c>
@@ -58829,14 +58962,14 @@
       </c>
       <c r="G281" s="2"/>
       <c r="H281" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (280,26755,'Mona',Wolf',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (280,'01.04.1973','Mona',Wolf',3,1,);</v>
       </c>
       <c r="I281" s="2"/>
       <c r="J281" s="2"/>
       <c r="K281" s="2"/>
     </row>
-    <row r="282" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>281</v>
       </c>
@@ -58857,14 +58990,14 @@
       </c>
       <c r="G282" s="2"/>
       <c r="H282" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (281,26785,'Moritz',Aigner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (281,'01.05.1973','Moritz',Aigner',3,1,);</v>
       </c>
       <c r="I282" s="2"/>
       <c r="J282" s="2"/>
       <c r="K282" s="2"/>
     </row>
-    <row r="283" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>282</v>
       </c>
@@ -58885,14 +59018,14 @@
       </c>
       <c r="G283" s="2"/>
       <c r="H283" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (282,26816,'Muhammed',Auer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (282,'01.06.1973','Muhammed',Auer',3,1,);</v>
       </c>
       <c r="I283" s="2"/>
       <c r="J283" s="2"/>
       <c r="K283" s="2"/>
     </row>
-    <row r="284" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>283</v>
       </c>
@@ -58913,14 +59046,14 @@
       </c>
       <c r="G284" s="2"/>
       <c r="H284" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (283,26846,'MUSTAFA',Bauer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (283,'01.07.1973','MUSTAFA',Bauer',3,1,);</v>
       </c>
       <c r="I284" s="2"/>
       <c r="J284" s="2"/>
       <c r="K284" s="2"/>
     </row>
-    <row r="285" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>284</v>
       </c>
@@ -58941,14 +59074,14 @@
       </c>
       <c r="G285" s="2"/>
       <c r="H285" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (284,26877,'NADINE',Baumgartner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (284,'01.08.1973','NADINE',Baumgartner',3,1,);</v>
       </c>
       <c r="I285" s="2"/>
       <c r="J285" s="2"/>
       <c r="K285" s="2"/>
     </row>
-    <row r="286" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>285</v>
       </c>
@@ -58969,14 +59102,14 @@
       </c>
       <c r="G286" s="2"/>
       <c r="H286" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (285,26908,'NADJA',Berger',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (285,'01.09.1973','NADJA',Berger',3,1,);</v>
       </c>
       <c r="I286" s="2"/>
       <c r="J286" s="2"/>
       <c r="K286" s="2"/>
     </row>
-    <row r="287" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>286</v>
       </c>
@@ -58997,14 +59130,14 @@
       </c>
       <c r="G287" s="2"/>
       <c r="H287" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (286,26938,'Natalie',Binder',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (286,'01.10.1973','Natalie',Binder',3,1,);</v>
       </c>
       <c r="I287" s="2"/>
       <c r="J287" s="2"/>
       <c r="K287" s="2"/>
     </row>
-    <row r="288" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>287</v>
       </c>
@@ -59025,14 +59158,14 @@
       </c>
       <c r="G288" s="2"/>
       <c r="H288" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (287,26969,'Nevio',Brunner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (287,'01.11.1973','Nevio',Brunner',3,1,);</v>
       </c>
       <c r="I288" s="2"/>
       <c r="J288" s="2"/>
       <c r="K288" s="2"/>
     </row>
-    <row r="289" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>288</v>
       </c>
@@ -59053,14 +59186,14 @@
       </c>
       <c r="G289" s="2"/>
       <c r="H289" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (288,26999,'NICLAS',Ebner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (288,'01.12.1973','NICLAS',Ebner',3,1,);</v>
       </c>
       <c r="I289" s="2"/>
       <c r="J289" s="2"/>
       <c r="K289" s="2"/>
     </row>
-    <row r="290" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>289</v>
       </c>
@@ -59081,14 +59214,14 @@
       </c>
       <c r="G290" s="2"/>
       <c r="H290" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (289,27030,'Nico',Eder',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (289,'01.01.1974','Nico',Eder',3,1,);</v>
       </c>
       <c r="I290" s="2"/>
       <c r="J290" s="2"/>
       <c r="K290" s="2"/>
     </row>
-    <row r="291" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>290</v>
       </c>
@@ -59109,14 +59242,14 @@
       </c>
       <c r="G291" s="2"/>
       <c r="H291" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (290,27061,'NICOLAS',Egger',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (290,'01.02.1974','NICOLAS',Egger',3,1,);</v>
       </c>
       <c r="I291" s="2"/>
       <c r="J291" s="2"/>
       <c r="K291" s="2"/>
     </row>
-    <row r="292" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>291</v>
       </c>
@@ -59137,14 +59270,14 @@
       </c>
       <c r="G292" s="2"/>
       <c r="H292" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (291,27089,'NICOLE',Fischer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (291,'01.03.1974','NICOLE',Fischer',3,1,);</v>
       </c>
       <c r="I292" s="2"/>
       <c r="J292" s="2"/>
       <c r="K292" s="2"/>
     </row>
-    <row r="293" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>292</v>
       </c>
@@ -59165,14 +59298,14 @@
       </c>
       <c r="G293" s="2"/>
       <c r="H293" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (292,27120,'Niklas',Fuchs',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (292,'01.04.1974','Niklas',Fuchs',3,1,);</v>
       </c>
       <c r="I293" s="2"/>
       <c r="J293" s="2"/>
       <c r="K293" s="2"/>
     </row>
-    <row r="294" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>293</v>
       </c>
@@ -59193,14 +59326,14 @@
       </c>
       <c r="G294" s="2"/>
       <c r="H294" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (293,27150,'Nina',Gruber',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (293,'01.05.1974','Nina',Gruber',3,1,);</v>
       </c>
       <c r="I294" s="2"/>
       <c r="J294" s="2"/>
       <c r="K294" s="2"/>
     </row>
-    <row r="295" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>294</v>
       </c>
@@ -59221,14 +59354,14 @@
       </c>
       <c r="G295" s="2"/>
       <c r="H295" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (294,27181,'Nisa',Haas',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (294,'01.06.1974','Nisa',Haas',3,1,);</v>
       </c>
       <c r="I295" s="2"/>
       <c r="J295" s="2"/>
       <c r="K295" s="2"/>
     </row>
-    <row r="296" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>295</v>
       </c>
@@ -59249,14 +59382,14 @@
       </c>
       <c r="G296" s="2"/>
       <c r="H296" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (295,27211,'Noah',Haider',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (295,'01.07.1974','Noah',Haider',3,1,);</v>
       </c>
       <c r="I296" s="2"/>
       <c r="J296" s="2"/>
       <c r="K296" s="2"/>
     </row>
-    <row r="297" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>296</v>
       </c>
@@ -59277,14 +59410,14 @@
       </c>
       <c r="G297" s="2"/>
       <c r="H297" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (296,27242,'Noel',Hofer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (296,'01.08.1974','Noel',Hofer',3,1,);</v>
       </c>
       <c r="I297" s="2"/>
       <c r="J297" s="2"/>
       <c r="K297" s="2"/>
     </row>
-    <row r="298" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>297</v>
       </c>
@@ -59305,14 +59438,14 @@
       </c>
       <c r="G298" s="2"/>
       <c r="H298" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (297,27273,'Noemi',Holzer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (297,'01.09.1974','Noemi',Holzer',3,1,);</v>
       </c>
       <c r="I298" s="2"/>
       <c r="J298" s="2"/>
       <c r="K298" s="2"/>
     </row>
-    <row r="299" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>298</v>
       </c>
@@ -59333,14 +59466,14 @@
       </c>
       <c r="G299" s="2"/>
       <c r="H299" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (298,27303,'Nora',Huber',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (298,'01.10.1974','Nora',Huber',3,1,);</v>
       </c>
       <c r="I299" s="2"/>
       <c r="J299" s="2"/>
       <c r="K299" s="2"/>
     </row>
-    <row r="300" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>299</v>
       </c>
@@ -59361,14 +59494,14 @@
       </c>
       <c r="G300" s="2"/>
       <c r="H300" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (299,27334,'Oliver',Koller',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (299,'01.11.1974','Oliver',Koller',3,1,);</v>
       </c>
       <c r="I300" s="2"/>
       <c r="J300" s="2"/>
       <c r="K300" s="2"/>
     </row>
-    <row r="301" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>300</v>
       </c>
@@ -59389,14 +59522,14 @@
       </c>
       <c r="G301" s="2"/>
       <c r="H301" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (300,27364,'Olivia',Lang',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (300,'01.12.1974','Olivia',Lang',3,1,);</v>
       </c>
       <c r="I301" s="2"/>
       <c r="J301" s="2"/>
       <c r="K301" s="2"/>
     </row>
-    <row r="302" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>301</v>
       </c>
@@ -59417,14 +59550,14 @@
       </c>
       <c r="G302" s="2"/>
       <c r="H302" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (301,27395,'ÖMER',Lechner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (301,'01.01.1975','ÖMER',Lechner',3,1,);</v>
       </c>
       <c r="I302" s="2"/>
       <c r="J302" s="2"/>
       <c r="K302" s="2"/>
     </row>
-    <row r="303" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>302</v>
       </c>
@@ -59445,14 +59578,14 @@
       </c>
       <c r="G303" s="2"/>
       <c r="H303" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (302,27426,'Oskar',Lehner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (302,'01.02.1975','Oskar',Lehner',3,1,);</v>
       </c>
       <c r="I303" s="2"/>
       <c r="J303" s="2"/>
       <c r="K303" s="2"/>
     </row>
-    <row r="304" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>303</v>
       </c>
@@ -59473,14 +59606,14 @@
       </c>
       <c r="G304" s="2"/>
       <c r="H304" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (303,27454,'PASCAL',Leitner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (303,'01.03.1975','PASCAL',Leitner',3,1,);</v>
       </c>
       <c r="I304" s="2"/>
       <c r="J304" s="2"/>
       <c r="K304" s="2"/>
     </row>
-    <row r="305" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>304</v>
       </c>
@@ -59501,14 +59634,14 @@
       </c>
       <c r="G305" s="2"/>
       <c r="H305" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (304,27485,'Patrick',Maier',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (304,'01.04.1975','Patrick',Maier',3,1,);</v>
       </c>
       <c r="I305" s="2"/>
       <c r="J305" s="2"/>
       <c r="K305" s="2"/>
     </row>
-    <row r="306" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>305</v>
       </c>
@@ -59529,14 +59662,14 @@
       </c>
       <c r="G306" s="2"/>
       <c r="H306" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (305,27515,'Paul',Mair',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (305,'01.05.1975','Paul',Mair',3,1,);</v>
       </c>
       <c r="I306" s="2"/>
       <c r="J306" s="2"/>
       <c r="K306" s="2"/>
     </row>
-    <row r="307" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>306</v>
       </c>
@@ -59557,14 +59690,14 @@
       </c>
       <c r="G307" s="2"/>
       <c r="H307" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (306,27546,'Paula',Maurer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (306,'01.06.1975','Paula',Maurer',3,1,);</v>
       </c>
       <c r="I307" s="2"/>
       <c r="J307" s="2"/>
       <c r="K307" s="2"/>
     </row>
-    <row r="308" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>307</v>
       </c>
@@ -59585,14 +59718,14 @@
       </c>
       <c r="G308" s="2"/>
       <c r="H308" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (307,27576,'Paulina',Mayer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (307,'01.07.1975','Paulina',Mayer',3,1,);</v>
       </c>
       <c r="I308" s="2"/>
       <c r="J308" s="2"/>
       <c r="K308" s="2"/>
     </row>
-    <row r="309" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>308</v>
       </c>
@@ -59613,14 +59746,14 @@
       </c>
       <c r="G309" s="2"/>
       <c r="H309" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (308,27607,'Peter',Mayr',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (308,'01.08.1975','Peter',Mayr',3,1,);</v>
       </c>
       <c r="I309" s="2"/>
       <c r="J309" s="2"/>
       <c r="K309" s="2"/>
     </row>
-    <row r="310" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>309</v>
       </c>
@@ -59641,14 +59774,14 @@
       </c>
       <c r="G310" s="2"/>
       <c r="H310" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (309,27638,'Philipp',Moser',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (309,'01.09.1975','Philipp',Moser',3,1,);</v>
       </c>
       <c r="I310" s="2"/>
       <c r="J310" s="2"/>
       <c r="K310" s="2"/>
     </row>
-    <row r="311" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>310</v>
       </c>
@@ -59669,14 +59802,14 @@
       </c>
       <c r="G311" s="2"/>
       <c r="H311" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (310,27668,'Pia',Müller',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (310,'01.10.1975','Pia',Müller',3,1,);</v>
       </c>
       <c r="I311" s="2"/>
       <c r="J311" s="2"/>
       <c r="K311" s="2"/>
     </row>
-    <row r="312" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>311</v>
       </c>
@@ -59697,14 +59830,14 @@
       </c>
       <c r="G312" s="2"/>
       <c r="H312" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (311,27699,'PIUS',Pichler',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (311,'01.11.1975','PIUS',Pichler',3,1,);</v>
       </c>
       <c r="I312" s="2"/>
       <c r="J312" s="2"/>
       <c r="K312" s="2"/>
     </row>
-    <row r="313" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>312</v>
       </c>
@@ -59725,14 +59858,14 @@
       </c>
       <c r="G313" s="2"/>
       <c r="H313" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (312,27729,'Raphael',Reiter',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (312,'01.12.1975','Raphael',Reiter',3,1,);</v>
       </c>
       <c r="I313" s="2"/>
       <c r="J313" s="2"/>
       <c r="K313" s="2"/>
     </row>
-    <row r="314" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>313</v>
       </c>
@@ -59753,14 +59886,14 @@
       </c>
       <c r="G314" s="2"/>
       <c r="H314" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (313,27760,'REBECCA',Riegler',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (313,'01.01.1976','REBECCA',Riegler',3,1,);</v>
       </c>
       <c r="I314" s="2"/>
       <c r="J314" s="2"/>
       <c r="K314" s="2"/>
     </row>
-    <row r="315" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>314</v>
       </c>
@@ -59781,14 +59914,14 @@
       </c>
       <c r="G315" s="2"/>
       <c r="H315" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (314,27791,'RENE',Schmid',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (314,'01.02.1976','RENE',Schmid',3,1,);</v>
       </c>
       <c r="I315" s="2"/>
       <c r="J315" s="2"/>
       <c r="K315" s="2"/>
     </row>
-    <row r="316" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>315</v>
       </c>
@@ -59809,14 +59942,14 @@
       </c>
       <c r="G316" s="2"/>
       <c r="H316" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (315,27820,'ROMAN',Schmidt',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (315,'01.03.1976','ROMAN',Schmidt',3,1,);</v>
       </c>
       <c r="I316" s="2"/>
       <c r="J316" s="2"/>
       <c r="K316" s="2"/>
     </row>
-    <row r="317" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>316</v>
       </c>
@@ -59837,14 +59970,14 @@
       </c>
       <c r="G317" s="2"/>
       <c r="H317" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (316,27851,'Romy',Schneider',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (316,'01.04.1976','Romy',Schneider',3,1,);</v>
       </c>
       <c r="I317" s="2"/>
       <c r="J317" s="2"/>
       <c r="K317" s="2"/>
     </row>
-    <row r="318" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>317</v>
       </c>
@@ -59865,14 +59998,14 @@
       </c>
       <c r="G318" s="2"/>
       <c r="H318" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (317,27881,'Ronja',Schuster',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (317,'01.05.1976','Ronja',Schuster',3,1,);</v>
       </c>
       <c r="I318" s="2"/>
       <c r="J318" s="2"/>
       <c r="K318" s="2"/>
     </row>
-    <row r="319" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>318</v>
       </c>
@@ -59893,14 +60026,14 @@
       </c>
       <c r="G319" s="2"/>
       <c r="H319" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (318,27912,'Rosa',Schwarz',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (318,'01.06.1976','Rosa',Schwarz',3,1,);</v>
       </c>
       <c r="I319" s="2"/>
       <c r="J319" s="2"/>
       <c r="K319" s="2"/>
     </row>
-    <row r="320" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>319</v>
       </c>
@@ -59921,14 +60054,14 @@
       </c>
       <c r="G320" s="2"/>
       <c r="H320" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (319,27942,'Rosalie',Stadler',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (319,'01.07.1976','Rosalie',Stadler',3,1,);</v>
       </c>
       <c r="I320" s="2"/>
       <c r="J320" s="2"/>
       <c r="K320" s="2"/>
     </row>
-    <row r="321" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>320</v>
       </c>
@@ -59949,14 +60082,14 @@
       </c>
       <c r="G321" s="2"/>
       <c r="H321" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (320,27973,'SABRINA',Steiner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (320,'01.08.1976','SABRINA',Steiner',3,1,);</v>
       </c>
       <c r="I321" s="2"/>
       <c r="J321" s="2"/>
       <c r="K321" s="2"/>
     </row>
-    <row r="322" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>321</v>
       </c>
@@ -59977,14 +60110,14 @@
       </c>
       <c r="G322" s="2"/>
       <c r="H322" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (321,28004,'SAMIRA',Strasser',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (321,'01.09.1976','SAMIRA',Strasser',3,1,);</v>
       </c>
       <c r="I322" s="2"/>
       <c r="J322" s="2"/>
       <c r="K322" s="2"/>
     </row>
-    <row r="323" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>322</v>
       </c>
@@ -60005,14 +60138,14 @@
       </c>
       <c r="G323" s="2"/>
       <c r="H323" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (322,28034,'Samuel',Wagner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (322,'01.10.1976','Samuel',Wagner',3,1,);</v>
       </c>
       <c r="I323" s="2"/>
       <c r="J323" s="2"/>
       <c r="K323" s="2"/>
     </row>
-    <row r="324" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>323</v>
       </c>
@@ -60033,14 +60166,14 @@
       </c>
       <c r="G324" s="2"/>
       <c r="H324" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (323,28065,'SANDRA',Wallner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (323,'01.11.1976','SANDRA',Wallner',3,1,);</v>
       </c>
       <c r="I324" s="2"/>
       <c r="J324" s="2"/>
       <c r="K324" s="2"/>
     </row>
-    <row r="325" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>324</v>
       </c>
@@ -60061,14 +60194,14 @@
       </c>
       <c r="G325" s="2"/>
       <c r="H325" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (324,28095,'SANDRO',Weber',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (324,'01.12.1976','SANDRO',Weber',3,1,);</v>
       </c>
       <c r="I325" s="2"/>
       <c r="J325" s="2"/>
       <c r="K325" s="2"/>
     </row>
-    <row r="326" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>325</v>
       </c>
@@ -60089,14 +60222,14 @@
       </c>
       <c r="G326" s="2"/>
       <c r="H326" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (325,28126,'Sarah',Weiss',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (325,'01.01.1977','Sarah',Weiss',3,1,);</v>
       </c>
       <c r="I326" s="2"/>
       <c r="J326" s="2"/>
       <c r="K326" s="2"/>
     </row>
-    <row r="327" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>326</v>
       </c>
@@ -60117,14 +60250,14 @@
       </c>
       <c r="G327" s="2"/>
       <c r="H327" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (326,28157,'SARINA',Wieser',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (326,'01.02.1977','SARINA',Wieser',3,1,);</v>
       </c>
       <c r="I327" s="2"/>
       <c r="J327" s="2"/>
       <c r="K327" s="2"/>
     </row>
-    <row r="328" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>327</v>
       </c>
@@ -60145,14 +60278,14 @@
       </c>
       <c r="G328" s="2"/>
       <c r="H328" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (327,28185,'Sebastian',Wimmer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (327,'01.03.1977','Sebastian',Wimmer',3,1,);</v>
       </c>
       <c r="I328" s="2"/>
       <c r="J328" s="2"/>
       <c r="K328" s="2"/>
     </row>
-    <row r="329" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>328</v>
       </c>
@@ -60173,14 +60306,14 @@
       </c>
       <c r="G329" s="2"/>
       <c r="H329" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (328,28216,'Selina',Winkler',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (328,'01.04.1977','Selina',Winkler',3,1,);</v>
       </c>
       <c r="I329" s="2"/>
       <c r="J329" s="2"/>
       <c r="K329" s="2"/>
     </row>
-    <row r="330" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>329</v>
       </c>
@@ -60201,14 +60334,14 @@
       </c>
       <c r="G330" s="2"/>
       <c r="H330" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (329,28246,'SEVERIN',Winter',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (329,'01.05.1977','SEVERIN',Winter',3,1,);</v>
       </c>
       <c r="I330" s="2"/>
       <c r="J330" s="2"/>
       <c r="K330" s="2"/>
     </row>
-    <row r="331" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>330</v>
       </c>
@@ -60229,14 +60362,14 @@
       </c>
       <c r="G331" s="2"/>
       <c r="H331" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (330,28277,'Simon',Wolf',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (330,'01.06.1977','Simon',Wolf',3,1,);</v>
       </c>
       <c r="I331" s="2"/>
       <c r="J331" s="2"/>
       <c r="K331" s="2"/>
     </row>
-    <row r="332" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>331</v>
       </c>
@@ -60257,14 +60390,14 @@
       </c>
       <c r="G332" s="2"/>
       <c r="H332" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (331,28307,'SIMONE',Aigner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (331,'01.07.1977','SIMONE',Aigner',3,1,);</v>
       </c>
       <c r="I332" s="2"/>
       <c r="J332" s="2"/>
       <c r="K332" s="2"/>
     </row>
-    <row r="333" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>332</v>
       </c>
@@ -60285,14 +60418,14 @@
       </c>
       <c r="G333" s="2"/>
       <c r="H333" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (332,28338,'Sina',Auer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (332,'01.08.1977','Sina',Auer',3,1,);</v>
       </c>
       <c r="I333" s="2"/>
       <c r="J333" s="2"/>
       <c r="K333" s="2"/>
     </row>
-    <row r="334" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>333</v>
       </c>
@@ -60313,14 +60446,14 @@
       </c>
       <c r="G334" s="2"/>
       <c r="H334" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (333,28369,'SONJA',Bauer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (333,'01.09.1977','SONJA',Bauer',3,1,);</v>
       </c>
       <c r="I334" s="2"/>
       <c r="J334" s="2"/>
       <c r="K334" s="2"/>
     </row>
-    <row r="335" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>334</v>
       </c>
@@ -60341,14 +60474,14 @@
       </c>
       <c r="G335" s="2"/>
       <c r="H335" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (334,28399,'Sophia',Baumgartner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (334,'01.10.1977','Sophia',Baumgartner',3,1,);</v>
       </c>
       <c r="I335" s="2"/>
       <c r="J335" s="2"/>
       <c r="K335" s="2"/>
     </row>
-    <row r="336" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>335</v>
       </c>
@@ -60369,14 +60502,14 @@
       </c>
       <c r="G336" s="2"/>
       <c r="H336" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (335,28430,'Sophie',Berger',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (335,'01.11.1977','Sophie',Berger',3,1,);</v>
       </c>
       <c r="I336" s="2"/>
       <c r="J336" s="2"/>
       <c r="K336" s="2"/>
     </row>
-    <row r="337" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>336</v>
       </c>
@@ -60397,14 +60530,14 @@
       </c>
       <c r="G337" s="2"/>
       <c r="H337" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (336,28460,'Stefan',Binder',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (336,'01.12.1977','Stefan',Binder',3,1,);</v>
       </c>
       <c r="I337" s="2"/>
       <c r="J337" s="2"/>
       <c r="K337" s="2"/>
     </row>
-    <row r="338" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>337</v>
       </c>
@@ -60425,14 +60558,14 @@
       </c>
       <c r="G338" s="2"/>
       <c r="H338" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (337,28491,'STEFANIE',Brunner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (337,'01.01.1978','STEFANIE',Brunner',3,1,);</v>
       </c>
       <c r="I338" s="2"/>
       <c r="J338" s="2"/>
       <c r="K338" s="2"/>
     </row>
-    <row r="339" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>338</v>
       </c>
@@ -60453,14 +60586,14 @@
       </c>
       <c r="G339" s="2"/>
       <c r="H339" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (338,28522,'Stella',Ebner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (338,'01.02.1978','Stella',Ebner',3,1,);</v>
       </c>
       <c r="I339" s="2"/>
       <c r="J339" s="2"/>
       <c r="K339" s="2"/>
     </row>
-    <row r="340" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>339</v>
       </c>
@@ -60481,14 +60614,14 @@
       </c>
       <c r="G340" s="2"/>
       <c r="H340" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (339,28550,'STEPHANIE',Eder',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (339,'01.03.1978','STEPHANIE',Eder',3,1,);</v>
       </c>
       <c r="I340" s="2"/>
       <c r="J340" s="2"/>
       <c r="K340" s="2"/>
     </row>
-    <row r="341" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>340</v>
       </c>
@@ -60509,14 +60642,14 @@
       </c>
       <c r="G341" s="2"/>
       <c r="H341" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (340,28581,'TAMARA',Egger',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (340,'01.04.1978','TAMARA',Egger',3,1,);</v>
       </c>
       <c r="I341" s="2"/>
       <c r="J341" s="2"/>
       <c r="K341" s="2"/>
     </row>
-    <row r="342" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>341</v>
       </c>
@@ -60537,14 +60670,14 @@
       </c>
       <c r="G342" s="2"/>
       <c r="H342" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (341,28611,'Theo',Fischer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (341,'01.05.1978','Theo',Fischer',3,1,);</v>
       </c>
       <c r="I342" s="2"/>
       <c r="J342" s="2"/>
       <c r="K342" s="2"/>
     </row>
-    <row r="343" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>342</v>
       </c>
@@ -60565,14 +60698,14 @@
       </c>
       <c r="G343" s="2"/>
       <c r="H343" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (342,28642,'Theodor',Fuchs',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (342,'01.06.1978','Theodor',Fuchs',3,1,);</v>
       </c>
       <c r="I343" s="2"/>
       <c r="J343" s="2"/>
       <c r="K343" s="2"/>
     </row>
-    <row r="344" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>343</v>
       </c>
@@ -60593,14 +60726,14 @@
       </c>
       <c r="G344" s="2"/>
       <c r="H344" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (343,28672,'Theresa',Gruber',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (343,'01.07.1978','Theresa',Gruber',3,1,);</v>
       </c>
       <c r="I344" s="2"/>
       <c r="J344" s="2"/>
       <c r="K344" s="2"/>
     </row>
-    <row r="345" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>344</v>
       </c>
@@ -60621,14 +60754,14 @@
       </c>
       <c r="G345" s="2"/>
       <c r="H345" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (344,28703,'Thomas',Haas',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (344,'01.08.1978','Thomas',Haas',3,1,);</v>
       </c>
       <c r="I345" s="2"/>
       <c r="J345" s="2"/>
       <c r="K345" s="2"/>
     </row>
-    <row r="346" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <v>345</v>
       </c>
@@ -60649,14 +60782,14 @@
       </c>
       <c r="G346" s="2"/>
       <c r="H346" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (345,28734,'Tim',Haider',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (345,'01.09.1978','Tim',Haider',3,1,);</v>
       </c>
       <c r="I346" s="2"/>
       <c r="J346" s="2"/>
       <c r="K346" s="2"/>
     </row>
-    <row r="347" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>346</v>
       </c>
@@ -60677,14 +60810,14 @@
       </c>
       <c r="G347" s="2"/>
       <c r="H347" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (346,28764,'Tobias',Hofer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (346,'01.10.1978','Tobias',Hofer',3,1,);</v>
       </c>
       <c r="I347" s="2"/>
       <c r="J347" s="2"/>
       <c r="K347" s="2"/>
     </row>
-    <row r="348" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <v>347</v>
       </c>
@@ -60705,14 +60838,14 @@
       </c>
       <c r="G348" s="2"/>
       <c r="H348" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (347,28795,'Toni',Holzer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (347,'01.11.1978','Toni',Holzer',3,1,);</v>
       </c>
       <c r="I348" s="2"/>
       <c r="J348" s="2"/>
       <c r="K348" s="2"/>
     </row>
-    <row r="349" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>348</v>
       </c>
@@ -60733,14 +60866,14 @@
       </c>
       <c r="G349" s="2"/>
       <c r="H349" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (348,28825,'TUANA',Huber',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (348,'01.12.1978','TUANA',Huber',3,1,);</v>
       </c>
       <c r="I349" s="2"/>
       <c r="J349" s="2"/>
       <c r="K349" s="2"/>
     </row>
-    <row r="350" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <v>349</v>
       </c>
@@ -60761,14 +60894,14 @@
       </c>
       <c r="G350" s="2"/>
       <c r="H350" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (349,28856,'Valentin',Koller',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (349,'01.01.1979','Valentin',Koller',3,1,);</v>
       </c>
       <c r="I350" s="2"/>
       <c r="J350" s="2"/>
       <c r="K350" s="2"/>
     </row>
-    <row r="351" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>350</v>
       </c>
@@ -60789,14 +60922,14 @@
       </c>
       <c r="G351" s="2"/>
       <c r="H351" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (350,28887,'Valentina',Lang',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (350,'01.02.1979','Valentina',Lang',3,1,);</v>
       </c>
       <c r="I351" s="2"/>
       <c r="J351" s="2"/>
       <c r="K351" s="2"/>
     </row>
-    <row r="352" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <v>351</v>
       </c>
@@ -60817,14 +60950,14 @@
       </c>
       <c r="G352" s="2"/>
       <c r="H352" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (351,28915,'Valerie',Lechner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (351,'01.03.1979','Valerie',Lechner',3,1,);</v>
       </c>
       <c r="I352" s="2"/>
       <c r="J352" s="2"/>
       <c r="K352" s="2"/>
     </row>
-    <row r="353" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>352</v>
       </c>
@@ -60845,14 +60978,14 @@
       </c>
       <c r="G353" s="2"/>
       <c r="H353" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (352,28946,'Vanessa',Lehner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (352,'01.04.1979','Vanessa',Lehner',3,1,);</v>
       </c>
       <c r="I353" s="2"/>
       <c r="J353" s="2"/>
       <c r="K353" s="2"/>
     </row>
-    <row r="354" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <v>353</v>
       </c>
@@ -60873,14 +61006,14 @@
       </c>
       <c r="G354" s="2"/>
       <c r="H354" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (353,28976,'VERENA',Leitner',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (353,'01.05.1979','VERENA',Leitner',3,1,);</v>
       </c>
       <c r="I354" s="2"/>
       <c r="J354" s="2"/>
       <c r="K354" s="2"/>
     </row>
-    <row r="355" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <v>354</v>
       </c>
@@ -60901,14 +61034,14 @@
       </c>
       <c r="G355" s="2"/>
       <c r="H355" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (354,29007,'Victoria',Maier',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (354,'01.06.1979','Victoria',Maier',3,1,);</v>
       </c>
       <c r="I355" s="2"/>
       <c r="J355" s="2"/>
       <c r="K355" s="2"/>
     </row>
-    <row r="356" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>355</v>
       </c>
@@ -60929,14 +61062,14 @@
       </c>
       <c r="G356" s="2"/>
       <c r="H356" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (355,29037,'Viktoria',Mair',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (355,'01.07.1979','Viktoria',Mair',3,1,);</v>
       </c>
       <c r="I356" s="2"/>
       <c r="J356" s="2"/>
       <c r="K356" s="2"/>
     </row>
-    <row r="357" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>356</v>
       </c>
@@ -60957,14 +61090,14 @@
       </c>
       <c r="G357" s="2"/>
       <c r="H357" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (356,29068,'Vincent',Maurer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (356,'01.08.1979','Vincent',Maurer',3,1,);</v>
       </c>
       <c r="I357" s="2"/>
       <c r="J357" s="2"/>
       <c r="K357" s="2"/>
     </row>
-    <row r="358" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <v>357</v>
       </c>
@@ -60985,14 +61118,14 @@
       </c>
       <c r="G358" s="2"/>
       <c r="H358" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (357,29099,'Xaver',Mayer',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (357,'01.09.1979','Xaver',Mayer',3,1,);</v>
       </c>
       <c r="I358" s="2"/>
       <c r="J358" s="2"/>
       <c r="K358" s="2"/>
     </row>
-    <row r="359" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <v>358</v>
       </c>
@@ -61013,14 +61146,14 @@
       </c>
       <c r="G359" s="2"/>
       <c r="H359" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (358,29129,'YAGMUR',Mayr',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (358,'01.10.1979','YAGMUR',Mayr',3,1,);</v>
       </c>
       <c r="I359" s="2"/>
       <c r="J359" s="2"/>
       <c r="K359" s="2"/>
     </row>
-    <row r="360" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <v>359</v>
       </c>
@@ -61041,14 +61174,14 @@
       </c>
       <c r="G360" s="2"/>
       <c r="H360" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (359,29160,'Yusuf',Moser',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (359,'01.11.1979','Yusuf',Moser',3,1,);</v>
       </c>
       <c r="I360" s="2"/>
       <c r="J360" s="2"/>
       <c r="K360" s="2"/>
     </row>
-    <row r="361" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <v>360</v>
       </c>
@@ -61069,14 +61202,14 @@
       </c>
       <c r="G361" s="2"/>
       <c r="H361" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (360,29190,'ZEHRA',Müller',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (360,'01.12.1979','ZEHRA',Müller',3,1,);</v>
       </c>
       <c r="I361" s="2"/>
       <c r="J361" s="2"/>
       <c r="K361" s="2"/>
     </row>
-    <row r="362" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <v>361</v>
       </c>
@@ -61097,14 +61230,14 @@
       </c>
       <c r="G362" s="2"/>
       <c r="H362" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (361,29221,'Zeynep',Pichler',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (361,'01.01.1980','Zeynep',Pichler',3,1,);</v>
       </c>
       <c r="I362" s="2"/>
       <c r="J362" s="2"/>
       <c r="K362" s="2"/>
     </row>
-    <row r="363" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <v>362</v>
       </c>
@@ -61125,14 +61258,14 @@
       </c>
       <c r="G363" s="2"/>
       <c r="H363" s="2" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (362,29252,'ZOE',Reiter',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (362,'01.02.1980','ZOE',Reiter',3,1,);</v>
       </c>
       <c r="I363" s="2"/>
       <c r="J363" s="2"/>
       <c r="K363" s="2"/>
     </row>
-    <row r="364" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
         <v>363</v>
       </c>
@@ -61153,8 +61286,8 @@
       </c>
       <c r="G364" s="3"/>
       <c r="H364" s="3" t="str">
-        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;","&amp;Tabelle2[[#This Row],[BIRTHDATE]]&amp;",'"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
-        <v>INSERT INTO PERSON VALUES (363,29281,'ZOEY',Riegler',3,1,);</v>
+        <f>("INSERT INTO PERSON VALUES ("&amp;Tabelle2[[#This Row],[ID]]&amp;",'"&amp;TEXT(Tabelle2[[#This Row],[BIRTHDATE]],"TT.MM.JJJJ")&amp;"','"&amp;Tabelle2[[#This Row],[FIRST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[LAST_NAME]]&amp;"',"&amp;Tabelle2[[#This Row],[PERSON_TYPE]]&amp;","&amp;Tabelle2[[#This Row],[STATUS]]&amp;","&amp;Tabelle2[[#This Row],[ADDRESS_ID]]&amp;");")</f>
+        <v>INSERT INTO PERSON VALUES (363,'01.03.1980','ZOEY',Riegler',3,1,);</v>
       </c>
       <c r="I364" s="3"/>
       <c r="J364" s="3"/>
@@ -61172,10 +61305,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A378AEAD-F352-4637-9209-DC8441344CF1}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61188,10 +61321,13 @@
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" customWidth="1"/>
     <col min="8" max="8" width="41.5703125" customWidth="1"/>
-    <col min="9" max="9" width="70" customWidth="1"/>
+    <col min="9" max="9" width="72.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="52.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>839</v>
       </c>
@@ -61219,8 +61355,17 @@
       <c r="I1" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>927</v>
+      </c>
+      <c r="K1" t="s">
+        <v>923</v>
+      </c>
+      <c r="L1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -61250,8 +61395,18 @@
         <f>("INSERT INTO ADDRESS VALUES ("&amp;Tabelle14[[#This Row],[ID]]&amp;",'"&amp;Tabelle14[[#This Row],[CITY]]&amp;"','"&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;"','"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;"','"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;"','"&amp;Tabelle14[[#This Row],[STREET]]&amp;"','"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;"');")</f>
         <v>INSERT INTO ADDRESS VALUES (1,'Sölden','Austria','2a','1','Uferweg','6450');</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="L2" s="2" t="str">
+        <f>Tabelle14[[#This Row],[addressStrings.add(]]&amp;Tabelle14[[#This Row],["]]&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;";"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;";"&amp;Tabelle14[[#This Row],[CITY]]&amp;";"&amp;Tabelle14[[#This Row],[STREET]]&amp;";"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;";"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;Tabelle14[[#This Row],["]]&amp;");"</f>
+        <v>addressStrings.add("Austria;6450;Sölden;Uferweg;1;2a");</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -61281,8 +61436,18 @@
         <f>("INSERT INTO ADDRESS VALUES ("&amp;Tabelle14[[#This Row],[ID]]&amp;",'"&amp;Tabelle14[[#This Row],[CITY]]&amp;"','"&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;"','"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;"','"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;"','"&amp;Tabelle14[[#This Row],[STREET]]&amp;"','"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;"');")</f>
         <v>INSERT INTO ADDRESS VALUES (2,'Zwieselstein','Austria','1','14','Roanweg','6450');</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="L3" s="2" t="str">
+        <f>Tabelle14[[#This Row],[addressStrings.add(]]&amp;Tabelle14[[#This Row],["]]&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;";"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;";"&amp;Tabelle14[[#This Row],[CITY]]&amp;";"&amp;Tabelle14[[#This Row],[STREET]]&amp;";"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;";"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;Tabelle14[[#This Row],["]]&amp;");"</f>
+        <v>addressStrings.add("Austria;6450;Zwieselstein;Roanweg;14;1");</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -61312,8 +61477,18 @@
         <f>("INSERT INTO ADDRESS VALUES ("&amp;Tabelle14[[#This Row],[ID]]&amp;",'"&amp;Tabelle14[[#This Row],[CITY]]&amp;"','"&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;"','"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;"','"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;"','"&amp;Tabelle14[[#This Row],[STREET]]&amp;"','"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;"');")</f>
         <v>INSERT INTO ADDRESS VALUES (3,'Sölden','Austria','1','4','Alpenweg','6450');</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="L4" s="2" t="str">
+        <f>Tabelle14[[#This Row],[addressStrings.add(]]&amp;Tabelle14[[#This Row],["]]&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;";"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;";"&amp;Tabelle14[[#This Row],[CITY]]&amp;";"&amp;Tabelle14[[#This Row],[STREET]]&amp;";"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;";"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;Tabelle14[[#This Row],["]]&amp;");"</f>
+        <v>addressStrings.add("Austria;6450;Sölden;Alpenweg;4;1");</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -61343,8 +61518,18 @@
         <f>("INSERT INTO ADDRESS VALUES ("&amp;Tabelle14[[#This Row],[ID]]&amp;",'"&amp;Tabelle14[[#This Row],[CITY]]&amp;"','"&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;"','"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;"','"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;"','"&amp;Tabelle14[[#This Row],[STREET]]&amp;"','"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;"');")</f>
         <v>INSERT INTO ADDRESS VALUES (4,'Sölden','Austria','1','19','Hainbachweg','6450');</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="L5" s="2" t="str">
+        <f>Tabelle14[[#This Row],[addressStrings.add(]]&amp;Tabelle14[[#This Row],["]]&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;";"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;";"&amp;Tabelle14[[#This Row],[CITY]]&amp;";"&amp;Tabelle14[[#This Row],[STREET]]&amp;";"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;";"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;Tabelle14[[#This Row],["]]&amp;");"</f>
+        <v>addressStrings.add("Austria;6450;Sölden;Hainbachweg;19;1");</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -61374,8 +61559,18 @@
         <f>("INSERT INTO ADDRESS VALUES ("&amp;Tabelle14[[#This Row],[ID]]&amp;",'"&amp;Tabelle14[[#This Row],[CITY]]&amp;"','"&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;"','"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;"','"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;"','"&amp;Tabelle14[[#This Row],[STREET]]&amp;"','"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;"');")</f>
         <v>INSERT INTO ADDRESS VALUES (5,'Sölden','Austria','0','6','Dorfblickweg','6450');</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="L6" s="2" t="str">
+        <f>Tabelle14[[#This Row],[addressStrings.add(]]&amp;Tabelle14[[#This Row],["]]&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;";"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;";"&amp;Tabelle14[[#This Row],[CITY]]&amp;";"&amp;Tabelle14[[#This Row],[STREET]]&amp;";"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;";"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;Tabelle14[[#This Row],["]]&amp;");"</f>
+        <v>addressStrings.add("Austria;6450;Sölden;Dorfblickweg;6;0");</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -61405,8 +61600,18 @@
         <f>("INSERT INTO ADDRESS VALUES ("&amp;Tabelle14[[#This Row],[ID]]&amp;",'"&amp;Tabelle14[[#This Row],[CITY]]&amp;"','"&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;"','"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;"','"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;"','"&amp;Tabelle14[[#This Row],[STREET]]&amp;"','"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;"');")</f>
         <v>INSERT INTO ADDRESS VALUES (6,'Sölden','Austria','keine Angabe','17','Platterstraße','6450');</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="L7" s="2" t="str">
+        <f>Tabelle14[[#This Row],[addressStrings.add(]]&amp;Tabelle14[[#This Row],["]]&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;";"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;";"&amp;Tabelle14[[#This Row],[CITY]]&amp;";"&amp;Tabelle14[[#This Row],[STREET]]&amp;";"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;";"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;Tabelle14[[#This Row],["]]&amp;");"</f>
+        <v>addressStrings.add("Austria;6450;Sölden;Platterstraße;17;keine Angabe");</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -61436,8 +61641,18 @@
         <f>("INSERT INTO ADDRESS VALUES ("&amp;Tabelle14[[#This Row],[ID]]&amp;",'"&amp;Tabelle14[[#This Row],[CITY]]&amp;"','"&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;"','"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;"','"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;"','"&amp;Tabelle14[[#This Row],[STREET]]&amp;"','"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;"');")</f>
         <v>INSERT INTO ADDRESS VALUES (7,'Sölden','Austria','x','9','Blumenweg','6450');</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="L8" s="2" t="str">
+        <f>Tabelle14[[#This Row],[addressStrings.add(]]&amp;Tabelle14[[#This Row],["]]&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;";"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;";"&amp;Tabelle14[[#This Row],[CITY]]&amp;";"&amp;Tabelle14[[#This Row],[STREET]]&amp;";"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;";"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;Tabelle14[[#This Row],["]]&amp;");"</f>
+        <v>addressStrings.add("Austria;6450;Sölden;Blumenweg;9;x");</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -61467,8 +61682,18 @@
         <f>("INSERT INTO ADDRESS VALUES ("&amp;Tabelle14[[#This Row],[ID]]&amp;",'"&amp;Tabelle14[[#This Row],[CITY]]&amp;"','"&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;"','"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;"','"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;"','"&amp;Tabelle14[[#This Row],[STREET]]&amp;"','"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;"');")</f>
         <v>INSERT INTO ADDRESS VALUES (8,'Sölden','Austria','0','4','Wildmoosstraße','6450');</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="L9" s="2" t="str">
+        <f>Tabelle14[[#This Row],[addressStrings.add(]]&amp;Tabelle14[[#This Row],["]]&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;";"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;";"&amp;Tabelle14[[#This Row],[CITY]]&amp;";"&amp;Tabelle14[[#This Row],[STREET]]&amp;";"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;";"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;Tabelle14[[#This Row],["]]&amp;");"</f>
+        <v>addressStrings.add("Austria;6450;Sölden;Wildmoosstraße;4;0");</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -61498,8 +61723,18 @@
         <f>("INSERT INTO ADDRESS VALUES ("&amp;Tabelle14[[#This Row],[ID]]&amp;",'"&amp;Tabelle14[[#This Row],[CITY]]&amp;"','"&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;"','"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;"','"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;"','"&amp;Tabelle14[[#This Row],[STREET]]&amp;"','"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;"');")</f>
         <v>INSERT INTO ADDRESS VALUES (9,'Sölden','Austria','0','2','Gewerbestraße','6450');</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="L10" s="2" t="str">
+        <f>Tabelle14[[#This Row],[addressStrings.add(]]&amp;Tabelle14[[#This Row],["]]&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;";"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;";"&amp;Tabelle14[[#This Row],[CITY]]&amp;";"&amp;Tabelle14[[#This Row],[STREET]]&amp;";"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;";"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;Tabelle14[[#This Row],["]]&amp;");"</f>
+        <v>addressStrings.add("Austria;6450;Sölden;Gewerbestraße;2;0");</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -61529,8 +61764,18 @@
         <f>("INSERT INTO ADDRESS VALUES ("&amp;Tabelle14[[#This Row],[ID]]&amp;",'"&amp;Tabelle14[[#This Row],[CITY]]&amp;"','"&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;"','"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;"','"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;"','"&amp;Tabelle14[[#This Row],[STREET]]&amp;"','"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;"');")</f>
         <v>INSERT INTO ADDRESS VALUES (10,'Obergurgl','Austria','0','23','Gaisbergweg','6456');</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="L11" s="2" t="str">
+        <f>Tabelle14[[#This Row],[addressStrings.add(]]&amp;Tabelle14[[#This Row],["]]&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;";"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;";"&amp;Tabelle14[[#This Row],[CITY]]&amp;";"&amp;Tabelle14[[#This Row],[STREET]]&amp;";"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;";"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;Tabelle14[[#This Row],["]]&amp;");"</f>
+        <v>addressStrings.add("Austria;6456;Obergurgl;Gaisbergweg;23;0");</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -61560,8 +61805,18 @@
         <f>("INSERT INTO ADDRESS VALUES ("&amp;Tabelle14[[#This Row],[ID]]&amp;",'"&amp;Tabelle14[[#This Row],[CITY]]&amp;"','"&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;"','"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;"','"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;"','"&amp;Tabelle14[[#This Row],[STREET]]&amp;"','"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;"');")</f>
         <v>INSERT INTO ADDRESS VALUES (11,'Obergurgl','Austria','0','6a','Kressbrunnenweg','6456');</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="L12" s="2" t="str">
+        <f>Tabelle14[[#This Row],[addressStrings.add(]]&amp;Tabelle14[[#This Row],["]]&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;";"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;";"&amp;Tabelle14[[#This Row],[CITY]]&amp;";"&amp;Tabelle14[[#This Row],[STREET]]&amp;";"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;";"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;Tabelle14[[#This Row],["]]&amp;");"</f>
+        <v>addressStrings.add("Austria;6456;Obergurgl;Kressbrunnenweg;6a;0");</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -61591,8 +61846,18 @@
         <f>("INSERT INTO ADDRESS VALUES ("&amp;Tabelle14[[#This Row],[ID]]&amp;",'"&amp;Tabelle14[[#This Row],[CITY]]&amp;"','"&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;"','"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;"','"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;"','"&amp;Tabelle14[[#This Row],[STREET]]&amp;"','"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;"');")</f>
         <v>INSERT INTO ADDRESS VALUES (12,'Obergurgl','Austria','0','7','Schlossweg','6456');</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="L13" s="2" t="str">
+        <f>Tabelle14[[#This Row],[addressStrings.add(]]&amp;Tabelle14[[#This Row],["]]&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;";"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;";"&amp;Tabelle14[[#This Row],[CITY]]&amp;";"&amp;Tabelle14[[#This Row],[STREET]]&amp;";"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;";"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;Tabelle14[[#This Row],["]]&amp;");"</f>
+        <v>addressStrings.add("Austria;6456;Obergurgl;Schlossweg;7;0");</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -61622,8 +61887,18 @@
         <f>("INSERT INTO ADDRESS VALUES ("&amp;Tabelle14[[#This Row],[ID]]&amp;",'"&amp;Tabelle14[[#This Row],[CITY]]&amp;"','"&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;"','"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;"','"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;"','"&amp;Tabelle14[[#This Row],[STREET]]&amp;"','"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;"');")</f>
         <v>INSERT INTO ADDRESS VALUES (13,'Längenfeld','Austria','0','88a','Unterlängenfeld','6444');</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="L14" s="2" t="str">
+        <f>Tabelle14[[#This Row],[addressStrings.add(]]&amp;Tabelle14[[#This Row],["]]&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;";"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;";"&amp;Tabelle14[[#This Row],[CITY]]&amp;";"&amp;Tabelle14[[#This Row],[STREET]]&amp;";"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;";"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;Tabelle14[[#This Row],["]]&amp;");"</f>
+        <v>addressStrings.add("Austria;6444;Längenfeld;Unterlängenfeld;88a;0");</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -61653,8 +61928,18 @@
         <f>("INSERT INTO ADDRESS VALUES ("&amp;Tabelle14[[#This Row],[ID]]&amp;",'"&amp;Tabelle14[[#This Row],[CITY]]&amp;"','"&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;"','"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;"','"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;"','"&amp;Tabelle14[[#This Row],[STREET]]&amp;"','"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;"');")</f>
         <v>INSERT INTO ADDRESS VALUES (14,'Längenfeld','Austria','0','154','Unterlängenfeld','6444');</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="K15" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="L15" s="2" t="str">
+        <f>Tabelle14[[#This Row],[addressStrings.add(]]&amp;Tabelle14[[#This Row],["]]&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;";"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;";"&amp;Tabelle14[[#This Row],[CITY]]&amp;";"&amp;Tabelle14[[#This Row],[STREET]]&amp;";"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;";"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;Tabelle14[[#This Row],["]]&amp;");"</f>
+        <v>addressStrings.add("Austria;6444;Längenfeld;Unterlängenfeld;154;0");</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -61684,8 +61969,18 @@
         <f>("INSERT INTO ADDRESS VALUES ("&amp;Tabelle14[[#This Row],[ID]]&amp;",'"&amp;Tabelle14[[#This Row],[CITY]]&amp;"','"&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;"','"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;"','"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;"','"&amp;Tabelle14[[#This Row],[STREET]]&amp;"','"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;"');")</f>
         <v>INSERT INTO ADDRESS VALUES (15,'Längenfeld','Austria','0','42','Oberlängenfeld','6444');</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="L16" s="2" t="str">
+        <f>Tabelle14[[#This Row],[addressStrings.add(]]&amp;Tabelle14[[#This Row],["]]&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;";"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;";"&amp;Tabelle14[[#This Row],[CITY]]&amp;";"&amp;Tabelle14[[#This Row],[STREET]]&amp;";"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;";"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;Tabelle14[[#This Row],["]]&amp;");"</f>
+        <v>addressStrings.add("Austria;6444;Längenfeld;Oberlängenfeld;42;0");</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -61715,8 +62010,18 @@
         <f>("INSERT INTO ADDRESS VALUES ("&amp;Tabelle14[[#This Row],[ID]]&amp;",'"&amp;Tabelle14[[#This Row],[CITY]]&amp;"','"&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;"','"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;"','"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;"','"&amp;Tabelle14[[#This Row],[STREET]]&amp;"','"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;"');")</f>
         <v>INSERT INTO ADDRESS VALUES (16,'Längenfeld','Austria','0','100a','Oberlängenfeld','6444');</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="L17" s="2" t="str">
+        <f>Tabelle14[[#This Row],[addressStrings.add(]]&amp;Tabelle14[[#This Row],["]]&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;";"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;";"&amp;Tabelle14[[#This Row],[CITY]]&amp;";"&amp;Tabelle14[[#This Row],[STREET]]&amp;";"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;";"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;Tabelle14[[#This Row],["]]&amp;");"</f>
+        <v>addressStrings.add("Austria;6444;Längenfeld;Oberlängenfeld;100a;0");</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -61746,8 +62051,18 @@
         <f>("INSERT INTO ADDRESS VALUES ("&amp;Tabelle14[[#This Row],[ID]]&amp;",'"&amp;Tabelle14[[#This Row],[CITY]]&amp;"','"&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;"','"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;"','"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;"','"&amp;Tabelle14[[#This Row],[STREET]]&amp;"','"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;"');")</f>
         <v>INSERT INTO ADDRESS VALUES (17,'Längenfeld','Austria','0','91a','Unterlängenfeld','6444');</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="L18" s="2" t="str">
+        <f>Tabelle14[[#This Row],[addressStrings.add(]]&amp;Tabelle14[[#This Row],["]]&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;";"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;";"&amp;Tabelle14[[#This Row],[CITY]]&amp;";"&amp;Tabelle14[[#This Row],[STREET]]&amp;";"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;";"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;Tabelle14[[#This Row],["]]&amp;");"</f>
+        <v>addressStrings.add("Austria;6444;Längenfeld;Unterlängenfeld;91a;0");</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -61777,8 +62092,18 @@
         <f>("INSERT INTO ADDRESS VALUES ("&amp;Tabelle14[[#This Row],[ID]]&amp;",'"&amp;Tabelle14[[#This Row],[CITY]]&amp;"','"&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;"','"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;"','"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;"','"&amp;Tabelle14[[#This Row],[STREET]]&amp;"','"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;"');")</f>
         <v>INSERT INTO ADDRESS VALUES (18,'Umhausen','Austria','0','5','Sandgasse','6441');</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="L19" s="2" t="str">
+        <f>Tabelle14[[#This Row],[addressStrings.add(]]&amp;Tabelle14[[#This Row],["]]&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;";"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;";"&amp;Tabelle14[[#This Row],[CITY]]&amp;";"&amp;Tabelle14[[#This Row],[STREET]]&amp;";"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;";"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;Tabelle14[[#This Row],["]]&amp;");"</f>
+        <v>addressStrings.add("Austria;6441;Umhausen;Sandgasse;5;0");</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -61808,8 +62133,18 @@
         <f>("INSERT INTO ADDRESS VALUES ("&amp;Tabelle14[[#This Row],[ID]]&amp;",'"&amp;Tabelle14[[#This Row],[CITY]]&amp;"','"&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;"','"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;"','"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;"','"&amp;Tabelle14[[#This Row],[STREET]]&amp;"','"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;"');")</f>
         <v>INSERT INTO ADDRESS VALUES (19,'Umhausen','Austria','0','32','Lehngasse','6441');</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="L20" s="2" t="str">
+        <f>Tabelle14[[#This Row],[addressStrings.add(]]&amp;Tabelle14[[#This Row],["]]&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;";"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;";"&amp;Tabelle14[[#This Row],[CITY]]&amp;";"&amp;Tabelle14[[#This Row],[STREET]]&amp;";"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;";"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;Tabelle14[[#This Row],["]]&amp;");"</f>
+        <v>addressStrings.add("Austria;6441;Umhausen;Lehngasse;32;0");</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -61839,11 +62174,22 @@
         <f>("INSERT INTO ADDRESS VALUES ("&amp;Tabelle14[[#This Row],[ID]]&amp;",'"&amp;Tabelle14[[#This Row],[CITY]]&amp;"','"&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;"','"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;"','"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;"','"&amp;Tabelle14[[#This Row],[STREET]]&amp;"','"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;"');")</f>
         <v>INSERT INTO ADDRESS VALUES (20,'Umhausen','Austria','0','28','Achrainweg','6441');</v>
       </c>
+      <c r="J21" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="L21" s="2" t="str">
+        <f>Tabelle14[[#This Row],[addressStrings.add(]]&amp;Tabelle14[[#This Row],["]]&amp;Tabelle14[[#This Row],[COUNTRY]]&amp;";"&amp;Tabelle14[[#This Row],[ZIP_CODE]]&amp;";"&amp;Tabelle14[[#This Row],[CITY]]&amp;";"&amp;Tabelle14[[#This Row],[STREET]]&amp;";"&amp;Tabelle14[[#This Row],[HOUSE_NUMBER]]&amp;";"&amp;Tabelle14[[#This Row],[FLOOR]]&amp;Tabelle14[[#This Row],["]]&amp;");"</f>
+        <v>addressStrings.add("Austria;6441;Umhausen;Achrainweg;28;0");</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
